--- a/TERM3/T3B1-ICTPMG613-Manage_ICT_project_plan/2-ICTPMG613-Assessment_Task 2/ICTPMG613_AssessmentTask_Manuel_S_Perez_E-Pert_Chart.xlsx
+++ b/TERM3/T3B1-ICTPMG613-Manage_ICT_project_plan/2-ICTPMG613-Assessment_Task 2/ICTPMG613_AssessmentTask_Manuel_S_Perez_E-Pert_Chart.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\manue\Documents\Assessments\TERM3\T3B1-ICTPMG613-Manage_ICT_project_plan\2-ICTPMG613-Assessment_Task 2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A83FE61-C84A-44F7-BA06-0F0AB70F8A23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF5E7209-5FC5-4607-8B25-CB2E616CBD8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{2E7573F3-6188-4FA9-9041-50436B486355}"/>
   </bookViews>
@@ -1033,8 +1033,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2DCCED96-865F-42B1-814A-F0DD7A1F90A0}">
   <dimension ref="A1:H70"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="H62" sqref="H62:H70"/>
+    <sheetView tabSelected="1" topLeftCell="A60" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="H80" sqref="H80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/TERM3/T3B1-ICTPMG613-Manage_ICT_project_plan/2-ICTPMG613-Assessment_Task 2/ICTPMG613_AssessmentTask_Manuel_S_Perez_E-Pert_Chart.xlsx
+++ b/TERM3/T3B1-ICTPMG613-Manage_ICT_project_plan/2-ICTPMG613-Assessment_Task 2/ICTPMG613_AssessmentTask_Manuel_S_Perez_E-Pert_Chart.xlsx
@@ -8,12 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\manue\Documents\Assessments\TERM3\T3B1-ICTPMG613-Manage_ICT_project_plan\2-ICTPMG613-Assessment_Task 2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF5E7209-5FC5-4607-8B25-CB2E616CBD8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{975F674F-E303-4B99-81AC-F85AA9C1F7FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{2E7573F3-6188-4FA9-9041-50436B486355}"/>
+    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="12336" firstSheet="1" activeTab="2" xr2:uid="{2E7573F3-6188-4FA9-9041-50436B486355}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Chart" sheetId="1" r:id="rId1"/>
+    <sheet name="k-Milestones" sheetId="2" r:id="rId2"/>
+    <sheet name="k-Dependences" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="186">
   <si>
     <t>Activity</t>
   </si>
@@ -510,17 +512,102 @@
   </si>
   <si>
     <t>Unintuitive design, lack of client commitment</t>
+  </si>
+  <si>
+    <t>Project Charters Approved</t>
+  </si>
+  <si>
+    <t>Kickoff Meetings Conducted</t>
+  </si>
+  <si>
+    <t>Project Plans Approved</t>
+  </si>
+  <si>
+    <t>Cloud Provider Contract Signed</t>
+  </si>
+  <si>
+    <t>Cloud Infrastructure Configured</t>
+  </si>
+  <si>
+    <t>Databases Successfully Migrated</t>
+  </si>
+  <si>
+    <t>Core Applications Deployed to Cloud</t>
+  </si>
+  <si>
+    <t>Devices Distributed and Configured</t>
+  </si>
+  <si>
+    <t>Training Completed</t>
+  </si>
+  <si>
+    <t>First Sprint Completed &amp; Reviewed</t>
+  </si>
+  <si>
+    <t>Website Deployed to Production</t>
+  </si>
+  <si>
+    <t>Formal Project Closure</t>
+  </si>
+  <si>
+    <t>No.</t>
+  </si>
+  <si>
+    <t>Milestone</t>
+  </si>
+  <si>
+    <t>Depedency</t>
+  </si>
+  <si>
+    <t>Gain Formal Acceptance of Project Charter</t>
+  </si>
+  <si>
+    <t>Gain Formal Acceptance of Scope Statement</t>
+  </si>
+  <si>
+    <t>Gain Formal Acceptance of Project Plans</t>
+  </si>
+  <si>
+    <t>Formal budget obtaining</t>
+  </si>
+  <si>
+    <t>Select Cloud Provider and Sign Contract</t>
+  </si>
+  <si>
+    <t>Migrate Databases to a Cloud platform</t>
+  </si>
+  <si>
+    <t>Develop and Deploy Core Applications to Cloud platform</t>
+  </si>
+  <si>
+    <t>Perform System-Wide Testing</t>
+  </si>
+  <si>
+    <t>Select work devices Provider and Sign Contract</t>
+  </si>
+  <si>
+    <t>Configure Work Devices</t>
+  </si>
+  <si>
+    <t>Gain Formal Acceptance of website functionalities</t>
+  </si>
+  <si>
+    <t>Conduct Final Testing: IT infrastructure and website, and remote connection</t>
+  </si>
+  <si>
+    <t>Due Date</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="#,###&quot; days&quot;"/>
     <numFmt numFmtId="165" formatCode="#,##0.00&quot; days&quot;"/>
+    <numFmt numFmtId="166" formatCode="ddd\ dd/mmm/yy"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -543,6 +630,24 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -558,7 +663,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -644,12 +749,28 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -696,9 +817,27 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 3" xfId="2" xr:uid="{BB0E93A7-55F0-4420-8B0A-8DA068096FC5}"/>
     <cellStyle name="Per cent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1033,8 +1172,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2DCCED96-865F-42B1-814A-F0DD7A1F90A0}">
   <dimension ref="A1:H70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A60" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="H80" sqref="H80"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1042,7 +1181,7 @@
     <col min="1" max="1" width="17" style="1" customWidth="1"/>
     <col min="2" max="2" width="8.44140625" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="8.88671875" style="1"/>
-    <col min="5" max="5" width="9.5546875" style="13" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.33203125" style="13" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.6640625" style="14" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10.77734375" style="1" customWidth="1"/>
     <col min="8" max="8" width="28.21875" style="1" customWidth="1"/>
@@ -3011,4 +3150,312 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{081C22EC-4620-4117-A76D-1E4837839DB1}">
+  <dimension ref="A1:C13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="30.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.44140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" s="16" t="s">
+        <v>170</v>
+      </c>
+      <c r="B1" s="16" t="s">
+        <v>171</v>
+      </c>
+      <c r="C1" s="18" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" s="17">
+        <v>1</v>
+      </c>
+      <c r="B2" s="17" t="s">
+        <v>158</v>
+      </c>
+      <c r="C2" s="19">
+        <v>45874</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" s="17">
+        <f>A2+1</f>
+        <v>2</v>
+      </c>
+      <c r="B3" s="17" t="s">
+        <v>159</v>
+      </c>
+      <c r="C3" s="20">
+        <v>45877</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" s="17">
+        <f t="shared" ref="A4:A13" si="0">A3+1</f>
+        <v>3</v>
+      </c>
+      <c r="B4" s="17" t="s">
+        <v>160</v>
+      </c>
+      <c r="C4" s="20">
+        <v>45877</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" s="17">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="B5" s="17" t="s">
+        <v>161</v>
+      </c>
+      <c r="C5" s="20">
+        <v>45881</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" s="17">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="B6" s="17" t="s">
+        <v>162</v>
+      </c>
+      <c r="C6" s="20">
+        <v>45889</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" s="17">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="B7" s="17" t="s">
+        <v>163</v>
+      </c>
+      <c r="C7" s="20">
+        <v>45889</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" s="17">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="B8" s="17" t="s">
+        <v>164</v>
+      </c>
+      <c r="C8" s="20">
+        <v>45897</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" s="17">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="B9" s="17" t="s">
+        <v>165</v>
+      </c>
+      <c r="C9" s="20">
+        <v>45901</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" s="17">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="B10" s="17" t="s">
+        <v>166</v>
+      </c>
+      <c r="C10" s="20">
+        <v>45917</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" s="17">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="B11" s="17" t="s">
+        <v>167</v>
+      </c>
+      <c r="C11" s="20">
+        <v>45898</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" s="17">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="B12" s="17" t="s">
+        <v>168</v>
+      </c>
+      <c r="C12" s="20">
+        <v>45901</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" s="17">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="B13" s="17" t="s">
+        <v>169</v>
+      </c>
+      <c r="C13" s="20">
+        <v>45929</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77A6C9D0-B316-4A49-8090-E1E0626B3E1F}">
+  <dimension ref="A1:B13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="3.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="63.21875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" s="16" t="s">
+        <v>170</v>
+      </c>
+      <c r="B1" s="16" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" s="17">
+        <v>1</v>
+      </c>
+      <c r="B2" s="17" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" s="17">
+        <f>A2+1</f>
+        <v>2</v>
+      </c>
+      <c r="B3" s="17" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" s="17">
+        <f t="shared" ref="A4:A13" si="0">A3+1</f>
+        <v>3</v>
+      </c>
+      <c r="B4" s="17" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" s="17">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="B5" s="17" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" s="17">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="B6" s="17" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" s="17">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="B7" s="17" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" s="17">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="B8" s="17" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" s="17">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="B9" s="17" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" s="17">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="B10" s="17" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" s="17">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="B11" s="17" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" s="17">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="B12" s="17" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" s="17">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="B13" s="17" t="s">
+        <v>184</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/TERM3/T3B1-ICTPMG613-Manage_ICT_project_plan/2-ICTPMG613-Assessment_Task 2/ICTPMG613_AssessmentTask_Manuel_S_Perez_E-Pert_Chart.xlsx
+++ b/TERM3/T3B1-ICTPMG613-Manage_ICT_project_plan/2-ICTPMG613-Assessment_Task 2/ICTPMG613_AssessmentTask_Manuel_S_Perez_E-Pert_Chart.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\manue\Documents\Assessments\TERM3\T3B1-ICTPMG613-Manage_ICT_project_plan\2-ICTPMG613-Assessment_Task 2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{975F674F-E303-4B99-81AC-F85AA9C1F7FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4ECD841A-B101-4907-A829-C08C72A817A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="12336" firstSheet="1" activeTab="2" xr2:uid="{2E7573F3-6188-4FA9-9041-50436B486355}"/>
+    <workbookView xWindow="-96" yWindow="0" windowWidth="11712" windowHeight="12336" firstSheet="1" activeTab="2" xr2:uid="{2E7573F3-6188-4FA9-9041-50436B486355}"/>
   </bookViews>
   <sheets>
     <sheet name="Chart" sheetId="1" r:id="rId1"/>
@@ -831,7 +831,7 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="166" fontId="5" fillId="0" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
   </cellXfs>
@@ -3157,11 +3157,12 @@
   <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A13"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
+    <col min="1" max="1" width="3.88671875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="30.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14.44140625" customWidth="1"/>
   </cols>
@@ -3331,7 +3332,7 @@
   <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection sqref="A1:B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/TERM3/T3B1-ICTPMG613-Manage_ICT_project_plan/2-ICTPMG613-Assessment_Task 2/ICTPMG613_AssessmentTask_Manuel_S_Perez_E-Pert_Chart.xlsx
+++ b/TERM3/T3B1-ICTPMG613-Manage_ICT_project_plan/2-ICTPMG613-Assessment_Task 2/ICTPMG613_AssessmentTask_Manuel_S_Perez_E-Pert_Chart.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\manue\Documents\Assessments\TERM3\T3B1-ICTPMG613-Manage_ICT_project_plan\2-ICTPMG613-Assessment_Task 2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4ECD841A-B101-4907-A829-C08C72A817A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BC8CC4A-7955-43E2-A1FD-595AC80A7DF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="0" windowWidth="11712" windowHeight="12336" firstSheet="1" activeTab="2" xr2:uid="{2E7573F3-6188-4FA9-9041-50436B486355}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{2E7573F3-6188-4FA9-9041-50436B486355}"/>
   </bookViews>
   <sheets>
     <sheet name="Chart" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="198">
   <si>
     <t>Activity</t>
   </si>
@@ -596,6 +596,42 @@
   </si>
   <si>
     <t>Due Date</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>All design, software, and hardware proposals were accepted by the client.</t>
+  </si>
+  <si>
+    <t>The transition dates to the cloud, as well as the acquisition of licenses, software, and hardware, were carried out in coordination with the client.</t>
+  </si>
+  <si>
+    <t>The Project Plan was approved by the client.</t>
+  </si>
+  <si>
+    <t>The cloud service provider accepted and signed the contract of obligations for this project.</t>
+  </si>
+  <si>
+    <t>The environment was successfully configured in the cloud, and all necessary access rights and permissions to the administration console were also set up.</t>
+  </si>
+  <si>
+    <t>The cloud infrastructure and core applications passed integration, load, functionality, and security/attack tests.</t>
+  </si>
+  <si>
+    <t>All laptops, desktops, and iPads were configured with the requested software and remote/cloud connection tools, and were successfully delivered.</t>
+  </si>
+  <si>
+    <t>All training materials and resources were provided, and all training sessions were successfully completed by the client’s employees.</t>
+  </si>
+  <si>
+    <t>Client feedback was received regarding all designs and changes, and work continues with the second sprint.</t>
+  </si>
+  <si>
+    <t>The website was deployed, and load testing, functionality testing, and security/attack testing were successfully completed.</t>
+  </si>
+  <si>
+    <t>The project is now completed and closed. All cloud infrastructure, core applications, and the website are ready for production use.</t>
   </si>
 </sst>
 </file>
@@ -663,90 +699,12 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -770,43 +728,10 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="2" fillId="2" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -814,25 +739,50 @@
     <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="166" fontId="5" fillId="0" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1170,10 +1120,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2DCCED96-865F-42B1-814A-F0DD7A1F90A0}">
+  <sheetPr>
+    <tabColor rgb="FFFF0000"/>
+  </sheetPr>
   <dimension ref="A1:H70"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+    <sheetView tabSelected="1" topLeftCell="A50" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1181,1968 +1134,1968 @@
     <col min="1" max="1" width="17" style="1" customWidth="1"/>
     <col min="2" max="2" width="8.44140625" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="8.88671875" style="1"/>
-    <col min="5" max="5" width="10.33203125" style="13" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.6640625" style="14" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.77734375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="10.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.44140625" style="1" customWidth="1"/>
     <col min="8" max="8" width="28.21875" style="1" customWidth="1"/>
     <col min="9" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="12" t="s">
         <v>110</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="12" t="s">
         <v>111</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="12" t="s">
         <v>112</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="E1" s="13" t="s">
         <v>113</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="F1" s="14" t="s">
         <v>114</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="H1" s="12" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A2" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="6">
-        <v>2</v>
-      </c>
-      <c r="C2" s="6">
-        <v>4</v>
-      </c>
-      <c r="D2" s="6">
+      <c r="A2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="15">
+        <v>2</v>
+      </c>
+      <c r="C2" s="15">
+        <v>4</v>
+      </c>
+      <c r="D2" s="15">
         <v>6</v>
       </c>
-      <c r="E2" s="10">
+      <c r="E2" s="16">
         <f>(B2+4*C2+D2)/6</f>
         <v>4</v>
       </c>
-      <c r="F2" s="11">
+      <c r="F2" s="17">
         <f>(D2-B2)/6</f>
         <v>0.66666666666666663</v>
       </c>
-      <c r="G2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="H2" s="15" t="s">
+      <c r="G2" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="H2" s="5" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A3" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="6">
+      <c r="A3" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="15">
         <v>1</v>
       </c>
-      <c r="C3" s="6">
-        <v>2</v>
-      </c>
-      <c r="D3" s="6">
-        <v>3</v>
-      </c>
-      <c r="E3" s="10">
+      <c r="C3" s="15">
+        <v>2</v>
+      </c>
+      <c r="D3" s="15">
+        <v>3</v>
+      </c>
+      <c r="E3" s="16">
         <f t="shared" ref="E3:E66" si="0">(B3+4*C3+D3)/6</f>
         <v>2</v>
       </c>
-      <c r="F3" s="11">
+      <c r="F3" s="17">
         <f t="shared" ref="F3:F66" si="1">(D3-B3)/6</f>
         <v>0.33333333333333331</v>
       </c>
-      <c r="G3" s="2">
+      <c r="G3" s="18">
         <v>1</v>
       </c>
-      <c r="H3" s="15" t="s">
+      <c r="H3" s="5" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A4" s="15" t="s">
+      <c r="A4" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="6">
-        <v>2</v>
-      </c>
-      <c r="C4" s="6">
-        <v>3</v>
-      </c>
-      <c r="D4" s="6">
-        <v>5</v>
-      </c>
-      <c r="E4" s="10">
+      <c r="B4" s="15">
+        <v>2</v>
+      </c>
+      <c r="C4" s="15">
+        <v>3</v>
+      </c>
+      <c r="D4" s="15">
+        <v>5</v>
+      </c>
+      <c r="E4" s="16">
         <f t="shared" si="0"/>
         <v>3.1666666666666665</v>
       </c>
-      <c r="F4" s="11">
+      <c r="F4" s="17">
         <f t="shared" si="1"/>
         <v>0.5</v>
       </c>
-      <c r="G4" s="2">
-        <v>2</v>
-      </c>
-      <c r="H4" s="15" t="s">
+      <c r="G4" s="18">
+        <v>2</v>
+      </c>
+      <c r="H4" s="5" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A5" s="15" t="s">
+      <c r="A5" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="6">
-        <v>3</v>
-      </c>
-      <c r="C5" s="6">
-        <v>5</v>
-      </c>
-      <c r="D5" s="6">
+      <c r="B5" s="15">
+        <v>3</v>
+      </c>
+      <c r="C5" s="15">
+        <v>5</v>
+      </c>
+      <c r="D5" s="15">
         <v>7</v>
       </c>
-      <c r="E5" s="10">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="F5" s="11">
+      <c r="E5" s="16">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="F5" s="17">
         <f t="shared" si="1"/>
         <v>0.66666666666666663</v>
       </c>
-      <c r="G5" s="2">
-        <v>3</v>
-      </c>
-      <c r="H5" s="15" t="s">
+      <c r="G5" s="18">
+        <v>3</v>
+      </c>
+      <c r="H5" s="5" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A6" s="15" t="s">
+      <c r="A6" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="6">
+      <c r="B6" s="15">
         <v>1</v>
       </c>
-      <c r="C6" s="6">
-        <v>2</v>
-      </c>
-      <c r="D6" s="6">
-        <v>4</v>
-      </c>
-      <c r="E6" s="10">
+      <c r="C6" s="15">
+        <v>2</v>
+      </c>
+      <c r="D6" s="15">
+        <v>4</v>
+      </c>
+      <c r="E6" s="16">
         <f t="shared" si="0"/>
         <v>2.1666666666666665</v>
       </c>
-      <c r="F6" s="11">
+      <c r="F6" s="17">
         <f t="shared" si="1"/>
         <v>0.5</v>
       </c>
-      <c r="G6" s="2">
-        <v>4</v>
-      </c>
-      <c r="H6" s="15" t="s">
+      <c r="G6" s="18">
+        <v>4</v>
+      </c>
+      <c r="H6" s="5" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A7" s="15" t="s">
+      <c r="A7" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="6">
+      <c r="B7" s="15">
         <v>0.5</v>
       </c>
-      <c r="C7" s="6">
+      <c r="C7" s="15">
         <v>1</v>
       </c>
-      <c r="D7" s="6">
+      <c r="D7" s="15">
         <v>1.5</v>
       </c>
-      <c r="E7" s="10">
+      <c r="E7" s="16">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="F7" s="11">
+      <c r="F7" s="17">
         <f t="shared" si="1"/>
         <v>0.16666666666666666</v>
       </c>
-      <c r="G7" s="2">
-        <v>5</v>
-      </c>
-      <c r="H7" s="15" t="s">
+      <c r="G7" s="18">
+        <v>5</v>
+      </c>
+      <c r="H7" s="5" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A8" s="15" t="s">
+      <c r="A8" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="6">
-        <v>5</v>
-      </c>
-      <c r="C8" s="6">
+      <c r="B8" s="15">
+        <v>5</v>
+      </c>
+      <c r="C8" s="15">
         <v>8</v>
       </c>
-      <c r="D8" s="6">
+      <c r="D8" s="15">
         <v>12</v>
       </c>
-      <c r="E8" s="10">
+      <c r="E8" s="16">
         <f t="shared" si="0"/>
         <v>8.1666666666666661</v>
       </c>
-      <c r="F8" s="11">
+      <c r="F8" s="17">
         <f t="shared" si="1"/>
         <v>1.1666666666666667</v>
       </c>
-      <c r="G8" s="2">
+      <c r="G8" s="18">
         <v>6</v>
       </c>
-      <c r="H8" s="15" t="s">
+      <c r="H8" s="5" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A9" s="15" t="s">
+      <c r="A9" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="6">
-        <v>2</v>
-      </c>
-      <c r="C9" s="6">
-        <v>4</v>
-      </c>
-      <c r="D9" s="6">
+      <c r="B9" s="15">
+        <v>2</v>
+      </c>
+      <c r="C9" s="15">
+        <v>4</v>
+      </c>
+      <c r="D9" s="15">
         <v>6</v>
       </c>
-      <c r="E9" s="10">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="F9" s="11">
+      <c r="E9" s="16">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="F9" s="17">
         <f t="shared" si="1"/>
         <v>0.66666666666666663</v>
       </c>
-      <c r="G9" s="2">
+      <c r="G9" s="18">
         <v>7</v>
       </c>
-      <c r="H9" s="15" t="s">
+      <c r="H9" s="5" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A10" s="15" t="s">
+      <c r="A10" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="6">
-        <v>3</v>
-      </c>
-      <c r="C10" s="6">
-        <v>5</v>
-      </c>
-      <c r="D10" s="6">
+      <c r="B10" s="15">
+        <v>3</v>
+      </c>
+      <c r="C10" s="15">
+        <v>5</v>
+      </c>
+      <c r="D10" s="15">
         <v>8</v>
       </c>
-      <c r="E10" s="10">
+      <c r="E10" s="16">
         <f t="shared" si="0"/>
         <v>5.166666666666667</v>
       </c>
-      <c r="F10" s="11">
+      <c r="F10" s="17">
         <f t="shared" si="1"/>
         <v>0.83333333333333337</v>
       </c>
-      <c r="G10" s="2">
+      <c r="G10" s="18">
         <v>8</v>
       </c>
-      <c r="H10" s="15" t="s">
+      <c r="H10" s="5" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A11" s="15" t="s">
+      <c r="A11" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="6">
-        <v>2</v>
-      </c>
-      <c r="C11" s="6">
-        <v>4</v>
-      </c>
-      <c r="D11" s="6">
+      <c r="B11" s="15">
+        <v>2</v>
+      </c>
+      <c r="C11" s="15">
+        <v>4</v>
+      </c>
+      <c r="D11" s="15">
         <v>7</v>
       </c>
-      <c r="E11" s="10">
+      <c r="E11" s="16">
         <f t="shared" si="0"/>
         <v>4.166666666666667</v>
       </c>
-      <c r="F11" s="11">
+      <c r="F11" s="17">
         <f t="shared" si="1"/>
         <v>0.83333333333333337</v>
       </c>
-      <c r="G11" s="2">
+      <c r="G11" s="18">
         <v>9</v>
       </c>
-      <c r="H11" s="15" t="s">
+      <c r="H11" s="5" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A12" s="15" t="s">
+      <c r="A12" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B12" s="6">
-        <v>4</v>
-      </c>
-      <c r="C12" s="6">
+      <c r="B12" s="15">
+        <v>4</v>
+      </c>
+      <c r="C12" s="15">
         <v>6</v>
       </c>
-      <c r="D12" s="6">
+      <c r="D12" s="15">
         <v>10</v>
       </c>
-      <c r="E12" s="10">
+      <c r="E12" s="16">
         <f t="shared" si="0"/>
         <v>6.333333333333333</v>
       </c>
-      <c r="F12" s="11">
+      <c r="F12" s="17">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="G12" s="2">
+      <c r="G12" s="18">
         <v>10</v>
       </c>
-      <c r="H12" s="15" t="s">
+      <c r="H12" s="5" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A13" s="15" t="s">
+      <c r="A13" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B13" s="6">
-        <v>3</v>
-      </c>
-      <c r="C13" s="6">
-        <v>5</v>
-      </c>
-      <c r="D13" s="6">
+      <c r="B13" s="15">
+        <v>3</v>
+      </c>
+      <c r="C13" s="15">
+        <v>5</v>
+      </c>
+      <c r="D13" s="15">
         <v>8</v>
       </c>
-      <c r="E13" s="10">
+      <c r="E13" s="16">
         <f t="shared" si="0"/>
         <v>5.166666666666667</v>
       </c>
-      <c r="F13" s="11">
+      <c r="F13" s="17">
         <f t="shared" si="1"/>
         <v>0.83333333333333337</v>
       </c>
-      <c r="G13" s="2">
+      <c r="G13" s="18">
         <v>10</v>
       </c>
-      <c r="H13" s="15" t="s">
+      <c r="H13" s="5" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A14" s="15" t="s">
+      <c r="A14" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B14" s="6">
-        <v>2</v>
-      </c>
-      <c r="C14" s="6">
-        <v>4</v>
-      </c>
-      <c r="D14" s="6">
+      <c r="B14" s="15">
+        <v>2</v>
+      </c>
+      <c r="C14" s="15">
+        <v>4</v>
+      </c>
+      <c r="D14" s="15">
         <v>6</v>
       </c>
-      <c r="E14" s="10">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="F14" s="11">
+      <c r="E14" s="16">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="F14" s="17">
         <f t="shared" si="1"/>
         <v>0.66666666666666663</v>
       </c>
-      <c r="G14" s="2" t="s">
+      <c r="G14" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="H14" s="15" t="s">
+      <c r="H14" s="5" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A15" s="15" t="s">
+      <c r="A15" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B15" s="6">
+      <c r="B15" s="15">
         <v>1</v>
       </c>
-      <c r="C15" s="6">
-        <v>2</v>
-      </c>
-      <c r="D15" s="6">
-        <v>5</v>
-      </c>
-      <c r="E15" s="10">
+      <c r="C15" s="15">
+        <v>2</v>
+      </c>
+      <c r="D15" s="15">
+        <v>5</v>
+      </c>
+      <c r="E15" s="16">
         <f t="shared" si="0"/>
         <v>2.3333333333333335</v>
       </c>
-      <c r="F15" s="11">
+      <c r="F15" s="17">
         <f t="shared" si="1"/>
         <v>0.66666666666666663</v>
       </c>
-      <c r="G15" s="2">
+      <c r="G15" s="18">
         <v>13</v>
       </c>
-      <c r="H15" s="15" t="s">
+      <c r="H15" s="5" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A16" s="15" t="s">
+      <c r="A16" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="B16" s="6">
-        <v>2</v>
-      </c>
-      <c r="C16" s="6">
-        <v>4</v>
-      </c>
-      <c r="D16" s="6">
+      <c r="B16" s="15">
+        <v>2</v>
+      </c>
+      <c r="C16" s="15">
+        <v>4</v>
+      </c>
+      <c r="D16" s="15">
         <v>6</v>
       </c>
-      <c r="E16" s="10">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="F16" s="11">
+      <c r="E16" s="16">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="F16" s="17">
         <f t="shared" si="1"/>
         <v>0.66666666666666663</v>
       </c>
-      <c r="G16" s="2">
+      <c r="G16" s="18">
         <v>11</v>
       </c>
-      <c r="H16" s="15" t="s">
+      <c r="H16" s="5" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A17" s="15" t="s">
+      <c r="A17" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="B17" s="6">
-        <v>3</v>
-      </c>
-      <c r="C17" s="6">
-        <v>5</v>
-      </c>
-      <c r="D17" s="6">
+      <c r="B17" s="15">
+        <v>3</v>
+      </c>
+      <c r="C17" s="15">
+        <v>5</v>
+      </c>
+      <c r="D17" s="15">
         <v>8</v>
       </c>
-      <c r="E17" s="10">
+      <c r="E17" s="16">
         <f t="shared" si="0"/>
         <v>5.166666666666667</v>
       </c>
-      <c r="F17" s="11">
+      <c r="F17" s="17">
         <f t="shared" si="1"/>
         <v>0.83333333333333337</v>
       </c>
-      <c r="G17" s="2">
+      <c r="G17" s="18">
         <v>15</v>
       </c>
-      <c r="H17" s="15" t="s">
+      <c r="H17" s="5" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A18" s="15" t="s">
+      <c r="A18" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="B18" s="6">
-        <v>4</v>
-      </c>
-      <c r="C18" s="6">
+      <c r="B18" s="15">
+        <v>4</v>
+      </c>
+      <c r="C18" s="15">
         <v>6</v>
       </c>
-      <c r="D18" s="6">
+      <c r="D18" s="15">
         <v>9</v>
       </c>
-      <c r="E18" s="10">
+      <c r="E18" s="16">
         <f t="shared" si="0"/>
         <v>6.166666666666667</v>
       </c>
-      <c r="F18" s="11">
+      <c r="F18" s="17">
         <f t="shared" si="1"/>
         <v>0.83333333333333337</v>
       </c>
-      <c r="G18" s="2">
+      <c r="G18" s="18">
         <v>16</v>
       </c>
-      <c r="H18" s="15" t="s">
+      <c r="H18" s="5" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A19" s="15" t="s">
+      <c r="A19" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="B19" s="6">
-        <v>3</v>
-      </c>
-      <c r="C19" s="6">
-        <v>5</v>
-      </c>
-      <c r="D19" s="6">
+      <c r="B19" s="15">
+        <v>3</v>
+      </c>
+      <c r="C19" s="15">
+        <v>5</v>
+      </c>
+      <c r="D19" s="15">
         <v>7</v>
       </c>
-      <c r="E19" s="10">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="F19" s="11">
+      <c r="E19" s="16">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="F19" s="17">
         <f t="shared" si="1"/>
         <v>0.66666666666666663</v>
       </c>
-      <c r="G19" s="2">
+      <c r="G19" s="18">
         <v>17</v>
       </c>
-      <c r="H19" s="15" t="s">
+      <c r="H19" s="5" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A20" s="15" t="s">
+      <c r="A20" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="B20" s="6">
-        <v>3</v>
-      </c>
-      <c r="C20" s="6">
-        <v>5</v>
-      </c>
-      <c r="D20" s="6">
+      <c r="B20" s="15">
+        <v>3</v>
+      </c>
+      <c r="C20" s="15">
+        <v>5</v>
+      </c>
+      <c r="D20" s="15">
         <v>7</v>
       </c>
-      <c r="E20" s="10">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="F20" s="11">
+      <c r="E20" s="16">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="F20" s="17">
         <f t="shared" si="1"/>
         <v>0.66666666666666663</v>
       </c>
-      <c r="G20" s="2">
+      <c r="G20" s="18">
         <v>13</v>
       </c>
-      <c r="H20" s="15" t="s">
+      <c r="H20" s="5" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A21" s="15" t="s">
+      <c r="A21" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="B21" s="6">
-        <v>4</v>
-      </c>
-      <c r="C21" s="6">
+      <c r="B21" s="15">
+        <v>4</v>
+      </c>
+      <c r="C21" s="15">
         <v>6</v>
       </c>
-      <c r="D21" s="6">
+      <c r="D21" s="15">
         <v>8</v>
       </c>
-      <c r="E21" s="10">
+      <c r="E21" s="16">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="F21" s="11">
+      <c r="F21" s="17">
         <f t="shared" si="1"/>
         <v>0.66666666666666663</v>
       </c>
-      <c r="G21" s="2">
+      <c r="G21" s="18">
         <v>19</v>
       </c>
-      <c r="H21" s="15" t="s">
+      <c r="H21" s="5" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A22" s="15" t="s">
+      <c r="A22" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="B22" s="6">
-        <v>2</v>
-      </c>
-      <c r="C22" s="6">
-        <v>3</v>
-      </c>
-      <c r="D22" s="6">
-        <v>5</v>
-      </c>
-      <c r="E22" s="10">
+      <c r="B22" s="15">
+        <v>2</v>
+      </c>
+      <c r="C22" s="15">
+        <v>3</v>
+      </c>
+      <c r="D22" s="15">
+        <v>5</v>
+      </c>
+      <c r="E22" s="16">
         <f t="shared" si="0"/>
         <v>3.1666666666666665</v>
       </c>
-      <c r="F22" s="11">
+      <c r="F22" s="17">
         <f t="shared" si="1"/>
         <v>0.5</v>
       </c>
-      <c r="G22" s="2">
+      <c r="G22" s="18">
         <v>20</v>
       </c>
-      <c r="H22" s="15" t="s">
+      <c r="H22" s="5" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A23" s="15" t="s">
+      <c r="A23" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="B23" s="6">
-        <v>3</v>
-      </c>
-      <c r="C23" s="6">
+      <c r="B23" s="15">
+        <v>3</v>
+      </c>
+      <c r="C23" s="15">
         <v>6</v>
       </c>
-      <c r="D23" s="6">
+      <c r="D23" s="15">
         <v>9</v>
       </c>
-      <c r="E23" s="10">
+      <c r="E23" s="16">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="F23" s="11">
+      <c r="F23" s="17">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="G23" s="2" t="s">
+      <c r="G23" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="H23" s="15" t="s">
+      <c r="H23" s="5" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A24" s="15" t="s">
+      <c r="A24" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="B24" s="6">
+      <c r="B24" s="15">
         <v>6</v>
       </c>
-      <c r="C24" s="6">
+      <c r="C24" s="15">
         <v>10</v>
       </c>
-      <c r="D24" s="6">
+      <c r="D24" s="15">
         <v>15</v>
       </c>
-      <c r="E24" s="10">
+      <c r="E24" s="16">
         <f t="shared" si="0"/>
         <v>10.166666666666666</v>
       </c>
-      <c r="F24" s="11">
+      <c r="F24" s="17">
         <f t="shared" si="1"/>
         <v>1.5</v>
       </c>
-      <c r="G24" s="2">
+      <c r="G24" s="18">
         <v>22</v>
       </c>
-      <c r="H24" s="15" t="s">
+      <c r="H24" s="5" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A25" s="15" t="s">
+      <c r="A25" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="B25" s="6">
-        <v>3</v>
-      </c>
-      <c r="C25" s="6">
-        <v>5</v>
-      </c>
-      <c r="D25" s="6">
+      <c r="B25" s="15">
+        <v>3</v>
+      </c>
+      <c r="C25" s="15">
+        <v>5</v>
+      </c>
+      <c r="D25" s="15">
         <v>8</v>
       </c>
-      <c r="E25" s="10">
+      <c r="E25" s="16">
         <f t="shared" si="0"/>
         <v>5.166666666666667</v>
       </c>
-      <c r="F25" s="11">
+      <c r="F25" s="17">
         <f t="shared" si="1"/>
         <v>0.83333333333333337</v>
       </c>
-      <c r="G25" s="2">
+      <c r="G25" s="18">
         <v>23</v>
       </c>
-      <c r="H25" s="15" t="s">
+      <c r="H25" s="5" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A26" s="15" t="s">
+      <c r="A26" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="B26" s="6">
-        <v>2</v>
-      </c>
-      <c r="C26" s="6">
-        <v>4</v>
-      </c>
-      <c r="D26" s="6">
+      <c r="B26" s="15">
+        <v>2</v>
+      </c>
+      <c r="C26" s="15">
+        <v>4</v>
+      </c>
+      <c r="D26" s="15">
         <v>6</v>
       </c>
-      <c r="E26" s="10">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="F26" s="11">
+      <c r="E26" s="16">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="F26" s="17">
         <f t="shared" si="1"/>
         <v>0.66666666666666663</v>
       </c>
-      <c r="G26" s="2">
+      <c r="G26" s="18">
         <v>23</v>
       </c>
-      <c r="H26" s="15" t="s">
+      <c r="H26" s="5" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A27" s="15" t="s">
+      <c r="A27" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="B27" s="6">
-        <v>4</v>
-      </c>
-      <c r="C27" s="6">
+      <c r="B27" s="15">
+        <v>4</v>
+      </c>
+      <c r="C27" s="15">
         <v>6</v>
       </c>
-      <c r="D27" s="6">
+      <c r="D27" s="15">
         <v>9</v>
       </c>
-      <c r="E27" s="10">
+      <c r="E27" s="16">
         <f t="shared" si="0"/>
         <v>6.166666666666667</v>
       </c>
-      <c r="F27" s="11">
+      <c r="F27" s="17">
         <f t="shared" si="1"/>
         <v>0.83333333333333337</v>
       </c>
-      <c r="G27" s="2" t="s">
+      <c r="G27" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="H27" s="15" t="s">
+      <c r="H27" s="5" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="72" x14ac:dyDescent="0.3">
-      <c r="A28" s="15" t="s">
+      <c r="A28" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="B28" s="6">
-        <v>2</v>
-      </c>
-      <c r="C28" s="6">
-        <v>4</v>
-      </c>
-      <c r="D28" s="6">
+      <c r="B28" s="15">
+        <v>2</v>
+      </c>
+      <c r="C28" s="15">
+        <v>4</v>
+      </c>
+      <c r="D28" s="15">
         <v>6</v>
       </c>
-      <c r="E28" s="10">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="F28" s="11">
+      <c r="E28" s="16">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="F28" s="17">
         <f t="shared" si="1"/>
         <v>0.66666666666666663</v>
       </c>
-      <c r="G28" s="2">
+      <c r="G28" s="18">
         <v>8</v>
       </c>
-      <c r="H28" s="15" t="s">
+      <c r="H28" s="5" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A29" s="15" t="s">
+      <c r="A29" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="B29" s="6">
+      <c r="B29" s="15">
         <v>1</v>
       </c>
-      <c r="C29" s="6">
-        <v>3</v>
-      </c>
-      <c r="D29" s="6">
-        <v>5</v>
-      </c>
-      <c r="E29" s="10">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="F29" s="11">
+      <c r="C29" s="15">
+        <v>3</v>
+      </c>
+      <c r="D29" s="15">
+        <v>5</v>
+      </c>
+      <c r="E29" s="16">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="F29" s="17">
         <f t="shared" si="1"/>
         <v>0.66666666666666663</v>
       </c>
-      <c r="G29" s="2">
+      <c r="G29" s="18">
         <v>27</v>
       </c>
-      <c r="H29" s="15" t="s">
+      <c r="H29" s="5" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="30" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A30" s="15" t="s">
+      <c r="A30" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="B30" s="6">
-        <v>2</v>
-      </c>
-      <c r="C30" s="6">
-        <v>4</v>
-      </c>
-      <c r="D30" s="6">
+      <c r="B30" s="15">
+        <v>2</v>
+      </c>
+      <c r="C30" s="15">
+        <v>4</v>
+      </c>
+      <c r="D30" s="15">
         <v>7</v>
       </c>
-      <c r="E30" s="10">
+      <c r="E30" s="16">
         <f t="shared" si="0"/>
         <v>4.166666666666667</v>
       </c>
-      <c r="F30" s="11">
+      <c r="F30" s="17">
         <f t="shared" si="1"/>
         <v>0.83333333333333337</v>
       </c>
-      <c r="G30" s="2">
+      <c r="G30" s="18">
         <v>28</v>
       </c>
-      <c r="H30" s="15" t="s">
+      <c r="H30" s="5" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="31" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A31" s="15" t="s">
+      <c r="A31" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="B31" s="6">
+      <c r="B31" s="15">
         <v>1</v>
       </c>
-      <c r="C31" s="6">
-        <v>2</v>
-      </c>
-      <c r="D31" s="6">
-        <v>4</v>
-      </c>
-      <c r="E31" s="10">
+      <c r="C31" s="15">
+        <v>2</v>
+      </c>
+      <c r="D31" s="15">
+        <v>4</v>
+      </c>
+      <c r="E31" s="16">
         <f t="shared" si="0"/>
         <v>2.1666666666666665</v>
       </c>
-      <c r="F31" s="11">
+      <c r="F31" s="17">
         <f t="shared" si="1"/>
         <v>0.5</v>
       </c>
-      <c r="G31" s="2">
+      <c r="G31" s="18">
         <v>8</v>
       </c>
-      <c r="H31" s="15" t="s">
+      <c r="H31" s="5" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="32" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A32" s="15" t="s">
+      <c r="A32" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="B32" s="6">
-        <v>2</v>
-      </c>
-      <c r="C32" s="6">
-        <v>4</v>
-      </c>
-      <c r="D32" s="6">
+      <c r="B32" s="15">
+        <v>2</v>
+      </c>
+      <c r="C32" s="15">
+        <v>4</v>
+      </c>
+      <c r="D32" s="15">
         <v>6</v>
       </c>
-      <c r="E32" s="10">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="F32" s="11">
+      <c r="E32" s="16">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="F32" s="17">
         <f t="shared" si="1"/>
         <v>0.66666666666666663</v>
       </c>
-      <c r="G32" s="2">
+      <c r="G32" s="18">
         <v>30</v>
       </c>
-      <c r="H32" s="15" t="s">
+      <c r="H32" s="5" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="33" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A33" s="15" t="s">
+      <c r="A33" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="B33" s="6">
+      <c r="B33" s="15">
         <v>1</v>
       </c>
-      <c r="C33" s="6">
-        <v>2</v>
-      </c>
-      <c r="D33" s="6">
-        <v>4</v>
-      </c>
-      <c r="E33" s="10">
+      <c r="C33" s="15">
+        <v>2</v>
+      </c>
+      <c r="D33" s="15">
+        <v>4</v>
+      </c>
+      <c r="E33" s="16">
         <f t="shared" si="0"/>
         <v>2.1666666666666665</v>
       </c>
-      <c r="F33" s="11">
+      <c r="F33" s="17">
         <f t="shared" si="1"/>
         <v>0.5</v>
       </c>
-      <c r="G33" s="2">
+      <c r="G33" s="18">
         <v>31</v>
       </c>
-      <c r="H33" s="15" t="s">
+      <c r="H33" s="5" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="34" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A34" s="15" t="s">
+      <c r="A34" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="B34" s="6">
+      <c r="B34" s="15">
         <v>1</v>
       </c>
-      <c r="C34" s="6">
-        <v>3</v>
-      </c>
-      <c r="D34" s="6">
-        <v>5</v>
-      </c>
-      <c r="E34" s="10">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="F34" s="11">
+      <c r="C34" s="15">
+        <v>3</v>
+      </c>
+      <c r="D34" s="15">
+        <v>5</v>
+      </c>
+      <c r="E34" s="16">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="F34" s="17">
         <f t="shared" si="1"/>
         <v>0.66666666666666663</v>
       </c>
-      <c r="G34" s="2">
+      <c r="G34" s="18">
         <v>29</v>
       </c>
-      <c r="H34" s="15" t="s">
+      <c r="H34" s="5" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="35" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A35" s="15" t="s">
+      <c r="A35" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="B35" s="6">
-        <v>3</v>
-      </c>
-      <c r="C35" s="6">
-        <v>5</v>
-      </c>
-      <c r="D35" s="6">
+      <c r="B35" s="15">
+        <v>3</v>
+      </c>
+      <c r="C35" s="15">
+        <v>5</v>
+      </c>
+      <c r="D35" s="15">
         <v>8</v>
       </c>
-      <c r="E35" s="10">
+      <c r="E35" s="16">
         <f t="shared" si="0"/>
         <v>5.166666666666667</v>
       </c>
-      <c r="F35" s="11">
+      <c r="F35" s="17">
         <f t="shared" si="1"/>
         <v>0.83333333333333337</v>
       </c>
-      <c r="G35" s="2">
+      <c r="G35" s="18">
         <v>33</v>
       </c>
-      <c r="H35" s="15" t="s">
+      <c r="H35" s="5" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="36" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A36" s="15" t="s">
+      <c r="A36" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="B36" s="6">
-        <v>2</v>
-      </c>
-      <c r="C36" s="6">
-        <v>4</v>
-      </c>
-      <c r="D36" s="6">
+      <c r="B36" s="15">
+        <v>2</v>
+      </c>
+      <c r="C36" s="15">
+        <v>4</v>
+      </c>
+      <c r="D36" s="15">
         <v>6</v>
       </c>
-      <c r="E36" s="10">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="F36" s="11">
+      <c r="E36" s="16">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="F36" s="17">
         <f t="shared" si="1"/>
         <v>0.66666666666666663</v>
       </c>
-      <c r="G36" s="2" t="s">
+      <c r="G36" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="H36" s="15" t="s">
+      <c r="H36" s="5" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="37" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A37" s="15" t="s">
+      <c r="A37" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="B37" s="6">
-        <v>2</v>
-      </c>
-      <c r="C37" s="6">
-        <v>4</v>
-      </c>
-      <c r="D37" s="6">
+      <c r="B37" s="15">
+        <v>2</v>
+      </c>
+      <c r="C37" s="15">
+        <v>4</v>
+      </c>
+      <c r="D37" s="15">
         <v>6</v>
       </c>
-      <c r="E37" s="10">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="F37" s="11">
+      <c r="E37" s="16">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="F37" s="17">
         <f t="shared" si="1"/>
         <v>0.66666666666666663</v>
       </c>
-      <c r="G37" s="2">
+      <c r="G37" s="18">
         <v>35</v>
       </c>
-      <c r="H37" s="15" t="s">
+      <c r="H37" s="5" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="38" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A38" s="15" t="s">
+      <c r="A38" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="B38" s="6">
-        <v>2</v>
-      </c>
-      <c r="C38" s="6">
-        <v>3</v>
-      </c>
-      <c r="D38" s="6">
-        <v>5</v>
-      </c>
-      <c r="E38" s="10">
+      <c r="B38" s="15">
+        <v>2</v>
+      </c>
+      <c r="C38" s="15">
+        <v>3</v>
+      </c>
+      <c r="D38" s="15">
+        <v>5</v>
+      </c>
+      <c r="E38" s="16">
         <f t="shared" si="0"/>
         <v>3.1666666666666665</v>
       </c>
-      <c r="F38" s="11">
+      <c r="F38" s="17">
         <f t="shared" si="1"/>
         <v>0.5</v>
       </c>
-      <c r="G38" s="2">
+      <c r="G38" s="18">
         <v>36</v>
       </c>
-      <c r="H38" s="15" t="s">
+      <c r="H38" s="5" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="39" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A39" s="15" t="s">
+      <c r="A39" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="B39" s="6">
-        <v>3</v>
-      </c>
-      <c r="C39" s="6">
-        <v>5</v>
-      </c>
-      <c r="D39" s="6">
+      <c r="B39" s="15">
+        <v>3</v>
+      </c>
+      <c r="C39" s="15">
+        <v>5</v>
+      </c>
+      <c r="D39" s="15">
         <v>7</v>
       </c>
-      <c r="E39" s="10">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="F39" s="11">
+      <c r="E39" s="16">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="F39" s="17">
         <f t="shared" si="1"/>
         <v>0.66666666666666663</v>
       </c>
-      <c r="G39" s="2" t="s">
+      <c r="G39" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="H39" s="15" t="s">
+      <c r="H39" s="5" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="40" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A40" s="15" t="s">
+      <c r="A40" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="B40" s="6">
+      <c r="B40" s="15">
         <v>1</v>
       </c>
-      <c r="C40" s="6">
-        <v>2</v>
-      </c>
-      <c r="D40" s="6">
-        <v>4</v>
-      </c>
-      <c r="E40" s="10">
+      <c r="C40" s="15">
+        <v>2</v>
+      </c>
+      <c r="D40" s="15">
+        <v>4</v>
+      </c>
+      <c r="E40" s="16">
         <f t="shared" si="0"/>
         <v>2.1666666666666665</v>
       </c>
-      <c r="F40" s="11">
+      <c r="F40" s="17">
         <f t="shared" si="1"/>
         <v>0.5</v>
       </c>
-      <c r="G40" s="2">
+      <c r="G40" s="18">
         <v>38</v>
       </c>
-      <c r="H40" s="15" t="s">
+      <c r="H40" s="5" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="41" spans="1:8" ht="72" x14ac:dyDescent="0.3">
-      <c r="A41" s="15" t="s">
+      <c r="A41" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="B41" s="6">
-        <v>2</v>
-      </c>
-      <c r="C41" s="6">
-        <v>3</v>
-      </c>
-      <c r="D41" s="6">
-        <v>5</v>
-      </c>
-      <c r="E41" s="10">
+      <c r="B41" s="15">
+        <v>2</v>
+      </c>
+      <c r="C41" s="15">
+        <v>3</v>
+      </c>
+      <c r="D41" s="15">
+        <v>5</v>
+      </c>
+      <c r="E41" s="16">
         <f t="shared" si="0"/>
         <v>3.1666666666666665</v>
       </c>
-      <c r="F41" s="11">
+      <c r="F41" s="17">
         <f t="shared" si="1"/>
         <v>0.5</v>
       </c>
-      <c r="G41" s="2" t="s">
+      <c r="G41" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="H41" s="15" t="s">
+      <c r="H41" s="5" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="42" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A42" s="15" t="s">
+      <c r="A42" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="B42" s="6">
+      <c r="B42" s="15">
         <v>1</v>
       </c>
-      <c r="C42" s="6">
-        <v>2</v>
-      </c>
-      <c r="D42" s="6">
-        <v>4</v>
-      </c>
-      <c r="E42" s="10">
+      <c r="C42" s="15">
+        <v>2</v>
+      </c>
+      <c r="D42" s="15">
+        <v>4</v>
+      </c>
+      <c r="E42" s="16">
         <f t="shared" si="0"/>
         <v>2.1666666666666665</v>
       </c>
-      <c r="F42" s="11">
+      <c r="F42" s="17">
         <f t="shared" si="1"/>
         <v>0.5</v>
       </c>
-      <c r="G42" s="2">
+      <c r="G42" s="18">
         <v>40</v>
       </c>
-      <c r="H42" s="15" t="s">
+      <c r="H42" s="5" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="43" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A43" s="15" t="s">
+      <c r="A43" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="B43" s="6">
-        <v>2</v>
-      </c>
-      <c r="C43" s="6">
-        <v>4</v>
-      </c>
-      <c r="D43" s="6">
+      <c r="B43" s="15">
+        <v>2</v>
+      </c>
+      <c r="C43" s="15">
+        <v>4</v>
+      </c>
+      <c r="D43" s="15">
         <v>6</v>
       </c>
-      <c r="E43" s="10">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="F43" s="11">
+      <c r="E43" s="16">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="F43" s="17">
         <f t="shared" si="1"/>
         <v>0.66666666666666663</v>
       </c>
-      <c r="G43" s="2">
+      <c r="G43" s="18">
         <v>41</v>
       </c>
-      <c r="H43" s="15" t="s">
+      <c r="H43" s="5" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="44" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A44" s="15" t="s">
+      <c r="A44" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="B44" s="6">
-        <v>2</v>
-      </c>
-      <c r="C44" s="6">
-        <v>3</v>
-      </c>
-      <c r="D44" s="6">
-        <v>5</v>
-      </c>
-      <c r="E44" s="10">
+      <c r="B44" s="15">
+        <v>2</v>
+      </c>
+      <c r="C44" s="15">
+        <v>3</v>
+      </c>
+      <c r="D44" s="15">
+        <v>5</v>
+      </c>
+      <c r="E44" s="16">
         <f t="shared" si="0"/>
         <v>3.1666666666666665</v>
       </c>
-      <c r="F44" s="11">
+      <c r="F44" s="17">
         <f t="shared" si="1"/>
         <v>0.5</v>
       </c>
-      <c r="G44" s="2">
+      <c r="G44" s="18">
         <v>42</v>
       </c>
-      <c r="H44" s="15" t="s">
+      <c r="H44" s="5" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="45" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A45" s="15" t="s">
+      <c r="A45" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="B45" s="6">
-        <v>3</v>
-      </c>
-      <c r="C45" s="6">
-        <v>5</v>
-      </c>
-      <c r="D45" s="6">
+      <c r="B45" s="15">
+        <v>3</v>
+      </c>
+      <c r="C45" s="15">
+        <v>5</v>
+      </c>
+      <c r="D45" s="15">
         <v>7</v>
       </c>
-      <c r="E45" s="10">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="F45" s="11">
+      <c r="E45" s="16">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="F45" s="17">
         <f t="shared" si="1"/>
         <v>0.66666666666666663</v>
       </c>
-      <c r="G45" s="2">
+      <c r="G45" s="18">
         <v>43</v>
       </c>
-      <c r="H45" s="15" t="s">
+      <c r="H45" s="5" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="46" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A46" s="15" t="s">
+      <c r="A46" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="B46" s="6">
-        <v>3</v>
-      </c>
-      <c r="C46" s="6">
-        <v>5</v>
-      </c>
-      <c r="D46" s="6">
+      <c r="B46" s="15">
+        <v>3</v>
+      </c>
+      <c r="C46" s="15">
+        <v>5</v>
+      </c>
+      <c r="D46" s="15">
         <v>8</v>
       </c>
-      <c r="E46" s="10">
+      <c r="E46" s="16">
         <f t="shared" si="0"/>
         <v>5.166666666666667</v>
       </c>
-      <c r="F46" s="11">
+      <c r="F46" s="17">
         <f t="shared" si="1"/>
         <v>0.83333333333333337</v>
       </c>
-      <c r="G46" s="2">
+      <c r="G46" s="18">
         <v>43</v>
       </c>
-      <c r="H46" s="15" t="s">
+      <c r="H46" s="5" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="47" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A47" s="15" t="s">
+      <c r="A47" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="B47" s="6">
+      <c r="B47" s="15">
         <v>1</v>
       </c>
-      <c r="C47" s="6">
-        <v>2</v>
-      </c>
-      <c r="D47" s="6">
-        <v>4</v>
-      </c>
-      <c r="E47" s="10">
+      <c r="C47" s="15">
+        <v>2</v>
+      </c>
+      <c r="D47" s="15">
+        <v>4</v>
+      </c>
+      <c r="E47" s="16">
         <f t="shared" si="0"/>
         <v>2.1666666666666665</v>
       </c>
-      <c r="F47" s="11">
+      <c r="F47" s="17">
         <f t="shared" si="1"/>
         <v>0.5</v>
       </c>
-      <c r="G47" s="2">
+      <c r="G47" s="18">
         <v>43</v>
       </c>
-      <c r="H47" s="15" t="s">
+      <c r="H47" s="5" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="48" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A48" s="15" t="s">
+      <c r="A48" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="B48" s="6">
-        <v>4</v>
-      </c>
-      <c r="C48" s="6">
+      <c r="B48" s="15">
+        <v>4</v>
+      </c>
+      <c r="C48" s="15">
         <v>6</v>
       </c>
-      <c r="D48" s="6">
+      <c r="D48" s="15">
         <v>9</v>
       </c>
-      <c r="E48" s="10">
+      <c r="E48" s="16">
         <f t="shared" si="0"/>
         <v>6.166666666666667</v>
       </c>
-      <c r="F48" s="11">
+      <c r="F48" s="17">
         <f t="shared" si="1"/>
         <v>0.83333333333333337</v>
       </c>
-      <c r="G48" s="2" t="s">
+      <c r="G48" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="H48" s="15" t="s">
+      <c r="H48" s="5" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="49" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A49" s="15" t="s">
+      <c r="A49" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="B49" s="6">
-        <v>5</v>
-      </c>
-      <c r="C49" s="6">
+      <c r="B49" s="15">
+        <v>5</v>
+      </c>
+      <c r="C49" s="15">
         <v>8</v>
       </c>
-      <c r="D49" s="6">
+      <c r="D49" s="15">
         <v>12</v>
       </c>
-      <c r="E49" s="10">
+      <c r="E49" s="16">
         <f t="shared" si="0"/>
         <v>8.1666666666666661</v>
       </c>
-      <c r="F49" s="11">
+      <c r="F49" s="17">
         <f t="shared" si="1"/>
         <v>1.1666666666666667</v>
       </c>
-      <c r="G49" s="2" t="s">
+      <c r="G49" s="18" t="s">
         <v>55</v>
       </c>
-      <c r="H49" s="2" t="s">
+      <c r="H49" s="18" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="50" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A50" s="15" t="s">
+      <c r="A50" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="B50" s="6">
-        <v>5</v>
-      </c>
-      <c r="C50" s="6">
+      <c r="B50" s="15">
+        <v>5</v>
+      </c>
+      <c r="C50" s="15">
         <v>9</v>
       </c>
-      <c r="D50" s="6">
+      <c r="D50" s="15">
         <v>13</v>
       </c>
-      <c r="E50" s="10">
+      <c r="E50" s="16">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="F50" s="11">
+      <c r="F50" s="17">
         <f t="shared" si="1"/>
         <v>1.3333333333333333</v>
       </c>
-      <c r="G50" s="2" t="s">
+      <c r="G50" s="18" t="s">
         <v>55</v>
       </c>
-      <c r="H50" s="2" t="s">
+      <c r="H50" s="18" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="51" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A51" s="15" t="s">
+      <c r="A51" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="B51" s="6">
-        <v>3</v>
-      </c>
-      <c r="C51" s="6">
-        <v>5</v>
-      </c>
-      <c r="D51" s="6">
+      <c r="B51" s="15">
+        <v>3</v>
+      </c>
+      <c r="C51" s="15">
+        <v>5</v>
+      </c>
+      <c r="D51" s="15">
         <v>8</v>
       </c>
-      <c r="E51" s="10">
+      <c r="E51" s="16">
         <f t="shared" si="0"/>
         <v>5.166666666666667</v>
       </c>
-      <c r="F51" s="11">
+      <c r="F51" s="17">
         <f t="shared" si="1"/>
         <v>0.83333333333333337</v>
       </c>
-      <c r="G51" s="2" t="s">
+      <c r="G51" s="18" t="s">
         <v>58</v>
       </c>
-      <c r="H51" s="2" t="s">
+      <c r="H51" s="18" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="52" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A52" s="15" t="s">
+      <c r="A52" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="B52" s="6">
+      <c r="B52" s="15">
         <v>1</v>
       </c>
-      <c r="C52" s="6">
-        <v>2</v>
-      </c>
-      <c r="D52" s="6">
-        <v>4</v>
-      </c>
-      <c r="E52" s="10">
+      <c r="C52" s="15">
+        <v>2</v>
+      </c>
+      <c r="D52" s="15">
+        <v>4</v>
+      </c>
+      <c r="E52" s="16">
         <f t="shared" si="0"/>
         <v>2.1666666666666665</v>
       </c>
-      <c r="F52" s="11">
+      <c r="F52" s="17">
         <f t="shared" si="1"/>
         <v>0.5</v>
       </c>
-      <c r="G52" s="2">
+      <c r="G52" s="18">
         <v>50</v>
       </c>
-      <c r="H52" s="2" t="s">
+      <c r="H52" s="18" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="53" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A53" s="15" t="s">
+      <c r="A53" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="B53" s="6">
+      <c r="B53" s="15">
         <v>1</v>
       </c>
-      <c r="C53" s="6">
-        <v>2</v>
-      </c>
-      <c r="D53" s="6">
-        <v>3</v>
-      </c>
-      <c r="E53" s="10">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="F53" s="11">
+      <c r="C53" s="15">
+        <v>2</v>
+      </c>
+      <c r="D53" s="15">
+        <v>3</v>
+      </c>
+      <c r="E53" s="16">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="F53" s="17">
         <f t="shared" si="1"/>
         <v>0.33333333333333331</v>
       </c>
-      <c r="G53" s="2">
+      <c r="G53" s="18">
         <v>51</v>
       </c>
-      <c r="H53" s="2" t="s">
+      <c r="H53" s="18" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="54" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A54" s="15" t="s">
+      <c r="A54" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="B54" s="6">
+      <c r="B54" s="15">
         <v>1</v>
       </c>
-      <c r="C54" s="6">
-        <v>2</v>
-      </c>
-      <c r="D54" s="6">
-        <v>4</v>
-      </c>
-      <c r="E54" s="10">
+      <c r="C54" s="15">
+        <v>2</v>
+      </c>
+      <c r="D54" s="15">
+        <v>4</v>
+      </c>
+      <c r="E54" s="16">
         <f t="shared" si="0"/>
         <v>2.1666666666666665</v>
       </c>
-      <c r="F54" s="11">
+      <c r="F54" s="17">
         <f t="shared" si="1"/>
         <v>0.5</v>
       </c>
-      <c r="G54" s="2">
+      <c r="G54" s="18">
         <v>52</v>
       </c>
-      <c r="H54" s="2" t="s">
+      <c r="H54" s="18" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="55" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A55" s="15" t="s">
+      <c r="A55" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="B55" s="6">
-        <v>2</v>
-      </c>
-      <c r="C55" s="6">
-        <v>3</v>
-      </c>
-      <c r="D55" s="6">
-        <v>5</v>
-      </c>
-      <c r="E55" s="10">
+      <c r="B55" s="15">
+        <v>2</v>
+      </c>
+      <c r="C55" s="15">
+        <v>3</v>
+      </c>
+      <c r="D55" s="15">
+        <v>5</v>
+      </c>
+      <c r="E55" s="16">
         <f t="shared" si="0"/>
         <v>3.1666666666666665</v>
       </c>
-      <c r="F55" s="11">
+      <c r="F55" s="17">
         <f t="shared" si="1"/>
         <v>0.5</v>
       </c>
-      <c r="G55" s="2">
+      <c r="G55" s="18">
         <v>53</v>
       </c>
-      <c r="H55" s="2" t="s">
+      <c r="H55" s="18" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="56" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A56" s="15" t="s">
+      <c r="A56" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="B56" s="6">
-        <v>3</v>
-      </c>
-      <c r="C56" s="6">
-        <v>5</v>
-      </c>
-      <c r="D56" s="6">
+      <c r="B56" s="15">
+        <v>3</v>
+      </c>
+      <c r="C56" s="15">
+        <v>5</v>
+      </c>
+      <c r="D56" s="15">
         <v>8</v>
       </c>
-      <c r="E56" s="10">
+      <c r="E56" s="16">
         <f t="shared" si="0"/>
         <v>5.166666666666667</v>
       </c>
-      <c r="F56" s="11">
+      <c r="F56" s="17">
         <f t="shared" si="1"/>
         <v>0.83333333333333337</v>
       </c>
-      <c r="G56" s="2">
+      <c r="G56" s="18">
         <v>54</v>
       </c>
-      <c r="H56" s="2" t="s">
+      <c r="H56" s="18" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="57" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A57" s="15" t="s">
+      <c r="A57" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="B57" s="6">
+      <c r="B57" s="15">
         <v>1</v>
       </c>
-      <c r="C57" s="6">
-        <v>3</v>
-      </c>
-      <c r="D57" s="6">
-        <v>5</v>
-      </c>
-      <c r="E57" s="10">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="F57" s="11">
+      <c r="C57" s="15">
+        <v>3</v>
+      </c>
+      <c r="D57" s="15">
+        <v>5</v>
+      </c>
+      <c r="E57" s="16">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="F57" s="17">
         <f t="shared" si="1"/>
         <v>0.66666666666666663</v>
       </c>
-      <c r="G57" s="2">
+      <c r="G57" s="18">
         <v>55</v>
       </c>
-      <c r="H57" s="2" t="s">
+      <c r="H57" s="18" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="58" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A58" s="15" t="s">
+      <c r="A58" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="B58" s="6">
+      <c r="B58" s="15">
         <v>1</v>
       </c>
-      <c r="C58" s="6">
-        <v>2</v>
-      </c>
-      <c r="D58" s="6">
-        <v>4</v>
-      </c>
-      <c r="E58" s="10">
+      <c r="C58" s="15">
+        <v>2</v>
+      </c>
+      <c r="D58" s="15">
+        <v>4</v>
+      </c>
+      <c r="E58" s="16">
         <f t="shared" si="0"/>
         <v>2.1666666666666665</v>
       </c>
-      <c r="F58" s="11">
+      <c r="F58" s="17">
         <f t="shared" si="1"/>
         <v>0.5</v>
       </c>
-      <c r="G58" s="2">
+      <c r="G58" s="18">
         <v>56</v>
       </c>
-      <c r="H58" s="2" t="s">
+      <c r="H58" s="18" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="59" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A59" s="15" t="s">
+      <c r="A59" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="B59" s="6">
-        <v>2</v>
-      </c>
-      <c r="C59" s="6">
-        <v>3</v>
-      </c>
-      <c r="D59" s="6">
-        <v>5</v>
-      </c>
-      <c r="E59" s="10">
+      <c r="B59" s="15">
+        <v>2</v>
+      </c>
+      <c r="C59" s="15">
+        <v>3</v>
+      </c>
+      <c r="D59" s="15">
+        <v>5</v>
+      </c>
+      <c r="E59" s="16">
         <f t="shared" si="0"/>
         <v>3.1666666666666665</v>
       </c>
-      <c r="F59" s="11">
+      <c r="F59" s="17">
         <f t="shared" si="1"/>
         <v>0.5</v>
       </c>
-      <c r="G59" s="2">
+      <c r="G59" s="18">
         <v>57</v>
       </c>
-      <c r="H59" s="2" t="s">
+      <c r="H59" s="18" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="60" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A60" s="15" t="s">
+      <c r="A60" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="B60" s="6">
-        <v>2</v>
-      </c>
-      <c r="C60" s="6">
-        <v>4</v>
-      </c>
-      <c r="D60" s="6">
+      <c r="B60" s="15">
+        <v>2</v>
+      </c>
+      <c r="C60" s="15">
+        <v>4</v>
+      </c>
+      <c r="D60" s="15">
         <v>6</v>
       </c>
-      <c r="E60" s="10">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="F60" s="11">
+      <c r="E60" s="16">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="F60" s="17">
         <f t="shared" si="1"/>
         <v>0.66666666666666663</v>
       </c>
-      <c r="G60" s="2">
+      <c r="G60" s="18">
         <v>58</v>
       </c>
-      <c r="H60" s="2" t="s">
+      <c r="H60" s="18" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="61" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A61" s="15" t="s">
+      <c r="A61" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="B61" s="6">
-        <v>3</v>
-      </c>
-      <c r="C61" s="6">
-        <v>5</v>
-      </c>
-      <c r="D61" s="6">
+      <c r="B61" s="15">
+        <v>3</v>
+      </c>
+      <c r="C61" s="15">
+        <v>5</v>
+      </c>
+      <c r="D61" s="15">
         <v>7</v>
       </c>
-      <c r="E61" s="10">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="F61" s="11">
+      <c r="E61" s="16">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="F61" s="17">
         <f t="shared" si="1"/>
         <v>0.66666666666666663</v>
       </c>
-      <c r="G61" s="2">
+      <c r="G61" s="18">
         <v>57</v>
       </c>
-      <c r="H61" s="2" t="s">
+      <c r="H61" s="18" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="62" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A62" s="15" t="s">
+      <c r="A62" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="B62" s="6">
-        <v>2</v>
-      </c>
-      <c r="C62" s="6">
-        <v>4</v>
-      </c>
-      <c r="D62" s="6">
+      <c r="B62" s="15">
+        <v>2</v>
+      </c>
+      <c r="C62" s="15">
+        <v>4</v>
+      </c>
+      <c r="D62" s="15">
         <v>6</v>
       </c>
-      <c r="E62" s="10">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="F62" s="11">
+      <c r="E62" s="16">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="F62" s="17">
         <f t="shared" si="1"/>
         <v>0.66666666666666663</v>
       </c>
-      <c r="G62" s="2">
+      <c r="G62" s="18">
         <v>60</v>
       </c>
-      <c r="H62" s="2" t="s">
+      <c r="H62" s="18" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="63" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A63" s="15" t="s">
+      <c r="A63" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="B63" s="6">
+      <c r="B63" s="15">
         <v>1</v>
       </c>
-      <c r="C63" s="6">
-        <v>2</v>
-      </c>
-      <c r="D63" s="6">
-        <v>4</v>
-      </c>
-      <c r="E63" s="10">
+      <c r="C63" s="15">
+        <v>2</v>
+      </c>
+      <c r="D63" s="15">
+        <v>4</v>
+      </c>
+      <c r="E63" s="16">
         <f t="shared" si="0"/>
         <v>2.1666666666666665</v>
       </c>
-      <c r="F63" s="11">
+      <c r="F63" s="17">
         <f t="shared" si="1"/>
         <v>0.5</v>
       </c>
-      <c r="G63" s="2">
+      <c r="G63" s="18">
         <v>61</v>
       </c>
-      <c r="H63" s="2" t="s">
+      <c r="H63" s="18" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="64" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A64" s="15" t="s">
+      <c r="A64" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="B64" s="6">
+      <c r="B64" s="15">
         <v>0.5</v>
       </c>
-      <c r="C64" s="6">
+      <c r="C64" s="15">
         <v>1</v>
       </c>
-      <c r="D64" s="6">
-        <v>2</v>
-      </c>
-      <c r="E64" s="10">
+      <c r="D64" s="15">
+        <v>2</v>
+      </c>
+      <c r="E64" s="16">
         <f t="shared" si="0"/>
         <v>1.0833333333333333</v>
       </c>
-      <c r="F64" s="11">
+      <c r="F64" s="17">
         <f t="shared" si="1"/>
         <v>0.25</v>
       </c>
-      <c r="G64" s="2" t="s">
+      <c r="G64" s="18" t="s">
         <v>72</v>
       </c>
-      <c r="H64" s="2" t="s">
+      <c r="H64" s="18" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="65" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A65" s="15" t="s">
+      <c r="A65" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="B65" s="6">
-        <v>2</v>
-      </c>
-      <c r="C65" s="6">
-        <v>3</v>
-      </c>
-      <c r="D65" s="6">
-        <v>5</v>
-      </c>
-      <c r="E65" s="10">
+      <c r="B65" s="15">
+        <v>2</v>
+      </c>
+      <c r="C65" s="15">
+        <v>3</v>
+      </c>
+      <c r="D65" s="15">
+        <v>5</v>
+      </c>
+      <c r="E65" s="16">
         <f t="shared" si="0"/>
         <v>3.1666666666666665</v>
       </c>
-      <c r="F65" s="11">
+      <c r="F65" s="17">
         <f t="shared" si="1"/>
         <v>0.5</v>
       </c>
-      <c r="G65" s="2">
+      <c r="G65" s="18">
         <v>63</v>
       </c>
-      <c r="H65" s="2" t="s">
+      <c r="H65" s="18" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="66" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A66" s="15" t="s">
+      <c r="A66" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="B66" s="6">
+      <c r="B66" s="15">
         <v>1</v>
       </c>
-      <c r="C66" s="6">
-        <v>2</v>
-      </c>
-      <c r="D66" s="6">
-        <v>3</v>
-      </c>
-      <c r="E66" s="10">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="F66" s="11">
+      <c r="C66" s="15">
+        <v>2</v>
+      </c>
+      <c r="D66" s="15">
+        <v>3</v>
+      </c>
+      <c r="E66" s="16">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="F66" s="17">
         <f t="shared" si="1"/>
         <v>0.33333333333333331</v>
       </c>
-      <c r="G66" s="2">
+      <c r="G66" s="18">
         <v>64</v>
       </c>
-      <c r="H66" s="2" t="s">
+      <c r="H66" s="18" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="67" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A67" s="15" t="s">
+      <c r="A67" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="B67" s="6">
-        <v>2</v>
-      </c>
-      <c r="C67" s="6">
-        <v>4</v>
-      </c>
-      <c r="D67" s="6">
+      <c r="B67" s="15">
+        <v>2</v>
+      </c>
+      <c r="C67" s="15">
+        <v>4</v>
+      </c>
+      <c r="D67" s="15">
         <v>6</v>
       </c>
-      <c r="E67" s="10">
+      <c r="E67" s="16">
         <f t="shared" ref="E67:E70" si="2">(B67+4*C67+D67)/6</f>
         <v>4</v>
       </c>
-      <c r="F67" s="11">
+      <c r="F67" s="17">
         <f t="shared" ref="F67:F70" si="3">(D67-B67)/6</f>
         <v>0.66666666666666663</v>
       </c>
-      <c r="G67" s="2">
+      <c r="G67" s="18">
         <v>65</v>
       </c>
-      <c r="H67" s="2" t="s">
+      <c r="H67" s="18" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="68" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A68" s="15" t="s">
+      <c r="A68" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="B68" s="6">
+      <c r="B68" s="15">
         <v>1</v>
       </c>
-      <c r="C68" s="6">
-        <v>2</v>
-      </c>
-      <c r="D68" s="6">
-        <v>3</v>
-      </c>
-      <c r="E68" s="10">
+      <c r="C68" s="15">
+        <v>2</v>
+      </c>
+      <c r="D68" s="15">
+        <v>3</v>
+      </c>
+      <c r="E68" s="16">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="F68" s="11">
+      <c r="F68" s="17">
         <f t="shared" si="3"/>
         <v>0.33333333333333331</v>
       </c>
-      <c r="G68" s="2">
+      <c r="G68" s="18">
         <v>66</v>
       </c>
-      <c r="H68" s="2" t="s">
+      <c r="H68" s="18" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="69" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A69" s="15" t="s">
+      <c r="A69" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="B69" s="6">
+      <c r="B69" s="15">
         <v>1</v>
       </c>
-      <c r="C69" s="6">
-        <v>2</v>
-      </c>
-      <c r="D69" s="6">
-        <v>4</v>
-      </c>
-      <c r="E69" s="10">
+      <c r="C69" s="15">
+        <v>2</v>
+      </c>
+      <c r="D69" s="15">
+        <v>4</v>
+      </c>
+      <c r="E69" s="16">
         <f t="shared" si="2"/>
         <v>2.1666666666666665</v>
       </c>
-      <c r="F69" s="11">
+      <c r="F69" s="17">
         <f t="shared" si="3"/>
         <v>0.5</v>
       </c>
-      <c r="G69" s="2">
+      <c r="G69" s="18">
         <v>67</v>
       </c>
-      <c r="H69" s="2" t="s">
+      <c r="H69" s="18" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="70" spans="1:8" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A70" s="15" t="s">
+    <row r="70" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A70" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="B70" s="7">
+      <c r="B70" s="15">
         <v>1</v>
       </c>
-      <c r="C70" s="7">
-        <v>3</v>
-      </c>
-      <c r="D70" s="7">
-        <v>5</v>
-      </c>
-      <c r="E70" s="12">
+      <c r="C70" s="15">
+        <v>3</v>
+      </c>
+      <c r="D70" s="15">
+        <v>5</v>
+      </c>
+      <c r="E70" s="16">
         <f t="shared" si="2"/>
         <v>3</v>
       </c>
-      <c r="F70" s="11">
+      <c r="F70" s="17">
         <f t="shared" si="3"/>
         <v>0.66666666666666663</v>
       </c>
-      <c r="G70" s="2" t="s">
+      <c r="G70" s="18" t="s">
         <v>79</v>
       </c>
-      <c r="H70" s="2" t="s">
+      <c r="H70" s="18" t="s">
         <v>108</v>
       </c>
     </row>
@@ -3154,170 +3107,210 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{081C22EC-4620-4117-A76D-1E4837839DB1}">
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:D13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection sqref="A1:D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="3.88671875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="30.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.44140625" customWidth="1"/>
+    <col min="3" max="3" width="44.5546875" style="9" customWidth="1"/>
+    <col min="4" max="4" width="13.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" s="16" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="4" t="s">
         <v>170</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="4" t="s">
         <v>171</v>
       </c>
-      <c r="C1" s="18" t="s">
+      <c r="C1" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="D1" s="6" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" s="17">
+    <row r="2" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A2" s="5">
         <v>1</v>
       </c>
-      <c r="B2" s="17" t="s">
+      <c r="B2" s="5" t="s">
         <v>158</v>
       </c>
-      <c r="C2" s="19">
+      <c r="C2" s="10" t="s">
+        <v>187</v>
+      </c>
+      <c r="D2" s="7">
         <v>45874</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" s="17">
+    <row r="3" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A3" s="5">
         <f>A2+1</f>
         <v>2</v>
       </c>
-      <c r="B3" s="17" t="s">
+      <c r="B3" s="5" t="s">
         <v>159</v>
       </c>
-      <c r="C3" s="20">
+      <c r="C3" s="10" t="s">
+        <v>188</v>
+      </c>
+      <c r="D3" s="8">
         <v>45877</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" s="17">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="5">
         <f t="shared" ref="A4:A13" si="0">A3+1</f>
         <v>3</v>
       </c>
-      <c r="B4" s="17" t="s">
+      <c r="B4" s="5" t="s">
         <v>160</v>
       </c>
-      <c r="C4" s="20">
+      <c r="C4" s="11" t="s">
+        <v>189</v>
+      </c>
+      <c r="D4" s="8">
         <v>45877</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" s="17">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="B5" s="17" t="s">
+    <row r="5" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A5" s="5">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="B5" s="5" t="s">
         <v>161</v>
       </c>
-      <c r="C5" s="20">
+      <c r="C5" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="D5" s="8">
         <v>45881</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" s="17">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="B6" s="17" t="s">
+    <row r="6" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A6" s="5">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="B6" s="5" t="s">
         <v>162</v>
       </c>
-      <c r="C6" s="20">
+      <c r="C6" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="D6" s="8">
         <v>45889</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" s="17">
+    <row r="7" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A7" s="5">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B7" s="17" t="s">
+      <c r="B7" s="5" t="s">
         <v>163</v>
       </c>
-      <c r="C7" s="20">
+      <c r="C7" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="D7" s="8">
         <v>45889</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" s="17">
+    <row r="8" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A8" s="5">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B8" s="17" t="s">
+      <c r="B8" s="5" t="s">
         <v>164</v>
       </c>
-      <c r="C8" s="20">
+      <c r="C8" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="D8" s="8">
         <v>45897</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" s="17">
+    <row r="9" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A9" s="5">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="B9" s="17" t="s">
+      <c r="B9" s="5" t="s">
         <v>165</v>
       </c>
-      <c r="C9" s="20">
+      <c r="C9" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="D9" s="8">
         <v>45901</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10" s="17">
+    <row r="10" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A10" s="5">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="B10" s="17" t="s">
+      <c r="B10" s="5" t="s">
         <v>166</v>
       </c>
-      <c r="C10" s="20">
+      <c r="C10" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="D10" s="8">
         <v>45917</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11" s="17">
+    <row r="11" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A11" s="5">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="B11" s="17" t="s">
+      <c r="B11" s="5" t="s">
         <v>167</v>
       </c>
-      <c r="C11" s="20">
+      <c r="C11" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="D11" s="8">
         <v>45898</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A12" s="17">
+    <row r="12" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A12" s="5">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="B12" s="17" t="s">
+      <c r="B12" s="5" t="s">
         <v>168</v>
       </c>
-      <c r="C12" s="20">
+      <c r="C12" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="D12" s="8">
         <v>45901</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A13" s="17">
+    <row r="13" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A13" s="5">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="B13" s="17" t="s">
+      <c r="B13" s="5" t="s">
         <v>169</v>
       </c>
-      <c r="C13" s="20">
+      <c r="C13" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="D13" s="8">
         <v>45929</v>
       </c>
     </row>
@@ -3331,8 +3324,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77A6C9D0-B316-4A49-8090-E1E0626B3E1F}">
   <dimension ref="A1:B13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:B13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3342,117 +3335,117 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="4" t="s">
         <v>170</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="4" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" s="17">
+      <c r="A2" s="5">
         <v>1</v>
       </c>
-      <c r="B2" s="17" t="s">
+      <c r="B2" s="5" t="s">
         <v>173</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" s="17">
+      <c r="A3" s="5">
         <f>A2+1</f>
         <v>2</v>
       </c>
-      <c r="B3" s="17" t="s">
+      <c r="B3" s="5" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" s="17">
+      <c r="A4" s="5">
         <f t="shared" ref="A4:A13" si="0">A3+1</f>
         <v>3</v>
       </c>
-      <c r="B4" s="17" t="s">
+      <c r="B4" s="5" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" s="17">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="B5" s="17" t="s">
+      <c r="A5" s="5">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="B5" s="5" t="s">
         <v>176</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" s="17">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="B6" s="17" t="s">
+      <c r="A6" s="5">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="B6" s="5" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" s="17">
+      <c r="A7" s="5">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B7" s="17" t="s">
+      <c r="B7" s="5" t="s">
         <v>178</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" s="17">
+      <c r="A8" s="5">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B8" s="17" t="s">
+      <c r="B8" s="5" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9" s="17">
+      <c r="A9" s="5">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="B9" s="17" t="s">
+      <c r="B9" s="5" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10" s="17">
+      <c r="A10" s="5">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="B10" s="17" t="s">
+      <c r="B10" s="5" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A11" s="17">
+      <c r="A11" s="5">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="B11" s="17" t="s">
+      <c r="B11" s="5" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A12" s="17">
+      <c r="A12" s="5">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="B12" s="17" t="s">
+      <c r="B12" s="5" t="s">
         <v>183</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A13" s="17">
+      <c r="A13" s="5">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="B13" s="17" t="s">
+      <c r="B13" s="5" t="s">
         <v>184</v>
       </c>
     </row>

--- a/TERM3/T3B1-ICTPMG613-Manage_ICT_project_plan/2-ICTPMG613-Assessment_Task 2/ICTPMG613_AssessmentTask_Manuel_S_Perez_E-Pert_Chart.xlsx
+++ b/TERM3/T3B1-ICTPMG613-Manage_ICT_project_plan/2-ICTPMG613-Assessment_Task 2/ICTPMG613_AssessmentTask_Manuel_S_Perez_E-Pert_Chart.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\manue\Documents\Assessments\TERM3\T3B1-ICTPMG613-Manage_ICT_project_plan\2-ICTPMG613-Assessment_Task 2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BC8CC4A-7955-43E2-A1FD-595AC80A7DF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79508173-110A-4726-B0E9-D793C6E6067E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{2E7573F3-6188-4FA9-9041-50436B486355}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{2E7573F3-6188-4FA9-9041-50436B486355}"/>
   </bookViews>
   <sheets>
     <sheet name="Chart" sheetId="1" r:id="rId1"/>
     <sheet name="k-Milestones" sheetId="2" r:id="rId2"/>
     <sheet name="k-Dependences" sheetId="3" r:id="rId3"/>
+    <sheet name="Change-control" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="198">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="221">
   <si>
     <t>Activity</t>
   </si>
@@ -632,6 +633,75 @@
   </si>
   <si>
     <t>The project is now completed and closed. All cloud infrastructure, core applications, and the website are ready for production use.</t>
+  </si>
+  <si>
+    <t>Step</t>
+  </si>
+  <si>
+    <t>Change proposed by the client</t>
+  </si>
+  <si>
+    <t>Change proposed by us</t>
+  </si>
+  <si>
+    <t>Proccess</t>
+  </si>
+  <si>
+    <t>Responsible</t>
+  </si>
+  <si>
+    <t>Identify the need for a change</t>
+  </si>
+  <si>
+    <t>Any Stakeholder</t>
+  </si>
+  <si>
+    <t>Log change in the change request register</t>
+  </si>
+  <si>
+    <t>Project Manager</t>
+  </si>
+  <si>
+    <t>Conduct an evaluation of the change</t>
+  </si>
+  <si>
+    <t>The project manager will conduct an evaluation of the impact of the change to cost, risk, schedule, and scope</t>
+  </si>
+  <si>
+    <t>Project Manager, Project Team, Requestor</t>
+  </si>
+  <si>
+    <t>Submit change request to Change Control Board (CCB)</t>
+  </si>
+  <si>
+    <t>The project manager will submit the change request and analysis to the CCB for review</t>
+  </si>
+  <si>
+    <t>Change Control Board decision (CCB)</t>
+  </si>
+  <si>
+    <t>The CCB will discuss the proposed change and decide whether or not it will be approved based on all submitted information</t>
+  </si>
+  <si>
+    <t>Implement change</t>
+  </si>
+  <si>
+    <t>If a change is approved by the CCB, the project manager will update and re-baseline project documentation as necessary as well as ensure any changes are communicated to the team and stakeholders</t>
+  </si>
+  <si>
+    <t>The project manager will maintain a log of all change requests for the duration of the project</t>
+  </si>
+  <si>
+    <t>CCB</t>
+  </si>
+  <si>
+    <t>Requestor will submit a completed IT Biz Solutions change request form to the project manager</t>
+  </si>
+  <si>
+    <t>Any member of IT Biz Solutions</t>
+  </si>
+  <si>
+    <t>The requester will meet with the Project Manager to discuss the change proposal before submitting a change request.</t>
   </si>
 </sst>
 </file>
@@ -728,7 +798,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -783,6 +853,14 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1125,7 +1203,7 @@
   </sheetPr>
   <dimension ref="A1:H70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A50" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView topLeftCell="A50" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
@@ -3452,4 +3530,257 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB4A8877-E8DA-4C66-94BC-D151587F6D20}">
+  <dimension ref="A1:D21"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="36.44140625" customWidth="1"/>
+    <col min="3" max="3" width="14.21875" style="9" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="59.109375" style="9" customWidth="1"/>
+    <col min="5" max="5" width="8.88671875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="21" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="19" t="s">
+        <v>198</v>
+      </c>
+      <c r="B2" s="19" t="s">
+        <v>186</v>
+      </c>
+      <c r="C2" s="20" t="s">
+        <v>202</v>
+      </c>
+      <c r="D2" s="20" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A3" s="11">
+        <v>1</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>203</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>204</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A4" s="11">
+        <v>2</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>205</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>206</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A5" s="11">
+        <v>3</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>207</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>209</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="11">
+        <v>4</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>211</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>206</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A7" s="11">
+        <v>5</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>212</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>217</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A8" s="11">
+        <v>6</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>214</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>206</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="21" t="s">
+        <v>200</v>
+      </c>
+      <c r="B11" s="21"/>
+      <c r="C11" s="22"/>
+      <c r="D11" s="22"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="19" t="s">
+        <v>198</v>
+      </c>
+      <c r="B12" s="19" t="s">
+        <v>186</v>
+      </c>
+      <c r="C12" s="20" t="s">
+        <v>202</v>
+      </c>
+      <c r="D12" s="20" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A13" s="11">
+        <v>1</v>
+      </c>
+      <c r="B13" s="11" t="s">
+        <v>203</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>219</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="11">
+        <v>2</v>
+      </c>
+      <c r="B14" s="11"/>
+      <c r="C14" s="10"/>
+      <c r="D14" s="10" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A15" s="11">
+        <v>3</v>
+      </c>
+      <c r="B15" s="11" t="s">
+        <v>205</v>
+      </c>
+      <c r="C15" s="10" t="s">
+        <v>206</v>
+      </c>
+      <c r="D15" s="10" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A16" s="11">
+        <v>4</v>
+      </c>
+      <c r="B16" s="11" t="s">
+        <v>207</v>
+      </c>
+      <c r="C16" s="10" t="s">
+        <v>209</v>
+      </c>
+      <c r="D16" s="10" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" s="11">
+        <v>5</v>
+      </c>
+      <c r="B17" s="11" t="s">
+        <v>211</v>
+      </c>
+      <c r="C17" s="10" t="s">
+        <v>206</v>
+      </c>
+      <c r="D17" s="10" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A18" s="11">
+        <v>6</v>
+      </c>
+      <c r="B18" s="11" t="s">
+        <v>212</v>
+      </c>
+      <c r="C18" s="10" t="s">
+        <v>217</v>
+      </c>
+      <c r="D18" s="10" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A19" s="11">
+        <v>7</v>
+      </c>
+      <c r="B19" s="11" t="s">
+        <v>214</v>
+      </c>
+      <c r="C19" s="10" t="s">
+        <v>206</v>
+      </c>
+      <c r="D19" s="10" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20" s="11"/>
+      <c r="B20" s="11"/>
+      <c r="C20" s="10"/>
+      <c r="D20" s="10"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21" s="11"/>
+      <c r="B21" s="11"/>
+      <c r="C21" s="10"/>
+      <c r="D21" s="10"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/TERM3/T3B1-ICTPMG613-Manage_ICT_project_plan/2-ICTPMG613-Assessment_Task 2/ICTPMG613_AssessmentTask_Manuel_S_Perez_E-Pert_Chart.xlsx
+++ b/TERM3/T3B1-ICTPMG613-Manage_ICT_project_plan/2-ICTPMG613-Assessment_Task 2/ICTPMG613_AssessmentTask_Manuel_S_Perez_E-Pert_Chart.xlsx
@@ -8,15 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\manue\Documents\Assessments\TERM3\T3B1-ICTPMG613-Manage_ICT_project_plan\2-ICTPMG613-Assessment_Task 2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79508173-110A-4726-B0E9-D793C6E6067E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C4E1AE8-E2EB-48CB-B99D-AE820542C974}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{2E7573F3-6188-4FA9-9041-50436B486355}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="5" xr2:uid="{2E7573F3-6188-4FA9-9041-50436B486355}"/>
   </bookViews>
   <sheets>
     <sheet name="Chart" sheetId="1" r:id="rId1"/>
     <sheet name="k-Milestones" sheetId="2" r:id="rId2"/>
     <sheet name="k-Dependences" sheetId="3" r:id="rId3"/>
     <sheet name="Change-control" sheetId="4" r:id="rId4"/>
+    <sheet name="Comms-control" sheetId="5" r:id="rId5"/>
+    <sheet name="Comms-directory" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="221">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="302">
   <si>
     <t>Activity</t>
   </si>
@@ -702,6 +704,249 @@
   </si>
   <si>
     <t>The requester will meet with the Project Manager to discuss the change proposal before submitting a change request.</t>
+  </si>
+  <si>
+    <t>Requestor will submit a completed IT Biz Solutions change request form to the project manager. The requester will meet with the Project Manager to discuss the proposed change before submitting a change request. Alternatives will also be considered, seeking the lowest possible impact.</t>
+  </si>
+  <si>
+    <t>Team planning</t>
+  </si>
+  <si>
+    <t>Communication Type</t>
+  </si>
+  <si>
+    <t>Frequency</t>
+  </si>
+  <si>
+    <t>Format</t>
+  </si>
+  <si>
+    <t>Participants/ Distribution</t>
+  </si>
+  <si>
+    <t>Deliverable</t>
+  </si>
+  <si>
+    <t>Owner</t>
+  </si>
+  <si>
+    <t>Weekly Status Report</t>
+  </si>
+  <si>
+    <t>Email summary of project status</t>
+  </si>
+  <si>
+    <t>Weekly</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>Project Sponsor, Team and Stakeholders</t>
+  </si>
+  <si>
+    <t>Status Report</t>
+  </si>
+  <si>
+    <t>Weekly Project Team Meeting</t>
+  </si>
+  <si>
+    <t>Meeting to review action register and status</t>
+  </si>
+  <si>
+    <t>In Person</t>
+  </si>
+  <si>
+    <t>Project Team</t>
+  </si>
+  <si>
+    <t>Updated Action Register</t>
+  </si>
+  <si>
+    <t>Project Monthly Review (PMR)</t>
+  </si>
+  <si>
+    <t>Present metrics and status to team and sponsor</t>
+  </si>
+  <si>
+    <t>Monthly</t>
+  </si>
+  <si>
+    <t>Project Sponsor, Team, and Stakeholders</t>
+  </si>
+  <si>
+    <t>Status and Metric Presentation</t>
+  </si>
+  <si>
+    <t>Project Gate Reviews</t>
+  </si>
+  <si>
+    <t>Present closeout of project phases and kickoff next phase</t>
+  </si>
+  <si>
+    <t>As Needed</t>
+  </si>
+  <si>
+    <t>Phase completion report and phase kickoff</t>
+  </si>
+  <si>
+    <t>Technical Design Review</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Title</t>
+  </si>
+  <si>
+    <t>E mail</t>
+  </si>
+  <si>
+    <t>Office Phone</t>
+  </si>
+  <si>
+    <t>Cell Phone</t>
+  </si>
+  <si>
+    <t>Project Sponsor</t>
+  </si>
+  <si>
+    <t>Review of any technical specialist hardware/software or work associated with the project</t>
+  </si>
+  <si>
+    <t>Demo, Art-concep, Mock-ups Package</t>
+  </si>
+  <si>
+    <t>Judith Lee</t>
+  </si>
+  <si>
+    <t>Manuel Sergio Perez E</t>
+  </si>
+  <si>
+    <t>Senior IT Project Manager</t>
+  </si>
+  <si>
+    <t>Richard Kuoch</t>
+  </si>
+  <si>
+    <t>Project Oversight Mentor</t>
+  </si>
+  <si>
+    <t>Roland Morris</t>
+  </si>
+  <si>
+    <t>Assistant Project Manager</t>
+  </si>
+  <si>
+    <t>Zakary Pineda</t>
+  </si>
+  <si>
+    <t>Hardware Specialist</t>
+  </si>
+  <si>
+    <t>Dani Chen</t>
+  </si>
+  <si>
+    <t>Software Specialist</t>
+  </si>
+  <si>
+    <t>Ben Nguyen</t>
+  </si>
+  <si>
+    <t>Project Assistant</t>
+  </si>
+  <si>
+    <t>Ishtar Kahn</t>
+  </si>
+  <si>
+    <t>Business Owner</t>
+  </si>
+  <si>
+    <t>Susan Morgan</t>
+  </si>
+  <si>
+    <t>Customer Service Manager</t>
+  </si>
+  <si>
+    <t>manuel.perez@itbizsolutions.com</t>
+  </si>
+  <si>
+    <t>richard.kuoch@itbizsolutions.com</t>
+  </si>
+  <si>
+    <t>roland.morris@itbizsolutions.com</t>
+  </si>
+  <si>
+    <t>zakary.pineda@itbizsolutions.com</t>
+  </si>
+  <si>
+    <t>dani.chen@itbizsolutions.com</t>
+  </si>
+  <si>
+    <t>ben.nguyen@itbizsolutions.com</t>
+  </si>
+  <si>
+    <t>judith.lee@boutiquebuild.com.au</t>
+  </si>
+  <si>
+    <t>ishtar.kahn@boutiquebuild.com.au</t>
+  </si>
+  <si>
+    <t>susan.morgan@boutiquebuild.com.au</t>
+  </si>
+  <si>
+    <t>(02) 8000 2001 ext. 301</t>
+  </si>
+  <si>
+    <t>(02) 8000 2002 ext. 302</t>
+  </si>
+  <si>
+    <t>(02) 8000 2003 ext. 303</t>
+  </si>
+  <si>
+    <t>(03) 9000 1001 ext. 201</t>
+  </si>
+  <si>
+    <t>(03) 9000 1002 ext. 202</t>
+  </si>
+  <si>
+    <t>(03) 9000 1003 ext. 203</t>
+  </si>
+  <si>
+    <t>(03) 9000 1004 ext. 204</t>
+  </si>
+  <si>
+    <t>(03)  9000 1005 ext. 205</t>
+  </si>
+  <si>
+    <t>(03) 9000 1006 ext. 206</t>
+  </si>
+  <si>
+    <t>0413 782 940</t>
+  </si>
+  <si>
+    <t>0421 665 378</t>
+  </si>
+  <si>
+    <t>0468 209 451</t>
+  </si>
+  <si>
+    <t>0415 937 824</t>
+  </si>
+  <si>
+    <t>0423 118 509</t>
+  </si>
+  <si>
+    <t>0456 774 293</t>
+  </si>
+  <si>
+    <t>0417 503 682</t>
+  </si>
+  <si>
+    <t>0428 916 450</t>
+  </si>
+  <si>
+    <t>0469 331 725</t>
   </si>
 </sst>
 </file>
@@ -713,7 +958,7 @@
     <numFmt numFmtId="165" formatCode="#,##0.00&quot; days&quot;"/>
     <numFmt numFmtId="166" formatCode="ddd\ dd/mmm/yy"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -742,20 +987,39 @@
       <family val="2"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
       <sz val="10"/>
-      <name val="Aptos Narrow"/>
+      <color theme="1"/>
+      <name val="Arial"/>
       <family val="2"/>
-      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
-      <name val="Aptos Narrow"/>
+      <name val="Arial"/>
       <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -768,8 +1032,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC0C0C0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -792,13 +1068,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -809,58 +1094,94 @@
     <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="166" fontId="5" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="166" fontId="8" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="7" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1203,1977 +1524,1977 @@
   </sheetPr>
   <dimension ref="A1:H70"/>
   <sheetViews>
-    <sheetView topLeftCell="A50" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView topLeftCell="A7" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="17" style="1" customWidth="1"/>
-    <col min="2" max="2" width="8.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="8.88671875" style="1"/>
-    <col min="5" max="5" width="10.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="9" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.77734375" style="3" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="14.44140625" style="1" customWidth="1"/>
     <col min="8" max="8" width="28.21875" style="1" customWidth="1"/>
     <col min="9" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="14" t="s">
         <v>110</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="C1" s="14" t="s">
         <v>111</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="D1" s="14" t="s">
         <v>112</v>
       </c>
-      <c r="E1" s="13" t="s">
+      <c r="E1" s="25" t="s">
         <v>113</v>
       </c>
-      <c r="F1" s="14" t="s">
+      <c r="F1" s="26" t="s">
         <v>114</v>
       </c>
-      <c r="G1" s="12" t="s">
+      <c r="G1" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="12" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A2" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="15">
-        <v>2</v>
-      </c>
-      <c r="C2" s="15">
-        <v>4</v>
-      </c>
-      <c r="D2" s="15">
+      <c r="H1" s="14" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="41.4" x14ac:dyDescent="0.3">
+      <c r="A2" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="27">
+        <v>2</v>
+      </c>
+      <c r="C2" s="27">
+        <v>4</v>
+      </c>
+      <c r="D2" s="27">
         <v>6</v>
       </c>
-      <c r="E2" s="16">
+      <c r="E2" s="28">
         <f>(B2+4*C2+D2)/6</f>
         <v>4</v>
       </c>
-      <c r="F2" s="17">
+      <c r="F2" s="29">
         <f>(D2-B2)/6</f>
         <v>0.66666666666666663</v>
       </c>
-      <c r="G2" s="18" t="s">
+      <c r="G2" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="5" t="s">
+      <c r="H2" s="19" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A3" s="5" t="s">
+    <row r="3" spans="1:8" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A3" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="15">
+      <c r="B3" s="27">
         <v>1</v>
       </c>
-      <c r="C3" s="15">
-        <v>2</v>
-      </c>
-      <c r="D3" s="15">
+      <c r="C3" s="27">
+        <v>2</v>
+      </c>
+      <c r="D3" s="27">
         <v>3</v>
       </c>
-      <c r="E3" s="16">
+      <c r="E3" s="28">
         <f t="shared" ref="E3:E66" si="0">(B3+4*C3+D3)/6</f>
         <v>2</v>
       </c>
-      <c r="F3" s="17">
+      <c r="F3" s="29">
         <f t="shared" ref="F3:F66" si="1">(D3-B3)/6</f>
         <v>0.33333333333333331</v>
       </c>
-      <c r="G3" s="18">
+      <c r="G3" s="16">
         <v>1</v>
       </c>
-      <c r="H3" s="5" t="s">
+      <c r="H3" s="19" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A4" s="5" t="s">
+    <row r="4" spans="1:8" ht="41.4" x14ac:dyDescent="0.3">
+      <c r="A4" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="15">
-        <v>2</v>
-      </c>
-      <c r="C4" s="15">
+      <c r="B4" s="27">
+        <v>2</v>
+      </c>
+      <c r="C4" s="27">
         <v>3</v>
       </c>
-      <c r="D4" s="15">
+      <c r="D4" s="27">
         <v>5</v>
       </c>
-      <c r="E4" s="16">
+      <c r="E4" s="28">
         <f t="shared" si="0"/>
         <v>3.1666666666666665</v>
       </c>
-      <c r="F4" s="17">
+      <c r="F4" s="29">
         <f t="shared" si="1"/>
         <v>0.5</v>
       </c>
-      <c r="G4" s="18">
-        <v>2</v>
-      </c>
-      <c r="H4" s="5" t="s">
+      <c r="G4" s="16">
+        <v>2</v>
+      </c>
+      <c r="H4" s="19" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A5" s="5" t="s">
+    <row r="5" spans="1:8" ht="41.4" x14ac:dyDescent="0.3">
+      <c r="A5" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="15">
+      <c r="B5" s="27">
         <v>3</v>
       </c>
-      <c r="C5" s="15">
+      <c r="C5" s="27">
         <v>5</v>
       </c>
-      <c r="D5" s="15">
+      <c r="D5" s="27">
         <v>7</v>
       </c>
-      <c r="E5" s="16">
+      <c r="E5" s="28">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="F5" s="17">
+      <c r="F5" s="29">
         <f t="shared" si="1"/>
         <v>0.66666666666666663</v>
       </c>
-      <c r="G5" s="18">
+      <c r="G5" s="16">
         <v>3</v>
       </c>
-      <c r="H5" s="5" t="s">
+      <c r="H5" s="19" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A6" s="5" t="s">
+    <row r="6" spans="1:8" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A6" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="15">
+      <c r="B6" s="27">
         <v>1</v>
       </c>
-      <c r="C6" s="15">
-        <v>2</v>
-      </c>
-      <c r="D6" s="15">
-        <v>4</v>
-      </c>
-      <c r="E6" s="16">
+      <c r="C6" s="27">
+        <v>2</v>
+      </c>
+      <c r="D6" s="27">
+        <v>4</v>
+      </c>
+      <c r="E6" s="28">
         <f t="shared" si="0"/>
         <v>2.1666666666666665</v>
       </c>
-      <c r="F6" s="17">
+      <c r="F6" s="29">
         <f t="shared" si="1"/>
         <v>0.5</v>
       </c>
-      <c r="G6" s="18">
-        <v>4</v>
-      </c>
-      <c r="H6" s="5" t="s">
+      <c r="G6" s="16">
+        <v>4</v>
+      </c>
+      <c r="H6" s="19" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A7" s="5" t="s">
+    <row r="7" spans="1:8" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A7" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="15">
+      <c r="B7" s="27">
         <v>0.5</v>
       </c>
-      <c r="C7" s="15">
+      <c r="C7" s="27">
         <v>1</v>
       </c>
-      <c r="D7" s="15">
+      <c r="D7" s="27">
         <v>1.5</v>
       </c>
-      <c r="E7" s="16">
+      <c r="E7" s="28">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="F7" s="17">
+      <c r="F7" s="29">
         <f t="shared" si="1"/>
         <v>0.16666666666666666</v>
       </c>
-      <c r="G7" s="18">
+      <c r="G7" s="16">
         <v>5</v>
       </c>
-      <c r="H7" s="5" t="s">
+      <c r="H7" s="19" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A8" s="5" t="s">
+    <row r="8" spans="1:8" ht="41.4" x14ac:dyDescent="0.3">
+      <c r="A8" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="15">
+      <c r="B8" s="27">
         <v>5</v>
       </c>
-      <c r="C8" s="15">
+      <c r="C8" s="27">
         <v>8</v>
       </c>
-      <c r="D8" s="15">
+      <c r="D8" s="27">
         <v>12</v>
       </c>
-      <c r="E8" s="16">
+      <c r="E8" s="28">
         <f t="shared" si="0"/>
         <v>8.1666666666666661</v>
       </c>
-      <c r="F8" s="17">
+      <c r="F8" s="29">
         <f t="shared" si="1"/>
         <v>1.1666666666666667</v>
       </c>
-      <c r="G8" s="18">
+      <c r="G8" s="16">
         <v>6</v>
       </c>
-      <c r="H8" s="5" t="s">
+      <c r="H8" s="19" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A9" s="5" t="s">
+    <row r="9" spans="1:8" ht="41.4" x14ac:dyDescent="0.3">
+      <c r="A9" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="15">
-        <v>2</v>
-      </c>
-      <c r="C9" s="15">
-        <v>4</v>
-      </c>
-      <c r="D9" s="15">
+      <c r="B9" s="27">
+        <v>2</v>
+      </c>
+      <c r="C9" s="27">
+        <v>4</v>
+      </c>
+      <c r="D9" s="27">
         <v>6</v>
       </c>
-      <c r="E9" s="16">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="F9" s="17">
+      <c r="E9" s="28">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="F9" s="29">
         <f t="shared" si="1"/>
         <v>0.66666666666666663</v>
       </c>
-      <c r="G9" s="18">
+      <c r="G9" s="16">
         <v>7</v>
       </c>
-      <c r="H9" s="5" t="s">
+      <c r="H9" s="19" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A10" s="5" t="s">
+    <row r="10" spans="1:8" ht="69" x14ac:dyDescent="0.3">
+      <c r="A10" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="15">
+      <c r="B10" s="27">
         <v>3</v>
       </c>
-      <c r="C10" s="15">
+      <c r="C10" s="27">
         <v>5</v>
       </c>
-      <c r="D10" s="15">
+      <c r="D10" s="27">
         <v>8</v>
       </c>
-      <c r="E10" s="16">
+      <c r="E10" s="28">
         <f t="shared" si="0"/>
         <v>5.166666666666667</v>
       </c>
-      <c r="F10" s="17">
+      <c r="F10" s="29">
         <f t="shared" si="1"/>
         <v>0.83333333333333337</v>
       </c>
-      <c r="G10" s="18">
+      <c r="G10" s="16">
         <v>8</v>
       </c>
-      <c r="H10" s="5" t="s">
+      <c r="H10" s="19" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A11" s="5" t="s">
+    <row r="11" spans="1:8" ht="69" x14ac:dyDescent="0.3">
+      <c r="A11" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="15">
-        <v>2</v>
-      </c>
-      <c r="C11" s="15">
-        <v>4</v>
-      </c>
-      <c r="D11" s="15">
+      <c r="B11" s="27">
+        <v>2</v>
+      </c>
+      <c r="C11" s="27">
+        <v>4</v>
+      </c>
+      <c r="D11" s="27">
         <v>7</v>
       </c>
-      <c r="E11" s="16">
+      <c r="E11" s="28">
         <f t="shared" si="0"/>
         <v>4.166666666666667</v>
       </c>
-      <c r="F11" s="17">
+      <c r="F11" s="29">
         <f t="shared" si="1"/>
         <v>0.83333333333333337</v>
       </c>
-      <c r="G11" s="18">
+      <c r="G11" s="16">
         <v>9</v>
       </c>
-      <c r="H11" s="5" t="s">
+      <c r="H11" s="19" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A12" s="5" t="s">
+    <row r="12" spans="1:8" ht="55.2" x14ac:dyDescent="0.3">
+      <c r="A12" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="B12" s="15">
-        <v>4</v>
-      </c>
-      <c r="C12" s="15">
+      <c r="B12" s="27">
+        <v>4</v>
+      </c>
+      <c r="C12" s="27">
         <v>6</v>
       </c>
-      <c r="D12" s="15">
+      <c r="D12" s="27">
         <v>10</v>
       </c>
-      <c r="E12" s="16">
+      <c r="E12" s="28">
         <f t="shared" si="0"/>
         <v>6.333333333333333</v>
       </c>
-      <c r="F12" s="17">
+      <c r="F12" s="29">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="G12" s="18">
+      <c r="G12" s="16">
         <v>10</v>
       </c>
-      <c r="H12" s="5" t="s">
+      <c r="H12" s="19" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A13" s="5" t="s">
+    <row r="13" spans="1:8" ht="69" x14ac:dyDescent="0.3">
+      <c r="A13" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="B13" s="15">
+      <c r="B13" s="27">
         <v>3</v>
       </c>
-      <c r="C13" s="15">
+      <c r="C13" s="27">
         <v>5</v>
       </c>
-      <c r="D13" s="15">
+      <c r="D13" s="27">
         <v>8</v>
       </c>
-      <c r="E13" s="16">
+      <c r="E13" s="28">
         <f t="shared" si="0"/>
         <v>5.166666666666667</v>
       </c>
-      <c r="F13" s="17">
+      <c r="F13" s="29">
         <f t="shared" si="1"/>
         <v>0.83333333333333337</v>
       </c>
-      <c r="G13" s="18">
+      <c r="G13" s="16">
         <v>10</v>
       </c>
-      <c r="H13" s="5" t="s">
+      <c r="H13" s="19" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A14" s="5" t="s">
+    <row r="14" spans="1:8" ht="41.4" x14ac:dyDescent="0.3">
+      <c r="A14" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="B14" s="15">
-        <v>2</v>
-      </c>
-      <c r="C14" s="15">
-        <v>4</v>
-      </c>
-      <c r="D14" s="15">
+      <c r="B14" s="27">
+        <v>2</v>
+      </c>
+      <c r="C14" s="27">
+        <v>4</v>
+      </c>
+      <c r="D14" s="27">
         <v>6</v>
       </c>
-      <c r="E14" s="16">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="F14" s="17">
+      <c r="E14" s="28">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="F14" s="29">
         <f t="shared" si="1"/>
         <v>0.66666666666666663</v>
       </c>
-      <c r="G14" s="18" t="s">
+      <c r="G14" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="H14" s="5" t="s">
+      <c r="H14" s="19" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A15" s="5" t="s">
+    <row r="15" spans="1:8" ht="41.4" x14ac:dyDescent="0.3">
+      <c r="A15" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="B15" s="15">
+      <c r="B15" s="27">
         <v>1</v>
       </c>
-      <c r="C15" s="15">
-        <v>2</v>
-      </c>
-      <c r="D15" s="15">
+      <c r="C15" s="27">
+        <v>2</v>
+      </c>
+      <c r="D15" s="27">
         <v>5</v>
       </c>
-      <c r="E15" s="16">
+      <c r="E15" s="28">
         <f t="shared" si="0"/>
         <v>2.3333333333333335</v>
       </c>
-      <c r="F15" s="17">
+      <c r="F15" s="29">
         <f t="shared" si="1"/>
         <v>0.66666666666666663</v>
       </c>
-      <c r="G15" s="18">
+      <c r="G15" s="16">
         <v>13</v>
       </c>
-      <c r="H15" s="5" t="s">
+      <c r="H15" s="19" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A16" s="5" t="s">
+    <row r="16" spans="1:8" ht="55.2" x14ac:dyDescent="0.3">
+      <c r="A16" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="B16" s="15">
-        <v>2</v>
-      </c>
-      <c r="C16" s="15">
-        <v>4</v>
-      </c>
-      <c r="D16" s="15">
+      <c r="B16" s="27">
+        <v>2</v>
+      </c>
+      <c r="C16" s="27">
+        <v>4</v>
+      </c>
+      <c r="D16" s="27">
         <v>6</v>
       </c>
-      <c r="E16" s="16">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="F16" s="17">
+      <c r="E16" s="28">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="F16" s="29">
         <f t="shared" si="1"/>
         <v>0.66666666666666663</v>
       </c>
-      <c r="G16" s="18">
+      <c r="G16" s="16">
         <v>11</v>
       </c>
-      <c r="H16" s="5" t="s">
+      <c r="H16" s="19" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A17" s="5" t="s">
+    <row r="17" spans="1:8" ht="55.2" x14ac:dyDescent="0.3">
+      <c r="A17" s="19" t="s">
         <v>116</v>
       </c>
-      <c r="B17" s="15">
+      <c r="B17" s="27">
         <v>3</v>
       </c>
-      <c r="C17" s="15">
+      <c r="C17" s="27">
         <v>5</v>
       </c>
-      <c r="D17" s="15">
+      <c r="D17" s="27">
         <v>8</v>
       </c>
-      <c r="E17" s="16">
+      <c r="E17" s="28">
         <f t="shared" si="0"/>
         <v>5.166666666666667</v>
       </c>
-      <c r="F17" s="17">
+      <c r="F17" s="29">
         <f t="shared" si="1"/>
         <v>0.83333333333333337</v>
       </c>
-      <c r="G17" s="18">
+      <c r="G17" s="16">
         <v>15</v>
       </c>
-      <c r="H17" s="5" t="s">
+      <c r="H17" s="19" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A18" s="5" t="s">
+    <row r="18" spans="1:8" ht="41.4" x14ac:dyDescent="0.3">
+      <c r="A18" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="B18" s="15">
-        <v>4</v>
-      </c>
-      <c r="C18" s="15">
+      <c r="B18" s="27">
+        <v>4</v>
+      </c>
+      <c r="C18" s="27">
         <v>6</v>
       </c>
-      <c r="D18" s="15">
+      <c r="D18" s="27">
         <v>9</v>
       </c>
-      <c r="E18" s="16">
+      <c r="E18" s="28">
         <f t="shared" si="0"/>
         <v>6.166666666666667</v>
       </c>
-      <c r="F18" s="17">
+      <c r="F18" s="29">
         <f t="shared" si="1"/>
         <v>0.83333333333333337</v>
       </c>
-      <c r="G18" s="18">
+      <c r="G18" s="16">
         <v>16</v>
       </c>
-      <c r="H18" s="5" t="s">
+      <c r="H18" s="19" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A19" s="5" t="s">
+    <row r="19" spans="1:8" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A19" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="B19" s="15">
+      <c r="B19" s="27">
         <v>3</v>
       </c>
-      <c r="C19" s="15">
+      <c r="C19" s="27">
         <v>5</v>
       </c>
-      <c r="D19" s="15">
+      <c r="D19" s="27">
         <v>7</v>
       </c>
-      <c r="E19" s="16">
+      <c r="E19" s="28">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="F19" s="17">
+      <c r="F19" s="29">
         <f t="shared" si="1"/>
         <v>0.66666666666666663</v>
       </c>
-      <c r="G19" s="18">
+      <c r="G19" s="16">
         <v>17</v>
       </c>
-      <c r="H19" s="5" t="s">
+      <c r="H19" s="19" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A20" s="5" t="s">
+    <row r="20" spans="1:8" ht="41.4" x14ac:dyDescent="0.3">
+      <c r="A20" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="B20" s="15">
+      <c r="B20" s="27">
         <v>3</v>
       </c>
-      <c r="C20" s="15">
+      <c r="C20" s="27">
         <v>5</v>
       </c>
-      <c r="D20" s="15">
+      <c r="D20" s="27">
         <v>7</v>
       </c>
-      <c r="E20" s="16">
+      <c r="E20" s="28">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="F20" s="17">
+      <c r="F20" s="29">
         <f t="shared" si="1"/>
         <v>0.66666666666666663</v>
       </c>
-      <c r="G20" s="18">
+      <c r="G20" s="16">
         <v>13</v>
       </c>
-      <c r="H20" s="5" t="s">
+      <c r="H20" s="19" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A21" s="5" t="s">
+    <row r="21" spans="1:8" ht="55.2" x14ac:dyDescent="0.3">
+      <c r="A21" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="B21" s="15">
-        <v>4</v>
-      </c>
-      <c r="C21" s="15">
+      <c r="B21" s="27">
+        <v>4</v>
+      </c>
+      <c r="C21" s="27">
         <v>6</v>
       </c>
-      <c r="D21" s="15">
+      <c r="D21" s="27">
         <v>8</v>
       </c>
-      <c r="E21" s="16">
+      <c r="E21" s="28">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="F21" s="17">
+      <c r="F21" s="29">
         <f t="shared" si="1"/>
         <v>0.66666666666666663</v>
       </c>
-      <c r="G21" s="18">
+      <c r="G21" s="16">
         <v>19</v>
       </c>
-      <c r="H21" s="5" t="s">
+      <c r="H21" s="19" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A22" s="5" t="s">
+    <row r="22" spans="1:8" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A22" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="B22" s="15">
-        <v>2</v>
-      </c>
-      <c r="C22" s="15">
+      <c r="B22" s="27">
+        <v>2</v>
+      </c>
+      <c r="C22" s="27">
         <v>3</v>
       </c>
-      <c r="D22" s="15">
+      <c r="D22" s="27">
         <v>5</v>
       </c>
-      <c r="E22" s="16">
+      <c r="E22" s="28">
         <f t="shared" si="0"/>
         <v>3.1666666666666665</v>
       </c>
-      <c r="F22" s="17">
+      <c r="F22" s="29">
         <f t="shared" si="1"/>
         <v>0.5</v>
       </c>
-      <c r="G22" s="18">
+      <c r="G22" s="16">
         <v>20</v>
       </c>
-      <c r="H22" s="5" t="s">
+      <c r="H22" s="19" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A23" s="5" t="s">
+    <row r="23" spans="1:8" ht="55.2" x14ac:dyDescent="0.3">
+      <c r="A23" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="B23" s="15">
+      <c r="B23" s="27">
         <v>3</v>
       </c>
-      <c r="C23" s="15">
+      <c r="C23" s="27">
         <v>6</v>
       </c>
-      <c r="D23" s="15">
+      <c r="D23" s="27">
         <v>9</v>
       </c>
-      <c r="E23" s="16">
+      <c r="E23" s="28">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="F23" s="17">
+      <c r="F23" s="29">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="G23" s="18" t="s">
+      <c r="G23" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="H23" s="5" t="s">
+      <c r="H23" s="19" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="24" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A24" s="5" t="s">
+    <row r="24" spans="1:8" ht="55.2" x14ac:dyDescent="0.3">
+      <c r="A24" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="B24" s="15">
+      <c r="B24" s="27">
         <v>6</v>
       </c>
-      <c r="C24" s="15">
+      <c r="C24" s="27">
         <v>10</v>
       </c>
-      <c r="D24" s="15">
+      <c r="D24" s="27">
         <v>15</v>
       </c>
-      <c r="E24" s="16">
+      <c r="E24" s="28">
         <f t="shared" si="0"/>
         <v>10.166666666666666</v>
       </c>
-      <c r="F24" s="17">
+      <c r="F24" s="29">
         <f t="shared" si="1"/>
         <v>1.5</v>
       </c>
-      <c r="G24" s="18">
+      <c r="G24" s="16">
         <v>22</v>
       </c>
-      <c r="H24" s="5" t="s">
+      <c r="H24" s="19" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="25" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A25" s="5" t="s">
+    <row r="25" spans="1:8" ht="41.4" x14ac:dyDescent="0.3">
+      <c r="A25" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="B25" s="15">
+      <c r="B25" s="27">
         <v>3</v>
       </c>
-      <c r="C25" s="15">
+      <c r="C25" s="27">
         <v>5</v>
       </c>
-      <c r="D25" s="15">
+      <c r="D25" s="27">
         <v>8</v>
       </c>
-      <c r="E25" s="16">
+      <c r="E25" s="28">
         <f t="shared" si="0"/>
         <v>5.166666666666667</v>
       </c>
-      <c r="F25" s="17">
+      <c r="F25" s="29">
         <f t="shared" si="1"/>
         <v>0.83333333333333337</v>
       </c>
-      <c r="G25" s="18">
+      <c r="G25" s="16">
         <v>23</v>
       </c>
-      <c r="H25" s="5" t="s">
+      <c r="H25" s="19" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A26" s="5" t="s">
+    <row r="26" spans="1:8" ht="55.2" x14ac:dyDescent="0.3">
+      <c r="A26" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="B26" s="15">
-        <v>2</v>
-      </c>
-      <c r="C26" s="15">
-        <v>4</v>
-      </c>
-      <c r="D26" s="15">
+      <c r="B26" s="27">
+        <v>2</v>
+      </c>
+      <c r="C26" s="27">
+        <v>4</v>
+      </c>
+      <c r="D26" s="27">
         <v>6</v>
       </c>
-      <c r="E26" s="16">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="F26" s="17">
+      <c r="E26" s="28">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="F26" s="29">
         <f t="shared" si="1"/>
         <v>0.66666666666666663</v>
       </c>
-      <c r="G26" s="18">
+      <c r="G26" s="16">
         <v>23</v>
       </c>
-      <c r="H26" s="5" t="s">
+      <c r="H26" s="19" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="27" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A27" s="5" t="s">
+    <row r="27" spans="1:8" ht="55.2" x14ac:dyDescent="0.3">
+      <c r="A27" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="B27" s="15">
-        <v>4</v>
-      </c>
-      <c r="C27" s="15">
+      <c r="B27" s="27">
+        <v>4</v>
+      </c>
+      <c r="C27" s="27">
         <v>6</v>
       </c>
-      <c r="D27" s="15">
+      <c r="D27" s="27">
         <v>9</v>
       </c>
-      <c r="E27" s="16">
+      <c r="E27" s="28">
         <f t="shared" si="0"/>
         <v>6.166666666666667</v>
       </c>
-      <c r="F27" s="17">
+      <c r="F27" s="29">
         <f t="shared" si="1"/>
         <v>0.83333333333333337</v>
       </c>
-      <c r="G27" s="18" t="s">
+      <c r="G27" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="H27" s="5" t="s">
+      <c r="H27" s="19" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="28" spans="1:8" ht="72" x14ac:dyDescent="0.3">
-      <c r="A28" s="5" t="s">
+    <row r="28" spans="1:8" ht="82.8" x14ac:dyDescent="0.3">
+      <c r="A28" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="B28" s="15">
-        <v>2</v>
-      </c>
-      <c r="C28" s="15">
-        <v>4</v>
-      </c>
-      <c r="D28" s="15">
+      <c r="B28" s="27">
+        <v>2</v>
+      </c>
+      <c r="C28" s="27">
+        <v>4</v>
+      </c>
+      <c r="D28" s="27">
         <v>6</v>
       </c>
-      <c r="E28" s="16">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="F28" s="17">
+      <c r="E28" s="28">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="F28" s="29">
         <f t="shared" si="1"/>
         <v>0.66666666666666663</v>
       </c>
-      <c r="G28" s="18">
+      <c r="G28" s="16">
         <v>8</v>
       </c>
-      <c r="H28" s="5" t="s">
+      <c r="H28" s="19" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="29" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A29" s="5" t="s">
+    <row r="29" spans="1:8" ht="69" x14ac:dyDescent="0.3">
+      <c r="A29" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="B29" s="15">
+      <c r="B29" s="27">
         <v>1</v>
       </c>
-      <c r="C29" s="15">
+      <c r="C29" s="27">
         <v>3</v>
       </c>
-      <c r="D29" s="15">
+      <c r="D29" s="27">
         <v>5</v>
       </c>
-      <c r="E29" s="16">
+      <c r="E29" s="28">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="F29" s="17">
+      <c r="F29" s="29">
         <f t="shared" si="1"/>
         <v>0.66666666666666663</v>
       </c>
-      <c r="G29" s="18">
+      <c r="G29" s="16">
         <v>27</v>
       </c>
-      <c r="H29" s="5" t="s">
+      <c r="H29" s="19" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="30" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A30" s="5" t="s">
+    <row r="30" spans="1:8" ht="69" x14ac:dyDescent="0.3">
+      <c r="A30" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="B30" s="15">
-        <v>2</v>
-      </c>
-      <c r="C30" s="15">
-        <v>4</v>
-      </c>
-      <c r="D30" s="15">
+      <c r="B30" s="27">
+        <v>2</v>
+      </c>
+      <c r="C30" s="27">
+        <v>4</v>
+      </c>
+      <c r="D30" s="27">
         <v>7</v>
       </c>
-      <c r="E30" s="16">
+      <c r="E30" s="28">
         <f t="shared" si="0"/>
         <v>4.166666666666667</v>
       </c>
-      <c r="F30" s="17">
+      <c r="F30" s="29">
         <f t="shared" si="1"/>
         <v>0.83333333333333337</v>
       </c>
-      <c r="G30" s="18">
+      <c r="G30" s="16">
         <v>28</v>
       </c>
-      <c r="H30" s="5" t="s">
+      <c r="H30" s="19" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="31" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A31" s="5" t="s">
+    <row r="31" spans="1:8" ht="69" x14ac:dyDescent="0.3">
+      <c r="A31" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="B31" s="15">
+      <c r="B31" s="27">
         <v>1</v>
       </c>
-      <c r="C31" s="15">
-        <v>2</v>
-      </c>
-      <c r="D31" s="15">
-        <v>4</v>
-      </c>
-      <c r="E31" s="16">
+      <c r="C31" s="27">
+        <v>2</v>
+      </c>
+      <c r="D31" s="27">
+        <v>4</v>
+      </c>
+      <c r="E31" s="28">
         <f t="shared" si="0"/>
         <v>2.1666666666666665</v>
       </c>
-      <c r="F31" s="17">
+      <c r="F31" s="29">
         <f t="shared" si="1"/>
         <v>0.5</v>
       </c>
-      <c r="G31" s="18">
+      <c r="G31" s="16">
         <v>8</v>
       </c>
-      <c r="H31" s="5" t="s">
+      <c r="H31" s="19" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="32" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A32" s="5" t="s">
+    <row r="32" spans="1:8" ht="55.2" x14ac:dyDescent="0.3">
+      <c r="A32" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="B32" s="15">
-        <v>2</v>
-      </c>
-      <c r="C32" s="15">
-        <v>4</v>
-      </c>
-      <c r="D32" s="15">
+      <c r="B32" s="27">
+        <v>2</v>
+      </c>
+      <c r="C32" s="27">
+        <v>4</v>
+      </c>
+      <c r="D32" s="27">
         <v>6</v>
       </c>
-      <c r="E32" s="16">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="F32" s="17">
+      <c r="E32" s="28">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="F32" s="29">
         <f t="shared" si="1"/>
         <v>0.66666666666666663</v>
       </c>
-      <c r="G32" s="18">
+      <c r="G32" s="16">
         <v>30</v>
       </c>
-      <c r="H32" s="5" t="s">
+      <c r="H32" s="19" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="33" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A33" s="5" t="s">
+    <row r="33" spans="1:8" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A33" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="B33" s="15">
+      <c r="B33" s="27">
         <v>1</v>
       </c>
-      <c r="C33" s="15">
-        <v>2</v>
-      </c>
-      <c r="D33" s="15">
-        <v>4</v>
-      </c>
-      <c r="E33" s="16">
+      <c r="C33" s="27">
+        <v>2</v>
+      </c>
+      <c r="D33" s="27">
+        <v>4</v>
+      </c>
+      <c r="E33" s="28">
         <f t="shared" si="0"/>
         <v>2.1666666666666665</v>
       </c>
-      <c r="F33" s="17">
+      <c r="F33" s="29">
         <f t="shared" si="1"/>
         <v>0.5</v>
       </c>
-      <c r="G33" s="18">
+      <c r="G33" s="16">
         <v>31</v>
       </c>
-      <c r="H33" s="5" t="s">
+      <c r="H33" s="19" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="34" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A34" s="5" t="s">
+    <row r="34" spans="1:8" ht="41.4" x14ac:dyDescent="0.3">
+      <c r="A34" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="B34" s="15">
+      <c r="B34" s="27">
         <v>1</v>
       </c>
-      <c r="C34" s="15">
+      <c r="C34" s="27">
         <v>3</v>
       </c>
-      <c r="D34" s="15">
+      <c r="D34" s="27">
         <v>5</v>
       </c>
-      <c r="E34" s="16">
+      <c r="E34" s="28">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="F34" s="17">
+      <c r="F34" s="29">
         <f t="shared" si="1"/>
         <v>0.66666666666666663</v>
       </c>
-      <c r="G34" s="18">
+      <c r="G34" s="16">
         <v>29</v>
       </c>
-      <c r="H34" s="5" t="s">
+      <c r="H34" s="19" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="35" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A35" s="5" t="s">
+    <row r="35" spans="1:8" ht="41.4" x14ac:dyDescent="0.3">
+      <c r="A35" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="B35" s="15">
+      <c r="B35" s="27">
         <v>3</v>
       </c>
-      <c r="C35" s="15">
+      <c r="C35" s="27">
         <v>5</v>
       </c>
-      <c r="D35" s="15">
+      <c r="D35" s="27">
         <v>8</v>
       </c>
-      <c r="E35" s="16">
+      <c r="E35" s="28">
         <f t="shared" si="0"/>
         <v>5.166666666666667</v>
       </c>
-      <c r="F35" s="17">
+      <c r="F35" s="29">
         <f t="shared" si="1"/>
         <v>0.83333333333333337</v>
       </c>
-      <c r="G35" s="18">
+      <c r="G35" s="16">
         <v>33</v>
       </c>
-      <c r="H35" s="5" t="s">
+      <c r="H35" s="19" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="36" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A36" s="5" t="s">
+    <row r="36" spans="1:8" ht="55.2" x14ac:dyDescent="0.3">
+      <c r="A36" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="B36" s="15">
-        <v>2</v>
-      </c>
-      <c r="C36" s="15">
-        <v>4</v>
-      </c>
-      <c r="D36" s="15">
+      <c r="B36" s="27">
+        <v>2</v>
+      </c>
+      <c r="C36" s="27">
+        <v>4</v>
+      </c>
+      <c r="D36" s="27">
         <v>6</v>
       </c>
-      <c r="E36" s="16">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="F36" s="17">
+      <c r="E36" s="28">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="F36" s="29">
         <f t="shared" si="1"/>
         <v>0.66666666666666663</v>
       </c>
-      <c r="G36" s="18" t="s">
+      <c r="G36" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="H36" s="5" t="s">
+      <c r="H36" s="19" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="37" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A37" s="5" t="s">
+    <row r="37" spans="1:8" ht="69" x14ac:dyDescent="0.3">
+      <c r="A37" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="B37" s="15">
-        <v>2</v>
-      </c>
-      <c r="C37" s="15">
-        <v>4</v>
-      </c>
-      <c r="D37" s="15">
+      <c r="B37" s="27">
+        <v>2</v>
+      </c>
+      <c r="C37" s="27">
+        <v>4</v>
+      </c>
+      <c r="D37" s="27">
         <v>6</v>
       </c>
-      <c r="E37" s="16">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="F37" s="17">
+      <c r="E37" s="28">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="F37" s="29">
         <f t="shared" si="1"/>
         <v>0.66666666666666663</v>
       </c>
-      <c r="G37" s="18">
+      <c r="G37" s="16">
         <v>35</v>
       </c>
-      <c r="H37" s="5" t="s">
+      <c r="H37" s="19" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="38" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A38" s="5" t="s">
+    <row r="38" spans="1:8" ht="41.4" x14ac:dyDescent="0.3">
+      <c r="A38" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="B38" s="15">
-        <v>2</v>
-      </c>
-      <c r="C38" s="15">
+      <c r="B38" s="27">
+        <v>2</v>
+      </c>
+      <c r="C38" s="27">
         <v>3</v>
       </c>
-      <c r="D38" s="15">
+      <c r="D38" s="27">
         <v>5</v>
       </c>
-      <c r="E38" s="16">
+      <c r="E38" s="28">
         <f t="shared" si="0"/>
         <v>3.1666666666666665</v>
       </c>
-      <c r="F38" s="17">
+      <c r="F38" s="29">
         <f t="shared" si="1"/>
         <v>0.5</v>
       </c>
-      <c r="G38" s="18">
+      <c r="G38" s="16">
         <v>36</v>
       </c>
-      <c r="H38" s="5" t="s">
+      <c r="H38" s="19" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="39" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A39" s="5" t="s">
+    <row r="39" spans="1:8" ht="41.4" x14ac:dyDescent="0.3">
+      <c r="A39" s="19" t="s">
         <v>117</v>
       </c>
-      <c r="B39" s="15">
+      <c r="B39" s="27">
         <v>3</v>
       </c>
-      <c r="C39" s="15">
+      <c r="C39" s="27">
         <v>5</v>
       </c>
-      <c r="D39" s="15">
+      <c r="D39" s="27">
         <v>7</v>
       </c>
-      <c r="E39" s="16">
+      <c r="E39" s="28">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="F39" s="17">
+      <c r="F39" s="29">
         <f t="shared" si="1"/>
         <v>0.66666666666666663</v>
       </c>
-      <c r="G39" s="18" t="s">
+      <c r="G39" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="H39" s="5" t="s">
+      <c r="H39" s="19" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="40" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A40" s="5" t="s">
+    <row r="40" spans="1:8" ht="41.4" x14ac:dyDescent="0.3">
+      <c r="A40" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="B40" s="15">
+      <c r="B40" s="27">
         <v>1</v>
       </c>
-      <c r="C40" s="15">
-        <v>2</v>
-      </c>
-      <c r="D40" s="15">
-        <v>4</v>
-      </c>
-      <c r="E40" s="16">
+      <c r="C40" s="27">
+        <v>2</v>
+      </c>
+      <c r="D40" s="27">
+        <v>4</v>
+      </c>
+      <c r="E40" s="28">
         <f t="shared" si="0"/>
         <v>2.1666666666666665</v>
       </c>
-      <c r="F40" s="17">
+      <c r="F40" s="29">
         <f t="shared" si="1"/>
         <v>0.5</v>
       </c>
-      <c r="G40" s="18">
+      <c r="G40" s="16">
         <v>38</v>
       </c>
-      <c r="H40" s="5" t="s">
+      <c r="H40" s="19" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="41" spans="1:8" ht="72" x14ac:dyDescent="0.3">
-      <c r="A41" s="5" t="s">
+    <row r="41" spans="1:8" ht="69" x14ac:dyDescent="0.3">
+      <c r="A41" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="B41" s="15">
-        <v>2</v>
-      </c>
-      <c r="C41" s="15">
+      <c r="B41" s="27">
+        <v>2</v>
+      </c>
+      <c r="C41" s="27">
         <v>3</v>
       </c>
-      <c r="D41" s="15">
+      <c r="D41" s="27">
         <v>5</v>
       </c>
-      <c r="E41" s="16">
+      <c r="E41" s="28">
         <f t="shared" si="0"/>
         <v>3.1666666666666665</v>
       </c>
-      <c r="F41" s="17">
+      <c r="F41" s="29">
         <f t="shared" si="1"/>
         <v>0.5</v>
       </c>
-      <c r="G41" s="18" t="s">
+      <c r="G41" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="H41" s="5" t="s">
+      <c r="H41" s="19" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="42" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A42" s="5" t="s">
+    <row r="42" spans="1:8" ht="41.4" x14ac:dyDescent="0.3">
+      <c r="A42" s="19" t="s">
         <v>118</v>
       </c>
-      <c r="B42" s="15">
+      <c r="B42" s="27">
         <v>1</v>
       </c>
-      <c r="C42" s="15">
-        <v>2</v>
-      </c>
-      <c r="D42" s="15">
-        <v>4</v>
-      </c>
-      <c r="E42" s="16">
+      <c r="C42" s="27">
+        <v>2</v>
+      </c>
+      <c r="D42" s="27">
+        <v>4</v>
+      </c>
+      <c r="E42" s="28">
         <f t="shared" si="0"/>
         <v>2.1666666666666665</v>
       </c>
-      <c r="F42" s="17">
+      <c r="F42" s="29">
         <f t="shared" si="1"/>
         <v>0.5</v>
       </c>
-      <c r="G42" s="18">
+      <c r="G42" s="16">
         <v>40</v>
       </c>
-      <c r="H42" s="5" t="s">
+      <c r="H42" s="19" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="43" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A43" s="5" t="s">
+    <row r="43" spans="1:8" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A43" s="19" t="s">
         <v>48</v>
       </c>
-      <c r="B43" s="15">
-        <v>2</v>
-      </c>
-      <c r="C43" s="15">
-        <v>4</v>
-      </c>
-      <c r="D43" s="15">
+      <c r="B43" s="27">
+        <v>2</v>
+      </c>
+      <c r="C43" s="27">
+        <v>4</v>
+      </c>
+      <c r="D43" s="27">
         <v>6</v>
       </c>
-      <c r="E43" s="16">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="F43" s="17">
+      <c r="E43" s="28">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="F43" s="29">
         <f t="shared" si="1"/>
         <v>0.66666666666666663</v>
       </c>
-      <c r="G43" s="18">
+      <c r="G43" s="16">
         <v>41</v>
       </c>
-      <c r="H43" s="5" t="s">
+      <c r="H43" s="19" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="44" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A44" s="5" t="s">
+    <row r="44" spans="1:8" ht="41.4" x14ac:dyDescent="0.3">
+      <c r="A44" s="19" t="s">
         <v>49</v>
       </c>
-      <c r="B44" s="15">
-        <v>2</v>
-      </c>
-      <c r="C44" s="15">
+      <c r="B44" s="27">
+        <v>2</v>
+      </c>
+      <c r="C44" s="27">
         <v>3</v>
       </c>
-      <c r="D44" s="15">
+      <c r="D44" s="27">
         <v>5</v>
       </c>
-      <c r="E44" s="16">
+      <c r="E44" s="28">
         <f t="shared" si="0"/>
         <v>3.1666666666666665</v>
       </c>
-      <c r="F44" s="17">
+      <c r="F44" s="29">
         <f t="shared" si="1"/>
         <v>0.5</v>
       </c>
-      <c r="G44" s="18">
+      <c r="G44" s="16">
         <v>42</v>
       </c>
-      <c r="H44" s="5" t="s">
+      <c r="H44" s="19" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="45" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A45" s="5" t="s">
+    <row r="45" spans="1:8" ht="41.4" x14ac:dyDescent="0.3">
+      <c r="A45" s="19" t="s">
         <v>122</v>
       </c>
-      <c r="B45" s="15">
+      <c r="B45" s="27">
         <v>3</v>
       </c>
-      <c r="C45" s="15">
+      <c r="C45" s="27">
         <v>5</v>
       </c>
-      <c r="D45" s="15">
+      <c r="D45" s="27">
         <v>7</v>
       </c>
-      <c r="E45" s="16">
+      <c r="E45" s="28">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="F45" s="17">
+      <c r="F45" s="29">
         <f t="shared" si="1"/>
         <v>0.66666666666666663</v>
       </c>
-      <c r="G45" s="18">
+      <c r="G45" s="16">
         <v>43</v>
       </c>
-      <c r="H45" s="5" t="s">
+      <c r="H45" s="19" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="46" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A46" s="5" t="s">
+    <row r="46" spans="1:8" ht="41.4" x14ac:dyDescent="0.3">
+      <c r="A46" s="19" t="s">
         <v>50</v>
       </c>
-      <c r="B46" s="15">
+      <c r="B46" s="27">
         <v>3</v>
       </c>
-      <c r="C46" s="15">
+      <c r="C46" s="27">
         <v>5</v>
       </c>
-      <c r="D46" s="15">
+      <c r="D46" s="27">
         <v>8</v>
       </c>
-      <c r="E46" s="16">
+      <c r="E46" s="28">
         <f t="shared" si="0"/>
         <v>5.166666666666667</v>
       </c>
-      <c r="F46" s="17">
+      <c r="F46" s="29">
         <f t="shared" si="1"/>
         <v>0.83333333333333337</v>
       </c>
-      <c r="G46" s="18">
+      <c r="G46" s="16">
         <v>43</v>
       </c>
-      <c r="H46" s="5" t="s">
+      <c r="H46" s="19" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="47" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A47" s="5" t="s">
+    <row r="47" spans="1:8" ht="55.2" x14ac:dyDescent="0.3">
+      <c r="A47" s="19" t="s">
         <v>51</v>
       </c>
-      <c r="B47" s="15">
+      <c r="B47" s="27">
         <v>1</v>
       </c>
-      <c r="C47" s="15">
-        <v>2</v>
-      </c>
-      <c r="D47" s="15">
-        <v>4</v>
-      </c>
-      <c r="E47" s="16">
+      <c r="C47" s="27">
+        <v>2</v>
+      </c>
+      <c r="D47" s="27">
+        <v>4</v>
+      </c>
+      <c r="E47" s="28">
         <f t="shared" si="0"/>
         <v>2.1666666666666665</v>
       </c>
-      <c r="F47" s="17">
+      <c r="F47" s="29">
         <f t="shared" si="1"/>
         <v>0.5</v>
       </c>
-      <c r="G47" s="18">
+      <c r="G47" s="16">
         <v>43</v>
       </c>
-      <c r="H47" s="5" t="s">
+      <c r="H47" s="19" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="48" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A48" s="5" t="s">
+    <row r="48" spans="1:8" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A48" s="19" t="s">
         <v>52</v>
       </c>
-      <c r="B48" s="15">
-        <v>4</v>
-      </c>
-      <c r="C48" s="15">
+      <c r="B48" s="27">
+        <v>4</v>
+      </c>
+      <c r="C48" s="27">
         <v>6</v>
       </c>
-      <c r="D48" s="15">
+      <c r="D48" s="27">
         <v>9</v>
       </c>
-      <c r="E48" s="16">
+      <c r="E48" s="28">
         <f t="shared" si="0"/>
         <v>6.166666666666667</v>
       </c>
-      <c r="F48" s="17">
+      <c r="F48" s="29">
         <f t="shared" si="1"/>
         <v>0.83333333333333337</v>
       </c>
-      <c r="G48" s="18" t="s">
+      <c r="G48" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="H48" s="5" t="s">
+      <c r="H48" s="19" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="49" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A49" s="5" t="s">
+    <row r="49" spans="1:8" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A49" s="19" t="s">
         <v>54</v>
       </c>
-      <c r="B49" s="15">
+      <c r="B49" s="27">
         <v>5</v>
       </c>
-      <c r="C49" s="15">
+      <c r="C49" s="27">
         <v>8</v>
       </c>
-      <c r="D49" s="15">
+      <c r="D49" s="27">
         <v>12</v>
       </c>
-      <c r="E49" s="16">
+      <c r="E49" s="28">
         <f t="shared" si="0"/>
         <v>8.1666666666666661</v>
       </c>
-      <c r="F49" s="17">
+      <c r="F49" s="29">
         <f t="shared" si="1"/>
         <v>1.1666666666666667</v>
       </c>
-      <c r="G49" s="18" t="s">
+      <c r="G49" s="16" t="s">
         <v>55</v>
       </c>
-      <c r="H49" s="18" t="s">
+      <c r="H49" s="16" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="50" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A50" s="5" t="s">
+    <row r="50" spans="1:8" ht="69" x14ac:dyDescent="0.3">
+      <c r="A50" s="19" t="s">
         <v>56</v>
       </c>
-      <c r="B50" s="15">
+      <c r="B50" s="27">
         <v>5</v>
       </c>
-      <c r="C50" s="15">
+      <c r="C50" s="27">
         <v>9</v>
       </c>
-      <c r="D50" s="15">
+      <c r="D50" s="27">
         <v>13</v>
       </c>
-      <c r="E50" s="16">
+      <c r="E50" s="28">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="F50" s="17">
+      <c r="F50" s="29">
         <f t="shared" si="1"/>
         <v>1.3333333333333333</v>
       </c>
-      <c r="G50" s="18" t="s">
+      <c r="G50" s="16" t="s">
         <v>55</v>
       </c>
-      <c r="H50" s="18" t="s">
+      <c r="H50" s="16" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="51" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A51" s="5" t="s">
+    <row r="51" spans="1:8" ht="41.4" x14ac:dyDescent="0.3">
+      <c r="A51" s="19" t="s">
         <v>57</v>
       </c>
-      <c r="B51" s="15">
+      <c r="B51" s="27">
         <v>3</v>
       </c>
-      <c r="C51" s="15">
+      <c r="C51" s="27">
         <v>5</v>
       </c>
-      <c r="D51" s="15">
+      <c r="D51" s="27">
         <v>8</v>
       </c>
-      <c r="E51" s="16">
+      <c r="E51" s="28">
         <f t="shared" si="0"/>
         <v>5.166666666666667</v>
       </c>
-      <c r="F51" s="17">
+      <c r="F51" s="29">
         <f t="shared" si="1"/>
         <v>0.83333333333333337</v>
       </c>
-      <c r="G51" s="18" t="s">
+      <c r="G51" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="H51" s="18" t="s">
+      <c r="H51" s="16" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="52" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A52" s="5" t="s">
+    <row r="52" spans="1:8" ht="55.2" x14ac:dyDescent="0.3">
+      <c r="A52" s="19" t="s">
         <v>59</v>
       </c>
-      <c r="B52" s="15">
+      <c r="B52" s="27">
         <v>1</v>
       </c>
-      <c r="C52" s="15">
-        <v>2</v>
-      </c>
-      <c r="D52" s="15">
-        <v>4</v>
-      </c>
-      <c r="E52" s="16">
+      <c r="C52" s="27">
+        <v>2</v>
+      </c>
+      <c r="D52" s="27">
+        <v>4</v>
+      </c>
+      <c r="E52" s="28">
         <f t="shared" si="0"/>
         <v>2.1666666666666665</v>
       </c>
-      <c r="F52" s="17">
+      <c r="F52" s="29">
         <f t="shared" si="1"/>
         <v>0.5</v>
       </c>
-      <c r="G52" s="18">
+      <c r="G52" s="16">
         <v>50</v>
       </c>
-      <c r="H52" s="18" t="s">
+      <c r="H52" s="16" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="53" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A53" s="5" t="s">
+    <row r="53" spans="1:8" ht="41.4" x14ac:dyDescent="0.3">
+      <c r="A53" s="19" t="s">
         <v>60</v>
       </c>
-      <c r="B53" s="15">
+      <c r="B53" s="27">
         <v>1</v>
       </c>
-      <c r="C53" s="15">
-        <v>2</v>
-      </c>
-      <c r="D53" s="15">
+      <c r="C53" s="27">
+        <v>2</v>
+      </c>
+      <c r="D53" s="27">
         <v>3</v>
       </c>
-      <c r="E53" s="16">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="F53" s="17">
+      <c r="E53" s="28">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="F53" s="29">
         <f t="shared" si="1"/>
         <v>0.33333333333333331</v>
       </c>
-      <c r="G53" s="18">
+      <c r="G53" s="16">
         <v>51</v>
       </c>
-      <c r="H53" s="18" t="s">
+      <c r="H53" s="16" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="54" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A54" s="5" t="s">
+    <row r="54" spans="1:8" ht="41.4" x14ac:dyDescent="0.3">
+      <c r="A54" s="19" t="s">
         <v>61</v>
       </c>
-      <c r="B54" s="15">
+      <c r="B54" s="27">
         <v>1</v>
       </c>
-      <c r="C54" s="15">
-        <v>2</v>
-      </c>
-      <c r="D54" s="15">
-        <v>4</v>
-      </c>
-      <c r="E54" s="16">
+      <c r="C54" s="27">
+        <v>2</v>
+      </c>
+      <c r="D54" s="27">
+        <v>4</v>
+      </c>
+      <c r="E54" s="28">
         <f t="shared" si="0"/>
         <v>2.1666666666666665</v>
       </c>
-      <c r="F54" s="17">
+      <c r="F54" s="29">
         <f t="shared" si="1"/>
         <v>0.5</v>
       </c>
-      <c r="G54" s="18">
+      <c r="G54" s="16">
         <v>52</v>
       </c>
-      <c r="H54" s="18" t="s">
+      <c r="H54" s="16" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="55" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A55" s="5" t="s">
+    <row r="55" spans="1:8" ht="69" x14ac:dyDescent="0.3">
+      <c r="A55" s="19" t="s">
         <v>62</v>
       </c>
-      <c r="B55" s="15">
-        <v>2</v>
-      </c>
-      <c r="C55" s="15">
+      <c r="B55" s="27">
+        <v>2</v>
+      </c>
+      <c r="C55" s="27">
         <v>3</v>
       </c>
-      <c r="D55" s="15">
+      <c r="D55" s="27">
         <v>5</v>
       </c>
-      <c r="E55" s="16">
+      <c r="E55" s="28">
         <f t="shared" si="0"/>
         <v>3.1666666666666665</v>
       </c>
-      <c r="F55" s="17">
+      <c r="F55" s="29">
         <f t="shared" si="1"/>
         <v>0.5</v>
       </c>
-      <c r="G55" s="18">
+      <c r="G55" s="16">
         <v>53</v>
       </c>
-      <c r="H55" s="18" t="s">
+      <c r="H55" s="16" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="56" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A56" s="5" t="s">
+    <row r="56" spans="1:8" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A56" s="19" t="s">
         <v>63</v>
       </c>
-      <c r="B56" s="15">
+      <c r="B56" s="27">
         <v>3</v>
       </c>
-      <c r="C56" s="15">
+      <c r="C56" s="27">
         <v>5</v>
       </c>
-      <c r="D56" s="15">
+      <c r="D56" s="27">
         <v>8</v>
       </c>
-      <c r="E56" s="16">
+      <c r="E56" s="28">
         <f t="shared" si="0"/>
         <v>5.166666666666667</v>
       </c>
-      <c r="F56" s="17">
+      <c r="F56" s="29">
         <f t="shared" si="1"/>
         <v>0.83333333333333337</v>
       </c>
-      <c r="G56" s="18">
+      <c r="G56" s="16">
         <v>54</v>
       </c>
-      <c r="H56" s="18" t="s">
+      <c r="H56" s="16" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="57" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A57" s="5" t="s">
+    <row r="57" spans="1:8" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A57" s="19" t="s">
         <v>64</v>
       </c>
-      <c r="B57" s="15">
+      <c r="B57" s="27">
         <v>1</v>
       </c>
-      <c r="C57" s="15">
+      <c r="C57" s="27">
         <v>3</v>
       </c>
-      <c r="D57" s="15">
+      <c r="D57" s="27">
         <v>5</v>
       </c>
-      <c r="E57" s="16">
+      <c r="E57" s="28">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="F57" s="17">
+      <c r="F57" s="29">
         <f t="shared" si="1"/>
         <v>0.66666666666666663</v>
       </c>
-      <c r="G57" s="18">
+      <c r="G57" s="16">
         <v>55</v>
       </c>
-      <c r="H57" s="18" t="s">
+      <c r="H57" s="16" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="58" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A58" s="5" t="s">
+    <row r="58" spans="1:8" ht="55.2" x14ac:dyDescent="0.3">
+      <c r="A58" s="19" t="s">
         <v>65</v>
       </c>
-      <c r="B58" s="15">
+      <c r="B58" s="27">
         <v>1</v>
       </c>
-      <c r="C58" s="15">
-        <v>2</v>
-      </c>
-      <c r="D58" s="15">
-        <v>4</v>
-      </c>
-      <c r="E58" s="16">
+      <c r="C58" s="27">
+        <v>2</v>
+      </c>
+      <c r="D58" s="27">
+        <v>4</v>
+      </c>
+      <c r="E58" s="28">
         <f t="shared" si="0"/>
         <v>2.1666666666666665</v>
       </c>
-      <c r="F58" s="17">
+      <c r="F58" s="29">
         <f t="shared" si="1"/>
         <v>0.5</v>
       </c>
-      <c r="G58" s="18">
+      <c r="G58" s="16">
         <v>56</v>
       </c>
-      <c r="H58" s="18" t="s">
+      <c r="H58" s="16" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="59" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A59" s="5" t="s">
+    <row r="59" spans="1:8" ht="55.2" x14ac:dyDescent="0.3">
+      <c r="A59" s="19" t="s">
         <v>66</v>
       </c>
-      <c r="B59" s="15">
-        <v>2</v>
-      </c>
-      <c r="C59" s="15">
+      <c r="B59" s="27">
+        <v>2</v>
+      </c>
+      <c r="C59" s="27">
         <v>3</v>
       </c>
-      <c r="D59" s="15">
+      <c r="D59" s="27">
         <v>5</v>
       </c>
-      <c r="E59" s="16">
+      <c r="E59" s="28">
         <f t="shared" si="0"/>
         <v>3.1666666666666665</v>
       </c>
-      <c r="F59" s="17">
+      <c r="F59" s="29">
         <f t="shared" si="1"/>
         <v>0.5</v>
       </c>
-      <c r="G59" s="18">
+      <c r="G59" s="16">
         <v>57</v>
       </c>
-      <c r="H59" s="18" t="s">
+      <c r="H59" s="16" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="60" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A60" s="5" t="s">
+    <row r="60" spans="1:8" ht="41.4" x14ac:dyDescent="0.3">
+      <c r="A60" s="19" t="s">
         <v>67</v>
       </c>
-      <c r="B60" s="15">
-        <v>2</v>
-      </c>
-      <c r="C60" s="15">
-        <v>4</v>
-      </c>
-      <c r="D60" s="15">
+      <c r="B60" s="27">
+        <v>2</v>
+      </c>
+      <c r="C60" s="27">
+        <v>4</v>
+      </c>
+      <c r="D60" s="27">
         <v>6</v>
       </c>
-      <c r="E60" s="16">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="F60" s="17">
+      <c r="E60" s="28">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="F60" s="29">
         <f t="shared" si="1"/>
         <v>0.66666666666666663</v>
       </c>
-      <c r="G60" s="18">
+      <c r="G60" s="16">
         <v>58</v>
       </c>
-      <c r="H60" s="18" t="s">
+      <c r="H60" s="16" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="61" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A61" s="5" t="s">
+    <row r="61" spans="1:8" ht="55.2" x14ac:dyDescent="0.3">
+      <c r="A61" s="19" t="s">
         <v>68</v>
       </c>
-      <c r="B61" s="15">
+      <c r="B61" s="27">
         <v>3</v>
       </c>
-      <c r="C61" s="15">
+      <c r="C61" s="27">
         <v>5</v>
       </c>
-      <c r="D61" s="15">
+      <c r="D61" s="27">
         <v>7</v>
       </c>
-      <c r="E61" s="16">
+      <c r="E61" s="28">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="F61" s="17">
+      <c r="F61" s="29">
         <f t="shared" si="1"/>
         <v>0.66666666666666663</v>
       </c>
-      <c r="G61" s="18">
+      <c r="G61" s="16">
         <v>57</v>
       </c>
-      <c r="H61" s="18" t="s">
+      <c r="H61" s="16" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="62" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A62" s="5" t="s">
+    <row r="62" spans="1:8" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A62" s="19" t="s">
         <v>69</v>
       </c>
-      <c r="B62" s="15">
-        <v>2</v>
-      </c>
-      <c r="C62" s="15">
-        <v>4</v>
-      </c>
-      <c r="D62" s="15">
+      <c r="B62" s="27">
+        <v>2</v>
+      </c>
+      <c r="C62" s="27">
+        <v>4</v>
+      </c>
+      <c r="D62" s="27">
         <v>6</v>
       </c>
-      <c r="E62" s="16">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="F62" s="17">
+      <c r="E62" s="28">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="F62" s="29">
         <f t="shared" si="1"/>
         <v>0.66666666666666663</v>
       </c>
-      <c r="G62" s="18">
+      <c r="G62" s="16">
         <v>60</v>
       </c>
-      <c r="H62" s="18" t="s">
+      <c r="H62" s="16" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="63" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A63" s="5" t="s">
+    <row r="63" spans="1:8" ht="41.4" x14ac:dyDescent="0.3">
+      <c r="A63" s="19" t="s">
         <v>70</v>
       </c>
-      <c r="B63" s="15">
+      <c r="B63" s="27">
         <v>1</v>
       </c>
-      <c r="C63" s="15">
-        <v>2</v>
-      </c>
-      <c r="D63" s="15">
-        <v>4</v>
-      </c>
-      <c r="E63" s="16">
+      <c r="C63" s="27">
+        <v>2</v>
+      </c>
+      <c r="D63" s="27">
+        <v>4</v>
+      </c>
+      <c r="E63" s="28">
         <f t="shared" si="0"/>
         <v>2.1666666666666665</v>
       </c>
-      <c r="F63" s="17">
+      <c r="F63" s="29">
         <f t="shared" si="1"/>
         <v>0.5</v>
       </c>
-      <c r="G63" s="18">
+      <c r="G63" s="16">
         <v>61</v>
       </c>
-      <c r="H63" s="18" t="s">
+      <c r="H63" s="16" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="64" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A64" s="5" t="s">
+    <row r="64" spans="1:8" ht="41.4" x14ac:dyDescent="0.3">
+      <c r="A64" s="19" t="s">
         <v>71</v>
       </c>
-      <c r="B64" s="15">
+      <c r="B64" s="27">
         <v>0.5</v>
       </c>
-      <c r="C64" s="15">
+      <c r="C64" s="27">
         <v>1</v>
       </c>
-      <c r="D64" s="15">
-        <v>2</v>
-      </c>
-      <c r="E64" s="16">
+      <c r="D64" s="27">
+        <v>2</v>
+      </c>
+      <c r="E64" s="28">
         <f t="shared" si="0"/>
         <v>1.0833333333333333</v>
       </c>
-      <c r="F64" s="17">
+      <c r="F64" s="29">
         <f t="shared" si="1"/>
         <v>0.25</v>
       </c>
-      <c r="G64" s="18" t="s">
+      <c r="G64" s="16" t="s">
         <v>72</v>
       </c>
-      <c r="H64" s="18" t="s">
+      <c r="H64" s="16" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="65" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A65" s="5" t="s">
+    <row r="65" spans="1:8" ht="41.4" x14ac:dyDescent="0.3">
+      <c r="A65" s="19" t="s">
         <v>73</v>
       </c>
-      <c r="B65" s="15">
-        <v>2</v>
-      </c>
-      <c r="C65" s="15">
+      <c r="B65" s="27">
+        <v>2</v>
+      </c>
+      <c r="C65" s="27">
         <v>3</v>
       </c>
-      <c r="D65" s="15">
+      <c r="D65" s="27">
         <v>5</v>
       </c>
-      <c r="E65" s="16">
+      <c r="E65" s="28">
         <f t="shared" si="0"/>
         <v>3.1666666666666665</v>
       </c>
-      <c r="F65" s="17">
+      <c r="F65" s="29">
         <f t="shared" si="1"/>
         <v>0.5</v>
       </c>
-      <c r="G65" s="18">
+      <c r="G65" s="16">
         <v>63</v>
       </c>
-      <c r="H65" s="18" t="s">
+      <c r="H65" s="16" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="66" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A66" s="5" t="s">
+    <row r="66" spans="1:8" ht="55.2" x14ac:dyDescent="0.3">
+      <c r="A66" s="19" t="s">
         <v>74</v>
       </c>
-      <c r="B66" s="15">
+      <c r="B66" s="27">
         <v>1</v>
       </c>
-      <c r="C66" s="15">
-        <v>2</v>
-      </c>
-      <c r="D66" s="15">
+      <c r="C66" s="27">
+        <v>2</v>
+      </c>
+      <c r="D66" s="27">
         <v>3</v>
       </c>
-      <c r="E66" s="16">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="F66" s="17">
+      <c r="E66" s="28">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="F66" s="29">
         <f t="shared" si="1"/>
         <v>0.33333333333333331</v>
       </c>
-      <c r="G66" s="18">
+      <c r="G66" s="16">
         <v>64</v>
       </c>
-      <c r="H66" s="18" t="s">
+      <c r="H66" s="16" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="67" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A67" s="5" t="s">
+    <row r="67" spans="1:8" ht="41.4" x14ac:dyDescent="0.3">
+      <c r="A67" s="19" t="s">
         <v>75</v>
       </c>
-      <c r="B67" s="15">
-        <v>2</v>
-      </c>
-      <c r="C67" s="15">
-        <v>4</v>
-      </c>
-      <c r="D67" s="15">
+      <c r="B67" s="27">
+        <v>2</v>
+      </c>
+      <c r="C67" s="27">
+        <v>4</v>
+      </c>
+      <c r="D67" s="27">
         <v>6</v>
       </c>
-      <c r="E67" s="16">
+      <c r="E67" s="28">
         <f t="shared" ref="E67:E70" si="2">(B67+4*C67+D67)/6</f>
         <v>4</v>
       </c>
-      <c r="F67" s="17">
+      <c r="F67" s="29">
         <f t="shared" ref="F67:F70" si="3">(D67-B67)/6</f>
         <v>0.66666666666666663</v>
       </c>
-      <c r="G67" s="18">
+      <c r="G67" s="16">
         <v>65</v>
       </c>
-      <c r="H67" s="18" t="s">
+      <c r="H67" s="16" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="68" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A68" s="5" t="s">
+    <row r="68" spans="1:8" ht="41.4" x14ac:dyDescent="0.3">
+      <c r="A68" s="19" t="s">
         <v>76</v>
       </c>
-      <c r="B68" s="15">
+      <c r="B68" s="27">
         <v>1</v>
       </c>
-      <c r="C68" s="15">
-        <v>2</v>
-      </c>
-      <c r="D68" s="15">
+      <c r="C68" s="27">
+        <v>2</v>
+      </c>
+      <c r="D68" s="27">
         <v>3</v>
       </c>
-      <c r="E68" s="16">
+      <c r="E68" s="28">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="F68" s="17">
+      <c r="F68" s="29">
         <f t="shared" si="3"/>
         <v>0.33333333333333331</v>
       </c>
-      <c r="G68" s="18">
+      <c r="G68" s="16">
         <v>66</v>
       </c>
-      <c r="H68" s="18" t="s">
+      <c r="H68" s="16" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="69" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A69" s="5" t="s">
+    <row r="69" spans="1:8" ht="41.4" x14ac:dyDescent="0.3">
+      <c r="A69" s="19" t="s">
         <v>77</v>
       </c>
-      <c r="B69" s="15">
+      <c r="B69" s="27">
         <v>1</v>
       </c>
-      <c r="C69" s="15">
-        <v>2</v>
-      </c>
-      <c r="D69" s="15">
-        <v>4</v>
-      </c>
-      <c r="E69" s="16">
+      <c r="C69" s="27">
+        <v>2</v>
+      </c>
+      <c r="D69" s="27">
+        <v>4</v>
+      </c>
+      <c r="E69" s="28">
         <f t="shared" si="2"/>
         <v>2.1666666666666665</v>
       </c>
-      <c r="F69" s="17">
+      <c r="F69" s="29">
         <f t="shared" si="3"/>
         <v>0.5</v>
       </c>
-      <c r="G69" s="18">
+      <c r="G69" s="16">
         <v>67</v>
       </c>
-      <c r="H69" s="18" t="s">
+      <c r="H69" s="16" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="70" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A70" s="5" t="s">
+    <row r="70" spans="1:8" ht="41.4" x14ac:dyDescent="0.3">
+      <c r="A70" s="19" t="s">
         <v>78</v>
       </c>
-      <c r="B70" s="15">
+      <c r="B70" s="27">
         <v>1</v>
       </c>
-      <c r="C70" s="15">
+      <c r="C70" s="27">
         <v>3</v>
       </c>
-      <c r="D70" s="15">
+      <c r="D70" s="27">
         <v>5</v>
       </c>
-      <c r="E70" s="16">
+      <c r="E70" s="28">
         <f t="shared" si="2"/>
         <v>3</v>
       </c>
-      <c r="F70" s="17">
+      <c r="F70" s="29">
         <f t="shared" si="3"/>
         <v>0.66666666666666663</v>
       </c>
-      <c r="G70" s="18" t="s">
+      <c r="G70" s="16" t="s">
         <v>79</v>
       </c>
-      <c r="H70" s="18" t="s">
+      <c r="H70" s="16" t="s">
         <v>108</v>
       </c>
     </row>
@@ -3188,207 +3509,207 @@
   <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection sqref="A1:D13"/>
+      <selection activeCell="B12" sqref="A1:D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="3.88671875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="30.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="44.5546875" style="9" customWidth="1"/>
+    <col min="3" max="3" width="44.5546875" style="4" customWidth="1"/>
     <col min="4" max="4" width="13.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A1" s="17" t="s">
         <v>170</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="17" t="s">
         <v>171</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="17" t="s">
         <v>186</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="20" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A2" s="5">
+    <row r="2" spans="1:4" ht="28.2" x14ac:dyDescent="0.3">
+      <c r="A2" s="19">
         <v>1</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="19" t="s">
         <v>158</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="C2" s="21" t="s">
         <v>187</v>
       </c>
-      <c r="D2" s="7">
+      <c r="D2" s="22">
         <v>45874</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A3" s="5">
+    <row r="3" spans="1:4" ht="42" x14ac:dyDescent="0.3">
+      <c r="A3" s="19">
         <f>A2+1</f>
         <v>2</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="19" t="s">
         <v>159</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="C3" s="21" t="s">
         <v>188</v>
       </c>
-      <c r="D3" s="8">
+      <c r="D3" s="23">
         <v>45877</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" s="5">
+      <c r="A4" s="19">
         <f t="shared" ref="A4:A13" si="0">A3+1</f>
         <v>3</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="19" t="s">
         <v>160</v>
       </c>
-      <c r="C4" s="11" t="s">
+      <c r="C4" s="24" t="s">
         <v>189</v>
       </c>
-      <c r="D4" s="8">
+      <c r="D4" s="23">
         <v>45877</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A5" s="5">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="B5" s="5" t="s">
+    <row r="5" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A5" s="19">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="B5" s="19" t="s">
         <v>161</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="19" t="s">
         <v>190</v>
       </c>
-      <c r="D5" s="8">
+      <c r="D5" s="23">
         <v>45881</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A6" s="5">
+    <row r="6" spans="1:4" ht="55.2" x14ac:dyDescent="0.3">
+      <c r="A6" s="19">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="19" t="s">
         <v>162</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="19" t="s">
         <v>191</v>
       </c>
-      <c r="D6" s="8">
+      <c r="D6" s="23">
         <v>45889</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A7" s="5">
+    <row r="7" spans="1:4" ht="55.2" x14ac:dyDescent="0.3">
+      <c r="A7" s="19">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="19" t="s">
         <v>163</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C7" s="19" t="s">
         <v>191</v>
       </c>
-      <c r="D7" s="8">
+      <c r="D7" s="23">
         <v>45889</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A8" s="5">
+    <row r="8" spans="1:4" ht="41.4" x14ac:dyDescent="0.3">
+      <c r="A8" s="19">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="19" t="s">
         <v>164</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="C8" s="19" t="s">
         <v>192</v>
       </c>
-      <c r="D8" s="8">
+      <c r="D8" s="23">
         <v>45897</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A9" s="5">
+    <row r="9" spans="1:4" ht="55.2" x14ac:dyDescent="0.3">
+      <c r="A9" s="19">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="19" t="s">
         <v>165</v>
       </c>
-      <c r="C9" s="5" t="s">
+      <c r="C9" s="19" t="s">
         <v>193</v>
       </c>
-      <c r="D9" s="8">
+      <c r="D9" s="23">
         <v>45901</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A10" s="5">
+    <row r="10" spans="1:4" ht="55.2" x14ac:dyDescent="0.3">
+      <c r="A10" s="19">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B10" s="19" t="s">
         <v>166</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="C10" s="19" t="s">
         <v>194</v>
       </c>
-      <c r="D10" s="8">
+      <c r="D10" s="23">
         <v>45917</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A11" s="5">
+    <row r="11" spans="1:4" ht="41.4" x14ac:dyDescent="0.3">
+      <c r="A11" s="19">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="B11" s="19" t="s">
         <v>167</v>
       </c>
-      <c r="C11" s="5" t="s">
+      <c r="C11" s="19" t="s">
         <v>195</v>
       </c>
-      <c r="D11" s="8">
+      <c r="D11" s="23">
         <v>45898</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A12" s="5">
+    <row r="12" spans="1:4" ht="41.4" x14ac:dyDescent="0.3">
+      <c r="A12" s="19">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="B12" s="19" t="s">
         <v>168</v>
       </c>
-      <c r="C12" s="5" t="s">
+      <c r="C12" s="19" t="s">
         <v>196</v>
       </c>
-      <c r="D12" s="8">
+      <c r="D12" s="23">
         <v>45901</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A13" s="5">
+    <row r="13" spans="1:4" ht="41.4" x14ac:dyDescent="0.3">
+      <c r="A13" s="19">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="B13" s="5" t="s">
+      <c r="B13" s="19" t="s">
         <v>169</v>
       </c>
-      <c r="C13" s="5" t="s">
+      <c r="C13" s="19" t="s">
         <v>197</v>
       </c>
-      <c r="D13" s="8">
+      <c r="D13" s="23">
         <v>45929</v>
       </c>
     </row>
@@ -3403,127 +3724,128 @@
   <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+      <selection activeCell="B22" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="63.21875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.88671875" style="18" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="63.21875" style="18" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="8.88671875" style="18"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:2" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A1" s="17" t="s">
         <v>170</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="17" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" s="5">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="19">
         <v>1</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="19" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" s="5">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="19">
         <f>A2+1</f>
         <v>2</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="19" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" s="5">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="19">
         <f t="shared" ref="A4:A13" si="0">A3+1</f>
         <v>3</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="19" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" s="5">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="B5" s="5" t="s">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="19">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="B5" s="19" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" s="5">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="19">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="19" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" s="5">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="19">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="19" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" s="5">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="19">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="19" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9" s="5">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="19">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="19" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10" s="5">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="19">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B10" s="19" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A11" s="5">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="19">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="B11" s="19" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A12" s="5">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="19">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="B12" s="19" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A13" s="5">
+    <row r="13" spans="1:2" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A13" s="19">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="B13" s="5" t="s">
+      <c r="B13" s="19" t="s">
         <v>184</v>
       </c>
     </row>
@@ -3534,253 +3856,620 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB4A8877-E8DA-4C66-94BC-D151587F6D20}">
-  <dimension ref="A1:D21"/>
+  <dimension ref="A1:D19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView topLeftCell="A7" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D16" sqref="A11:D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
+    <col min="1" max="1" width="5.6640625" customWidth="1"/>
     <col min="2" max="2" width="36.44140625" customWidth="1"/>
-    <col min="3" max="3" width="14.21875" style="9" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="59.109375" style="9" customWidth="1"/>
+    <col min="3" max="3" width="14.21875" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="59.109375" style="4" customWidth="1"/>
     <col min="5" max="5" width="8.88671875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="11" t="s">
         <v>199</v>
       </c>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" s="19" t="s">
+      <c r="A2" s="9" t="s">
         <v>198</v>
       </c>
-      <c r="B2" s="19" t="s">
+      <c r="B2" s="9" t="s">
         <v>186</v>
       </c>
-      <c r="C2" s="20" t="s">
+      <c r="C2" s="6" t="s">
         <v>202</v>
       </c>
-      <c r="D2" s="20" t="s">
+      <c r="D2" s="6" t="s">
         <v>201</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A3" s="11">
+      <c r="A3" s="10">
         <v>1</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="10" t="s">
         <v>203</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="C3" s="7" t="s">
         <v>204</v>
       </c>
-      <c r="D3" s="10" t="s">
+      <c r="D3" s="7" t="s">
         <v>218</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A4" s="11">
-        <v>2</v>
-      </c>
-      <c r="B4" s="11" t="s">
+      <c r="A4" s="10">
+        <v>2</v>
+      </c>
+      <c r="B4" s="10" t="s">
         <v>205</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="C4" s="7" t="s">
         <v>206</v>
       </c>
-      <c r="D4" s="10" t="s">
+      <c r="D4" s="7" t="s">
         <v>216</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A5" s="11">
+      <c r="A5" s="10">
         <v>3</v>
       </c>
-      <c r="B5" s="11" t="s">
+      <c r="B5" s="10" t="s">
         <v>207</v>
       </c>
-      <c r="C5" s="10" t="s">
+      <c r="C5" s="7" t="s">
         <v>209</v>
       </c>
-      <c r="D5" s="10" t="s">
+      <c r="D5" s="7" t="s">
         <v>208</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" s="11">
-        <v>4</v>
-      </c>
-      <c r="B6" s="11" t="s">
+      <c r="A6" s="10">
+        <v>4</v>
+      </c>
+      <c r="B6" s="10" t="s">
         <v>211</v>
       </c>
-      <c r="C6" s="10" t="s">
+      <c r="C6" s="7" t="s">
         <v>206</v>
       </c>
-      <c r="D6" s="10" t="s">
+      <c r="D6" s="7" t="s">
         <v>210</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A7" s="11">
+      <c r="A7" s="10">
         <v>5</v>
       </c>
-      <c r="B7" s="11" t="s">
+      <c r="B7" s="10" t="s">
         <v>212</v>
       </c>
-      <c r="C7" s="10" t="s">
+      <c r="C7" s="7" t="s">
         <v>217</v>
       </c>
-      <c r="D7" s="10" t="s">
+      <c r="D7" s="7" t="s">
         <v>213</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A8" s="11">
+      <c r="A8" s="10">
         <v>6</v>
       </c>
-      <c r="B8" s="11" t="s">
+      <c r="B8" s="10" t="s">
         <v>214</v>
       </c>
-      <c r="C8" s="10" t="s">
+      <c r="C8" s="7" t="s">
         <v>206</v>
       </c>
-      <c r="D8" s="10" t="s">
+      <c r="D8" s="7" t="s">
         <v>215</v>
       </c>
     </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
+    </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11" s="21" t="s">
+      <c r="A11" s="12" t="s">
         <v>200</v>
       </c>
-      <c r="B11" s="21"/>
-      <c r="C11" s="22"/>
-      <c r="D11" s="22"/>
+      <c r="B11" s="12"/>
+      <c r="C11" s="12"/>
+      <c r="D11" s="12"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A12" s="19" t="s">
+      <c r="A12" s="13" t="s">
         <v>198</v>
       </c>
-      <c r="B12" s="19" t="s">
+      <c r="B12" s="13" t="s">
         <v>186</v>
       </c>
-      <c r="C12" s="20" t="s">
+      <c r="C12" s="14" t="s">
         <v>202</v>
       </c>
-      <c r="D12" s="20" t="s">
+      <c r="D12" s="14" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A13" s="11">
+    <row r="13" spans="1:4" ht="41.4" x14ac:dyDescent="0.3">
+      <c r="A13" s="15">
         <v>1</v>
       </c>
-      <c r="B13" s="11" t="s">
+      <c r="B13" s="15" t="s">
         <v>203</v>
       </c>
-      <c r="C13" s="10" t="s">
+      <c r="C13" s="16" t="s">
         <v>219</v>
       </c>
-      <c r="D13" s="10" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A14" s="11">
-        <v>2</v>
-      </c>
-      <c r="B14" s="11"/>
-      <c r="C14" s="10"/>
-      <c r="D14" s="10" t="s">
+      <c r="D13" s="16" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A15" s="11">
+    <row r="14" spans="1:4" ht="69" x14ac:dyDescent="0.3">
+      <c r="A14" s="15">
+        <v>2</v>
+      </c>
+      <c r="B14" s="15" t="s">
+        <v>222</v>
+      </c>
+      <c r="C14" s="16" t="s">
+        <v>206</v>
+      </c>
+      <c r="D14" s="16" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A15" s="15">
         <v>3</v>
       </c>
-      <c r="B15" s="11" t="s">
+      <c r="B15" s="15" t="s">
         <v>205</v>
       </c>
-      <c r="C15" s="10" t="s">
+      <c r="C15" s="16" t="s">
         <v>206</v>
       </c>
-      <c r="D15" s="10" t="s">
+      <c r="D15" s="16" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A16" s="11">
-        <v>4</v>
-      </c>
-      <c r="B16" s="11" t="s">
+    <row r="16" spans="1:4" ht="55.2" x14ac:dyDescent="0.3">
+      <c r="A16" s="15">
+        <v>4</v>
+      </c>
+      <c r="B16" s="15" t="s">
         <v>207</v>
       </c>
-      <c r="C16" s="10" t="s">
+      <c r="C16" s="16" t="s">
         <v>209</v>
       </c>
-      <c r="D16" s="10" t="s">
+      <c r="D16" s="16" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A17" s="11">
+    <row r="17" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A17" s="15">
         <v>5</v>
       </c>
-      <c r="B17" s="11" t="s">
+      <c r="B17" s="15" t="s">
         <v>211</v>
       </c>
-      <c r="C17" s="10" t="s">
+      <c r="C17" s="16" t="s">
         <v>206</v>
       </c>
-      <c r="D17" s="10" t="s">
+      <c r="D17" s="16" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A18" s="11">
+    <row r="18" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A18" s="15">
         <v>6</v>
       </c>
-      <c r="B18" s="11" t="s">
+      <c r="B18" s="15" t="s">
         <v>212</v>
       </c>
-      <c r="C18" s="10" t="s">
+      <c r="C18" s="16" t="s">
         <v>217</v>
       </c>
-      <c r="D18" s="10" t="s">
+      <c r="D18" s="16" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A19" s="11">
+    <row r="19" spans="1:4" ht="55.2" x14ac:dyDescent="0.3">
+      <c r="A19" s="15">
         <v>7</v>
       </c>
-      <c r="B19" s="11" t="s">
+      <c r="B19" s="15" t="s">
         <v>214</v>
       </c>
-      <c r="C19" s="10" t="s">
+      <c r="C19" s="16" t="s">
         <v>206</v>
       </c>
-      <c r="D19" s="10" t="s">
+      <c r="D19" s="16" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A20" s="11"/>
-      <c r="B20" s="11"/>
-      <c r="C20" s="10"/>
-      <c r="D20" s="10"/>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A21" s="11"/>
-      <c r="B21" s="11"/>
-      <c r="C21" s="10"/>
-      <c r="D21" s="10"/>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A11:D11"/>
+    <mergeCell ref="A1:D1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0362EF11-4C07-4F65-A6EC-3FC0EC3607B0}">
+  <dimension ref="A1:G6"/>
+  <sheetViews>
+    <sheetView topLeftCell="A3" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection sqref="A1:G6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="12.44140625" customWidth="1"/>
+    <col min="2" max="2" width="12" customWidth="1"/>
+    <col min="14" max="14" width="10.21875" customWidth="1"/>
+    <col min="15" max="15" width="14.44140625" customWidth="1"/>
+    <col min="16" max="16" width="30.88671875" customWidth="1"/>
+    <col min="17" max="17" width="15.109375" customWidth="1"/>
+    <col min="18" max="18" width="12.44140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="75.599999999999994" x14ac:dyDescent="0.3">
+      <c r="A1" s="33" t="s">
+        <v>223</v>
+      </c>
+      <c r="B1" s="33" t="s">
+        <v>186</v>
+      </c>
+      <c r="C1" s="33" t="s">
+        <v>224</v>
+      </c>
+      <c r="D1" s="33" t="s">
+        <v>225</v>
+      </c>
+      <c r="E1" s="33" t="s">
+        <v>226</v>
+      </c>
+      <c r="F1" s="33" t="s">
+        <v>227</v>
+      </c>
+      <c r="G1" s="33" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="82.8" x14ac:dyDescent="0.3">
+      <c r="A2" s="32" t="s">
+        <v>229</v>
+      </c>
+      <c r="B2" s="32" t="s">
+        <v>230</v>
+      </c>
+      <c r="C2" s="32" t="s">
+        <v>231</v>
+      </c>
+      <c r="D2" s="32" t="s">
+        <v>232</v>
+      </c>
+      <c r="E2" s="32" t="s">
+        <v>233</v>
+      </c>
+      <c r="F2" s="32" t="s">
+        <v>234</v>
+      </c>
+      <c r="G2" s="32" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="69" x14ac:dyDescent="0.3">
+      <c r="A3" s="32" t="s">
+        <v>235</v>
+      </c>
+      <c r="B3" s="32" t="s">
+        <v>236</v>
+      </c>
+      <c r="C3" s="32" t="s">
+        <v>231</v>
+      </c>
+      <c r="D3" s="32" t="s">
+        <v>237</v>
+      </c>
+      <c r="E3" s="32" t="s">
+        <v>238</v>
+      </c>
+      <c r="F3" s="32" t="s">
+        <v>239</v>
+      </c>
+      <c r="G3" s="32" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="82.8" x14ac:dyDescent="0.3">
+      <c r="A4" s="32" t="s">
+        <v>240</v>
+      </c>
+      <c r="B4" s="32" t="s">
+        <v>241</v>
+      </c>
+      <c r="C4" s="32" t="s">
+        <v>242</v>
+      </c>
+      <c r="D4" s="32" t="s">
+        <v>237</v>
+      </c>
+      <c r="E4" s="32" t="s">
+        <v>243</v>
+      </c>
+      <c r="F4" s="32" t="s">
+        <v>244</v>
+      </c>
+      <c r="G4" s="32" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="96.6" x14ac:dyDescent="0.3">
+      <c r="A5" s="32" t="s">
+        <v>245</v>
+      </c>
+      <c r="B5" s="32" t="s">
+        <v>246</v>
+      </c>
+      <c r="C5" s="32" t="s">
+        <v>247</v>
+      </c>
+      <c r="D5" s="32" t="s">
+        <v>237</v>
+      </c>
+      <c r="E5" s="32" t="s">
+        <v>233</v>
+      </c>
+      <c r="F5" s="32" t="s">
+        <v>248</v>
+      </c>
+      <c r="G5" s="32" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="138" x14ac:dyDescent="0.3">
+      <c r="A6" s="32" t="s">
+        <v>249</v>
+      </c>
+      <c r="B6" s="32" t="s">
+        <v>256</v>
+      </c>
+      <c r="C6" s="32" t="s">
+        <v>247</v>
+      </c>
+      <c r="D6" s="32" t="s">
+        <v>237</v>
+      </c>
+      <c r="E6" s="32" t="s">
+        <v>238</v>
+      </c>
+      <c r="F6" s="32" t="s">
+        <v>257</v>
+      </c>
+      <c r="G6" s="32" t="s">
+        <v>206</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{076153BA-5795-42F2-906B-9931FC8D5804}">
+  <dimension ref="A1:E10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H5" sqref="H5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="7.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="32.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A1" s="30" t="s">
+        <v>250</v>
+      </c>
+      <c r="B1" s="30" t="s">
+        <v>251</v>
+      </c>
+      <c r="C1" s="34" t="s">
+        <v>252</v>
+      </c>
+      <c r="D1" s="30" t="s">
+        <v>253</v>
+      </c>
+      <c r="E1" s="30" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="39.6" x14ac:dyDescent="0.3">
+      <c r="A2" s="31" t="s">
+        <v>259</v>
+      </c>
+      <c r="B2" s="31" t="s">
+        <v>260</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>275</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>287</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="39.6" x14ac:dyDescent="0.3">
+      <c r="A3" s="31" t="s">
+        <v>261</v>
+      </c>
+      <c r="B3" s="31" t="s">
+        <v>262</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>276</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>288</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="39.6" x14ac:dyDescent="0.3">
+      <c r="A4" s="31" t="s">
+        <v>263</v>
+      </c>
+      <c r="B4" s="31" t="s">
+        <v>264</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>277</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>289</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="26.4" x14ac:dyDescent="0.3">
+      <c r="A5" s="31" t="s">
+        <v>265</v>
+      </c>
+      <c r="B5" s="31" t="s">
+        <v>266</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>278</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>290</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="26.4" x14ac:dyDescent="0.3">
+      <c r="A6" s="31" t="s">
+        <v>267</v>
+      </c>
+      <c r="B6" s="31" t="s">
+        <v>268</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>279</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>291</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="26.4" x14ac:dyDescent="0.3">
+      <c r="A7" s="31" t="s">
+        <v>269</v>
+      </c>
+      <c r="B7" s="31" t="s">
+        <v>270</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>280</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>292</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="26.4" x14ac:dyDescent="0.3">
+      <c r="A8" s="31" t="s">
+        <v>258</v>
+      </c>
+      <c r="B8" s="31" t="s">
+        <v>255</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>281</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>284</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="26.4" x14ac:dyDescent="0.3">
+      <c r="A9" s="31" t="s">
+        <v>271</v>
+      </c>
+      <c r="B9" s="31" t="s">
+        <v>272</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>282</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>285</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="39.6" x14ac:dyDescent="0.3">
+      <c r="A10" s="31" t="s">
+        <v>273</v>
+      </c>
+      <c r="B10" s="31" t="s">
+        <v>274</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>283</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>286</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>301</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/TERM3/T3B1-ICTPMG613-Manage_ICT_project_plan/2-ICTPMG613-Assessment_Task 2/ICTPMG613_AssessmentTask_Manuel_S_Perez_E-Pert_Chart.xlsx
+++ b/TERM3/T3B1-ICTPMG613-Manage_ICT_project_plan/2-ICTPMG613-Assessment_Task 2/ICTPMG613_AssessmentTask_Manuel_S_Perez_E-Pert_Chart.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\manue\Documents\Assessments\TERM3\T3B1-ICTPMG613-Manage_ICT_project_plan\2-ICTPMG613-Assessment_Task 2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C4E1AE8-E2EB-48CB-B99D-AE820542C974}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C216FAD-3842-4111-98C0-1E7698B85477}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="5" xr2:uid="{2E7573F3-6188-4FA9-9041-50436B486355}"/>
   </bookViews>
@@ -892,36 +892,6 @@
     <t>ishtar.kahn@boutiquebuild.com.au</t>
   </si>
   <si>
-    <t>susan.morgan@boutiquebuild.com.au</t>
-  </si>
-  <si>
-    <t>(02) 8000 2001 ext. 301</t>
-  </si>
-  <si>
-    <t>(02) 8000 2002 ext. 302</t>
-  </si>
-  <si>
-    <t>(02) 8000 2003 ext. 303</t>
-  </si>
-  <si>
-    <t>(03) 9000 1001 ext. 201</t>
-  </si>
-  <si>
-    <t>(03) 9000 1002 ext. 202</t>
-  </si>
-  <si>
-    <t>(03) 9000 1003 ext. 203</t>
-  </si>
-  <si>
-    <t>(03) 9000 1004 ext. 204</t>
-  </si>
-  <si>
-    <t>(03)  9000 1005 ext. 205</t>
-  </si>
-  <si>
-    <t>(03) 9000 1006 ext. 206</t>
-  </si>
-  <si>
     <t>0413 782 940</t>
   </si>
   <si>
@@ -947,6 +917,36 @@
   </si>
   <si>
     <t>0469 331 725</t>
+  </si>
+  <si>
+    <t>(03) 9000 1001 #201</t>
+  </si>
+  <si>
+    <t>(03) 9000 1002 #202</t>
+  </si>
+  <si>
+    <t>(03) 9000 1003 #203</t>
+  </si>
+  <si>
+    <t>(03) 9000 1004 #204</t>
+  </si>
+  <si>
+    <t>(03)  9000 1005 #205</t>
+  </si>
+  <si>
+    <t>(03) 9000 1006 #206</t>
+  </si>
+  <si>
+    <t>(02) 8000 2001 #301</t>
+  </si>
+  <si>
+    <t>(02) 8000 2002 #302</t>
+  </si>
+  <si>
+    <t>(02) 8000 2003 #303</t>
+  </si>
+  <si>
+    <t>susan.mor@boutiquebuild.com.au</t>
   </si>
 </sst>
 </file>
@@ -958,7 +958,7 @@
     <numFmt numFmtId="165" formatCode="#,##0.00&quot; days&quot;"/>
     <numFmt numFmtId="166" formatCode="ddd\ dd/mmm/yy"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1017,6 +1017,14 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="5">
@@ -1078,12 +1086,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -1113,12 +1122,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -1144,7 +1147,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="3" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -1183,8 +1186,16 @@
     <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="3" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="4">
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 3" xfId="2" xr:uid="{BB0E93A7-55F0-4420-8B0A-8DA068096FC5}"/>
     <cellStyle name="Per cent" xfId="1" builtinId="5"/>
@@ -1541,1960 +1552,1960 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="12" t="s">
         <v>110</v>
       </c>
-      <c r="C1" s="14" t="s">
+      <c r="C1" s="12" t="s">
         <v>111</v>
       </c>
-      <c r="D1" s="14" t="s">
+      <c r="D1" s="12" t="s">
         <v>112</v>
       </c>
-      <c r="E1" s="25" t="s">
+      <c r="E1" s="23" t="s">
         <v>113</v>
       </c>
-      <c r="F1" s="26" t="s">
+      <c r="F1" s="24" t="s">
         <v>114</v>
       </c>
-      <c r="G1" s="14" t="s">
+      <c r="G1" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="14" t="s">
+      <c r="H1" s="12" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="A2" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="27">
-        <v>2</v>
-      </c>
-      <c r="C2" s="27">
-        <v>4</v>
-      </c>
-      <c r="D2" s="27">
+      <c r="A2" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="25">
+        <v>2</v>
+      </c>
+      <c r="C2" s="25">
+        <v>4</v>
+      </c>
+      <c r="D2" s="25">
         <v>6</v>
       </c>
-      <c r="E2" s="28">
+      <c r="E2" s="26">
         <f>(B2+4*C2+D2)/6</f>
         <v>4</v>
       </c>
-      <c r="F2" s="29">
+      <c r="F2" s="27">
         <f>(D2-B2)/6</f>
         <v>0.66666666666666663</v>
       </c>
-      <c r="G2" s="16" t="s">
+      <c r="G2" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="19" t="s">
+      <c r="H2" s="17" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A3" s="19" t="s">
+      <c r="A3" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="27">
+      <c r="B3" s="25">
         <v>1</v>
       </c>
-      <c r="C3" s="27">
-        <v>2</v>
-      </c>
-      <c r="D3" s="27">
+      <c r="C3" s="25">
+        <v>2</v>
+      </c>
+      <c r="D3" s="25">
         <v>3</v>
       </c>
-      <c r="E3" s="28">
+      <c r="E3" s="26">
         <f t="shared" ref="E3:E66" si="0">(B3+4*C3+D3)/6</f>
         <v>2</v>
       </c>
-      <c r="F3" s="29">
+      <c r="F3" s="27">
         <f t="shared" ref="F3:F66" si="1">(D3-B3)/6</f>
         <v>0.33333333333333331</v>
       </c>
-      <c r="G3" s="16">
+      <c r="G3" s="14">
         <v>1</v>
       </c>
-      <c r="H3" s="19" t="s">
+      <c r="H3" s="17" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="A4" s="19" t="s">
+      <c r="A4" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="27">
-        <v>2</v>
-      </c>
-      <c r="C4" s="27">
+      <c r="B4" s="25">
+        <v>2</v>
+      </c>
+      <c r="C4" s="25">
         <v>3</v>
       </c>
-      <c r="D4" s="27">
+      <c r="D4" s="25">
         <v>5</v>
       </c>
-      <c r="E4" s="28">
+      <c r="E4" s="26">
         <f t="shared" si="0"/>
         <v>3.1666666666666665</v>
       </c>
-      <c r="F4" s="29">
+      <c r="F4" s="27">
         <f t="shared" si="1"/>
         <v>0.5</v>
       </c>
-      <c r="G4" s="16">
-        <v>2</v>
-      </c>
-      <c r="H4" s="19" t="s">
+      <c r="G4" s="14">
+        <v>2</v>
+      </c>
+      <c r="H4" s="17" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="A5" s="19" t="s">
+      <c r="A5" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="27">
+      <c r="B5" s="25">
         <v>3</v>
       </c>
-      <c r="C5" s="27">
+      <c r="C5" s="25">
         <v>5</v>
       </c>
-      <c r="D5" s="27">
+      <c r="D5" s="25">
         <v>7</v>
       </c>
-      <c r="E5" s="28">
+      <c r="E5" s="26">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="F5" s="29">
+      <c r="F5" s="27">
         <f t="shared" si="1"/>
         <v>0.66666666666666663</v>
       </c>
-      <c r="G5" s="16">
+      <c r="G5" s="14">
         <v>3</v>
       </c>
-      <c r="H5" s="19" t="s">
+      <c r="H5" s="17" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A6" s="19" t="s">
+      <c r="A6" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="27">
+      <c r="B6" s="25">
         <v>1</v>
       </c>
-      <c r="C6" s="27">
-        <v>2</v>
-      </c>
-      <c r="D6" s="27">
-        <v>4</v>
-      </c>
-      <c r="E6" s="28">
+      <c r="C6" s="25">
+        <v>2</v>
+      </c>
+      <c r="D6" s="25">
+        <v>4</v>
+      </c>
+      <c r="E6" s="26">
         <f t="shared" si="0"/>
         <v>2.1666666666666665</v>
       </c>
-      <c r="F6" s="29">
+      <c r="F6" s="27">
         <f t="shared" si="1"/>
         <v>0.5</v>
       </c>
-      <c r="G6" s="16">
-        <v>4</v>
-      </c>
-      <c r="H6" s="19" t="s">
+      <c r="G6" s="14">
+        <v>4</v>
+      </c>
+      <c r="H6" s="17" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A7" s="19" t="s">
+      <c r="A7" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="27">
+      <c r="B7" s="25">
         <v>0.5</v>
       </c>
-      <c r="C7" s="27">
+      <c r="C7" s="25">
         <v>1</v>
       </c>
-      <c r="D7" s="27">
+      <c r="D7" s="25">
         <v>1.5</v>
       </c>
-      <c r="E7" s="28">
+      <c r="E7" s="26">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="F7" s="29">
+      <c r="F7" s="27">
         <f t="shared" si="1"/>
         <v>0.16666666666666666</v>
       </c>
-      <c r="G7" s="16">
+      <c r="G7" s="14">
         <v>5</v>
       </c>
-      <c r="H7" s="19" t="s">
+      <c r="H7" s="17" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="A8" s="19" t="s">
+      <c r="A8" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="27">
+      <c r="B8" s="25">
         <v>5</v>
       </c>
-      <c r="C8" s="27">
+      <c r="C8" s="25">
         <v>8</v>
       </c>
-      <c r="D8" s="27">
+      <c r="D8" s="25">
         <v>12</v>
       </c>
-      <c r="E8" s="28">
+      <c r="E8" s="26">
         <f t="shared" si="0"/>
         <v>8.1666666666666661</v>
       </c>
-      <c r="F8" s="29">
+      <c r="F8" s="27">
         <f t="shared" si="1"/>
         <v>1.1666666666666667</v>
       </c>
-      <c r="G8" s="16">
+      <c r="G8" s="14">
         <v>6</v>
       </c>
-      <c r="H8" s="19" t="s">
+      <c r="H8" s="17" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="A9" s="19" t="s">
+      <c r="A9" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="27">
-        <v>2</v>
-      </c>
-      <c r="C9" s="27">
-        <v>4</v>
-      </c>
-      <c r="D9" s="27">
+      <c r="B9" s="25">
+        <v>2</v>
+      </c>
+      <c r="C9" s="25">
+        <v>4</v>
+      </c>
+      <c r="D9" s="25">
         <v>6</v>
       </c>
-      <c r="E9" s="28">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="F9" s="29">
+      <c r="E9" s="26">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="F9" s="27">
         <f t="shared" si="1"/>
         <v>0.66666666666666663</v>
       </c>
-      <c r="G9" s="16">
+      <c r="G9" s="14">
         <v>7</v>
       </c>
-      <c r="H9" s="19" t="s">
+      <c r="H9" s="17" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="69" x14ac:dyDescent="0.3">
-      <c r="A10" s="19" t="s">
+      <c r="A10" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="27">
+      <c r="B10" s="25">
         <v>3</v>
       </c>
-      <c r="C10" s="27">
+      <c r="C10" s="25">
         <v>5</v>
       </c>
-      <c r="D10" s="27">
+      <c r="D10" s="25">
         <v>8</v>
       </c>
-      <c r="E10" s="28">
+      <c r="E10" s="26">
         <f t="shared" si="0"/>
         <v>5.166666666666667</v>
       </c>
-      <c r="F10" s="29">
+      <c r="F10" s="27">
         <f t="shared" si="1"/>
         <v>0.83333333333333337</v>
       </c>
-      <c r="G10" s="16">
+      <c r="G10" s="14">
         <v>8</v>
       </c>
-      <c r="H10" s="19" t="s">
+      <c r="H10" s="17" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="69" x14ac:dyDescent="0.3">
-      <c r="A11" s="19" t="s">
+      <c r="A11" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="27">
-        <v>2</v>
-      </c>
-      <c r="C11" s="27">
-        <v>4</v>
-      </c>
-      <c r="D11" s="27">
+      <c r="B11" s="25">
+        <v>2</v>
+      </c>
+      <c r="C11" s="25">
+        <v>4</v>
+      </c>
+      <c r="D11" s="25">
         <v>7</v>
       </c>
-      <c r="E11" s="28">
+      <c r="E11" s="26">
         <f t="shared" si="0"/>
         <v>4.166666666666667</v>
       </c>
-      <c r="F11" s="29">
+      <c r="F11" s="27">
         <f t="shared" si="1"/>
         <v>0.83333333333333337</v>
       </c>
-      <c r="G11" s="16">
+      <c r="G11" s="14">
         <v>9</v>
       </c>
-      <c r="H11" s="19" t="s">
+      <c r="H11" s="17" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="55.2" x14ac:dyDescent="0.3">
-      <c r="A12" s="19" t="s">
+      <c r="A12" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="B12" s="27">
-        <v>4</v>
-      </c>
-      <c r="C12" s="27">
+      <c r="B12" s="25">
+        <v>4</v>
+      </c>
+      <c r="C12" s="25">
         <v>6</v>
       </c>
-      <c r="D12" s="27">
+      <c r="D12" s="25">
         <v>10</v>
       </c>
-      <c r="E12" s="28">
+      <c r="E12" s="26">
         <f t="shared" si="0"/>
         <v>6.333333333333333</v>
       </c>
-      <c r="F12" s="29">
+      <c r="F12" s="27">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="G12" s="16">
+      <c r="G12" s="14">
         <v>10</v>
       </c>
-      <c r="H12" s="19" t="s">
+      <c r="H12" s="17" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="69" x14ac:dyDescent="0.3">
-      <c r="A13" s="19" t="s">
+      <c r="A13" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="B13" s="27">
+      <c r="B13" s="25">
         <v>3</v>
       </c>
-      <c r="C13" s="27">
+      <c r="C13" s="25">
         <v>5</v>
       </c>
-      <c r="D13" s="27">
+      <c r="D13" s="25">
         <v>8</v>
       </c>
-      <c r="E13" s="28">
+      <c r="E13" s="26">
         <f t="shared" si="0"/>
         <v>5.166666666666667</v>
       </c>
-      <c r="F13" s="29">
+      <c r="F13" s="27">
         <f t="shared" si="1"/>
         <v>0.83333333333333337</v>
       </c>
-      <c r="G13" s="16">
+      <c r="G13" s="14">
         <v>10</v>
       </c>
-      <c r="H13" s="19" t="s">
+      <c r="H13" s="17" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="A14" s="19" t="s">
+      <c r="A14" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="B14" s="27">
-        <v>2</v>
-      </c>
-      <c r="C14" s="27">
-        <v>4</v>
-      </c>
-      <c r="D14" s="27">
+      <c r="B14" s="25">
+        <v>2</v>
+      </c>
+      <c r="C14" s="25">
+        <v>4</v>
+      </c>
+      <c r="D14" s="25">
         <v>6</v>
       </c>
-      <c r="E14" s="28">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="F14" s="29">
+      <c r="E14" s="26">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="F14" s="27">
         <f t="shared" si="1"/>
         <v>0.66666666666666663</v>
       </c>
-      <c r="G14" s="16" t="s">
+      <c r="G14" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="H14" s="19" t="s">
+      <c r="H14" s="17" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="A15" s="19" t="s">
+      <c r="A15" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="B15" s="27">
+      <c r="B15" s="25">
         <v>1</v>
       </c>
-      <c r="C15" s="27">
-        <v>2</v>
-      </c>
-      <c r="D15" s="27">
+      <c r="C15" s="25">
+        <v>2</v>
+      </c>
+      <c r="D15" s="25">
         <v>5</v>
       </c>
-      <c r="E15" s="28">
+      <c r="E15" s="26">
         <f t="shared" si="0"/>
         <v>2.3333333333333335</v>
       </c>
-      <c r="F15" s="29">
+      <c r="F15" s="27">
         <f t="shared" si="1"/>
         <v>0.66666666666666663</v>
       </c>
-      <c r="G15" s="16">
+      <c r="G15" s="14">
         <v>13</v>
       </c>
-      <c r="H15" s="19" t="s">
+      <c r="H15" s="17" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="55.2" x14ac:dyDescent="0.3">
-      <c r="A16" s="19" t="s">
+      <c r="A16" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="B16" s="27">
-        <v>2</v>
-      </c>
-      <c r="C16" s="27">
-        <v>4</v>
-      </c>
-      <c r="D16" s="27">
+      <c r="B16" s="25">
+        <v>2</v>
+      </c>
+      <c r="C16" s="25">
+        <v>4</v>
+      </c>
+      <c r="D16" s="25">
         <v>6</v>
       </c>
-      <c r="E16" s="28">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="F16" s="29">
+      <c r="E16" s="26">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="F16" s="27">
         <f t="shared" si="1"/>
         <v>0.66666666666666663</v>
       </c>
-      <c r="G16" s="16">
+      <c r="G16" s="14">
         <v>11</v>
       </c>
-      <c r="H16" s="19" t="s">
+      <c r="H16" s="17" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="55.2" x14ac:dyDescent="0.3">
-      <c r="A17" s="19" t="s">
+      <c r="A17" s="17" t="s">
         <v>116</v>
       </c>
-      <c r="B17" s="27">
+      <c r="B17" s="25">
         <v>3</v>
       </c>
-      <c r="C17" s="27">
+      <c r="C17" s="25">
         <v>5</v>
       </c>
-      <c r="D17" s="27">
+      <c r="D17" s="25">
         <v>8</v>
       </c>
-      <c r="E17" s="28">
+      <c r="E17" s="26">
         <f t="shared" si="0"/>
         <v>5.166666666666667</v>
       </c>
-      <c r="F17" s="29">
+      <c r="F17" s="27">
         <f t="shared" si="1"/>
         <v>0.83333333333333337</v>
       </c>
-      <c r="G17" s="16">
+      <c r="G17" s="14">
         <v>15</v>
       </c>
-      <c r="H17" s="19" t="s">
+      <c r="H17" s="17" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="A18" s="19" t="s">
+      <c r="A18" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="B18" s="27">
-        <v>4</v>
-      </c>
-      <c r="C18" s="27">
+      <c r="B18" s="25">
+        <v>4</v>
+      </c>
+      <c r="C18" s="25">
         <v>6</v>
       </c>
-      <c r="D18" s="27">
+      <c r="D18" s="25">
         <v>9</v>
       </c>
-      <c r="E18" s="28">
+      <c r="E18" s="26">
         <f t="shared" si="0"/>
         <v>6.166666666666667</v>
       </c>
-      <c r="F18" s="29">
+      <c r="F18" s="27">
         <f t="shared" si="1"/>
         <v>0.83333333333333337</v>
       </c>
-      <c r="G18" s="16">
+      <c r="G18" s="14">
         <v>16</v>
       </c>
-      <c r="H18" s="19" t="s">
+      <c r="H18" s="17" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A19" s="19" t="s">
+      <c r="A19" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="B19" s="27">
+      <c r="B19" s="25">
         <v>3</v>
       </c>
-      <c r="C19" s="27">
+      <c r="C19" s="25">
         <v>5</v>
       </c>
-      <c r="D19" s="27">
+      <c r="D19" s="25">
         <v>7</v>
       </c>
-      <c r="E19" s="28">
+      <c r="E19" s="26">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="F19" s="29">
+      <c r="F19" s="27">
         <f t="shared" si="1"/>
         <v>0.66666666666666663</v>
       </c>
-      <c r="G19" s="16">
+      <c r="G19" s="14">
         <v>17</v>
       </c>
-      <c r="H19" s="19" t="s">
+      <c r="H19" s="17" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="A20" s="19" t="s">
+      <c r="A20" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="B20" s="27">
+      <c r="B20" s="25">
         <v>3</v>
       </c>
-      <c r="C20" s="27">
+      <c r="C20" s="25">
         <v>5</v>
       </c>
-      <c r="D20" s="27">
+      <c r="D20" s="25">
         <v>7</v>
       </c>
-      <c r="E20" s="28">
+      <c r="E20" s="26">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="F20" s="29">
+      <c r="F20" s="27">
         <f t="shared" si="1"/>
         <v>0.66666666666666663</v>
       </c>
-      <c r="G20" s="16">
+      <c r="G20" s="14">
         <v>13</v>
       </c>
-      <c r="H20" s="19" t="s">
+      <c r="H20" s="17" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="55.2" x14ac:dyDescent="0.3">
-      <c r="A21" s="19" t="s">
+      <c r="A21" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="B21" s="27">
-        <v>4</v>
-      </c>
-      <c r="C21" s="27">
+      <c r="B21" s="25">
+        <v>4</v>
+      </c>
+      <c r="C21" s="25">
         <v>6</v>
       </c>
-      <c r="D21" s="27">
+      <c r="D21" s="25">
         <v>8</v>
       </c>
-      <c r="E21" s="28">
+      <c r="E21" s="26">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="F21" s="29">
+      <c r="F21" s="27">
         <f t="shared" si="1"/>
         <v>0.66666666666666663</v>
       </c>
-      <c r="G21" s="16">
+      <c r="G21" s="14">
         <v>19</v>
       </c>
-      <c r="H21" s="19" t="s">
+      <c r="H21" s="17" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A22" s="19" t="s">
+      <c r="A22" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="B22" s="27">
-        <v>2</v>
-      </c>
-      <c r="C22" s="27">
+      <c r="B22" s="25">
+        <v>2</v>
+      </c>
+      <c r="C22" s="25">
         <v>3</v>
       </c>
-      <c r="D22" s="27">
+      <c r="D22" s="25">
         <v>5</v>
       </c>
-      <c r="E22" s="28">
+      <c r="E22" s="26">
         <f t="shared" si="0"/>
         <v>3.1666666666666665</v>
       </c>
-      <c r="F22" s="29">
+      <c r="F22" s="27">
         <f t="shared" si="1"/>
         <v>0.5</v>
       </c>
-      <c r="G22" s="16">
+      <c r="G22" s="14">
         <v>20</v>
       </c>
-      <c r="H22" s="19" t="s">
+      <c r="H22" s="17" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="55.2" x14ac:dyDescent="0.3">
-      <c r="A23" s="19" t="s">
+      <c r="A23" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="B23" s="27">
+      <c r="B23" s="25">
         <v>3</v>
       </c>
-      <c r="C23" s="27">
+      <c r="C23" s="25">
         <v>6</v>
       </c>
-      <c r="D23" s="27">
+      <c r="D23" s="25">
         <v>9</v>
       </c>
-      <c r="E23" s="28">
+      <c r="E23" s="26">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="F23" s="29">
+      <c r="F23" s="27">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="G23" s="16" t="s">
+      <c r="G23" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="H23" s="19" t="s">
+      <c r="H23" s="17" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="55.2" x14ac:dyDescent="0.3">
-      <c r="A24" s="19" t="s">
+      <c r="A24" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="B24" s="27">
+      <c r="B24" s="25">
         <v>6</v>
       </c>
-      <c r="C24" s="27">
+      <c r="C24" s="25">
         <v>10</v>
       </c>
-      <c r="D24" s="27">
+      <c r="D24" s="25">
         <v>15</v>
       </c>
-      <c r="E24" s="28">
+      <c r="E24" s="26">
         <f t="shared" si="0"/>
         <v>10.166666666666666</v>
       </c>
-      <c r="F24" s="29">
+      <c r="F24" s="27">
         <f t="shared" si="1"/>
         <v>1.5</v>
       </c>
-      <c r="G24" s="16">
+      <c r="G24" s="14">
         <v>22</v>
       </c>
-      <c r="H24" s="19" t="s">
+      <c r="H24" s="17" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="A25" s="19" t="s">
+      <c r="A25" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="B25" s="27">
+      <c r="B25" s="25">
         <v>3</v>
       </c>
-      <c r="C25" s="27">
+      <c r="C25" s="25">
         <v>5</v>
       </c>
-      <c r="D25" s="27">
+      <c r="D25" s="25">
         <v>8</v>
       </c>
-      <c r="E25" s="28">
+      <c r="E25" s="26">
         <f t="shared" si="0"/>
         <v>5.166666666666667</v>
       </c>
-      <c r="F25" s="29">
+      <c r="F25" s="27">
         <f t="shared" si="1"/>
         <v>0.83333333333333337</v>
       </c>
-      <c r="G25" s="16">
+      <c r="G25" s="14">
         <v>23</v>
       </c>
-      <c r="H25" s="19" t="s">
+      <c r="H25" s="17" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="55.2" x14ac:dyDescent="0.3">
-      <c r="A26" s="19" t="s">
+      <c r="A26" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="B26" s="27">
-        <v>2</v>
-      </c>
-      <c r="C26" s="27">
-        <v>4</v>
-      </c>
-      <c r="D26" s="27">
+      <c r="B26" s="25">
+        <v>2</v>
+      </c>
+      <c r="C26" s="25">
+        <v>4</v>
+      </c>
+      <c r="D26" s="25">
         <v>6</v>
       </c>
-      <c r="E26" s="28">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="F26" s="29">
+      <c r="E26" s="26">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="F26" s="27">
         <f t="shared" si="1"/>
         <v>0.66666666666666663</v>
       </c>
-      <c r="G26" s="16">
+      <c r="G26" s="14">
         <v>23</v>
       </c>
-      <c r="H26" s="19" t="s">
+      <c r="H26" s="17" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="55.2" x14ac:dyDescent="0.3">
-      <c r="A27" s="19" t="s">
+      <c r="A27" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="B27" s="27">
-        <v>4</v>
-      </c>
-      <c r="C27" s="27">
+      <c r="B27" s="25">
+        <v>4</v>
+      </c>
+      <c r="C27" s="25">
         <v>6</v>
       </c>
-      <c r="D27" s="27">
+      <c r="D27" s="25">
         <v>9</v>
       </c>
-      <c r="E27" s="28">
+      <c r="E27" s="26">
         <f t="shared" si="0"/>
         <v>6.166666666666667</v>
       </c>
-      <c r="F27" s="29">
+      <c r="F27" s="27">
         <f t="shared" si="1"/>
         <v>0.83333333333333337</v>
       </c>
-      <c r="G27" s="16" t="s">
+      <c r="G27" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="H27" s="19" t="s">
+      <c r="H27" s="17" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="82.8" x14ac:dyDescent="0.3">
-      <c r="A28" s="19" t="s">
+      <c r="A28" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="B28" s="27">
-        <v>2</v>
-      </c>
-      <c r="C28" s="27">
-        <v>4</v>
-      </c>
-      <c r="D28" s="27">
+      <c r="B28" s="25">
+        <v>2</v>
+      </c>
+      <c r="C28" s="25">
+        <v>4</v>
+      </c>
+      <c r="D28" s="25">
         <v>6</v>
       </c>
-      <c r="E28" s="28">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="F28" s="29">
+      <c r="E28" s="26">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="F28" s="27">
         <f t="shared" si="1"/>
         <v>0.66666666666666663</v>
       </c>
-      <c r="G28" s="16">
+      <c r="G28" s="14">
         <v>8</v>
       </c>
-      <c r="H28" s="19" t="s">
+      <c r="H28" s="17" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="69" x14ac:dyDescent="0.3">
-      <c r="A29" s="19" t="s">
+      <c r="A29" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="B29" s="27">
+      <c r="B29" s="25">
         <v>1</v>
       </c>
-      <c r="C29" s="27">
+      <c r="C29" s="25">
         <v>3</v>
       </c>
-      <c r="D29" s="27">
+      <c r="D29" s="25">
         <v>5</v>
       </c>
-      <c r="E29" s="28">
+      <c r="E29" s="26">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="F29" s="29">
+      <c r="F29" s="27">
         <f t="shared" si="1"/>
         <v>0.66666666666666663</v>
       </c>
-      <c r="G29" s="16">
+      <c r="G29" s="14">
         <v>27</v>
       </c>
-      <c r="H29" s="19" t="s">
+      <c r="H29" s="17" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="30" spans="1:8" ht="69" x14ac:dyDescent="0.3">
-      <c r="A30" s="19" t="s">
+      <c r="A30" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="B30" s="27">
-        <v>2</v>
-      </c>
-      <c r="C30" s="27">
-        <v>4</v>
-      </c>
-      <c r="D30" s="27">
+      <c r="B30" s="25">
+        <v>2</v>
+      </c>
+      <c r="C30" s="25">
+        <v>4</v>
+      </c>
+      <c r="D30" s="25">
         <v>7</v>
       </c>
-      <c r="E30" s="28">
+      <c r="E30" s="26">
         <f t="shared" si="0"/>
         <v>4.166666666666667</v>
       </c>
-      <c r="F30" s="29">
+      <c r="F30" s="27">
         <f t="shared" si="1"/>
         <v>0.83333333333333337</v>
       </c>
-      <c r="G30" s="16">
+      <c r="G30" s="14">
         <v>28</v>
       </c>
-      <c r="H30" s="19" t="s">
+      <c r="H30" s="17" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="31" spans="1:8" ht="69" x14ac:dyDescent="0.3">
-      <c r="A31" s="19" t="s">
+      <c r="A31" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="B31" s="27">
+      <c r="B31" s="25">
         <v>1</v>
       </c>
-      <c r="C31" s="27">
-        <v>2</v>
-      </c>
-      <c r="D31" s="27">
-        <v>4</v>
-      </c>
-      <c r="E31" s="28">
+      <c r="C31" s="25">
+        <v>2</v>
+      </c>
+      <c r="D31" s="25">
+        <v>4</v>
+      </c>
+      <c r="E31" s="26">
         <f t="shared" si="0"/>
         <v>2.1666666666666665</v>
       </c>
-      <c r="F31" s="29">
+      <c r="F31" s="27">
         <f t="shared" si="1"/>
         <v>0.5</v>
       </c>
-      <c r="G31" s="16">
+      <c r="G31" s="14">
         <v>8</v>
       </c>
-      <c r="H31" s="19" t="s">
+      <c r="H31" s="17" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="32" spans="1:8" ht="55.2" x14ac:dyDescent="0.3">
-      <c r="A32" s="19" t="s">
+      <c r="A32" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="B32" s="27">
-        <v>2</v>
-      </c>
-      <c r="C32" s="27">
-        <v>4</v>
-      </c>
-      <c r="D32" s="27">
+      <c r="B32" s="25">
+        <v>2</v>
+      </c>
+      <c r="C32" s="25">
+        <v>4</v>
+      </c>
+      <c r="D32" s="25">
         <v>6</v>
       </c>
-      <c r="E32" s="28">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="F32" s="29">
+      <c r="E32" s="26">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="F32" s="27">
         <f t="shared" si="1"/>
         <v>0.66666666666666663</v>
       </c>
-      <c r="G32" s="16">
+      <c r="G32" s="14">
         <v>30</v>
       </c>
-      <c r="H32" s="19" t="s">
+      <c r="H32" s="17" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="33" spans="1:8" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A33" s="19" t="s">
+      <c r="A33" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="B33" s="27">
+      <c r="B33" s="25">
         <v>1</v>
       </c>
-      <c r="C33" s="27">
-        <v>2</v>
-      </c>
-      <c r="D33" s="27">
-        <v>4</v>
-      </c>
-      <c r="E33" s="28">
+      <c r="C33" s="25">
+        <v>2</v>
+      </c>
+      <c r="D33" s="25">
+        <v>4</v>
+      </c>
+      <c r="E33" s="26">
         <f t="shared" si="0"/>
         <v>2.1666666666666665</v>
       </c>
-      <c r="F33" s="29">
+      <c r="F33" s="27">
         <f t="shared" si="1"/>
         <v>0.5</v>
       </c>
-      <c r="G33" s="16">
+      <c r="G33" s="14">
         <v>31</v>
       </c>
-      <c r="H33" s="19" t="s">
+      <c r="H33" s="17" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="34" spans="1:8" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="A34" s="19" t="s">
+      <c r="A34" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="B34" s="27">
+      <c r="B34" s="25">
         <v>1</v>
       </c>
-      <c r="C34" s="27">
+      <c r="C34" s="25">
         <v>3</v>
       </c>
-      <c r="D34" s="27">
+      <c r="D34" s="25">
         <v>5</v>
       </c>
-      <c r="E34" s="28">
+      <c r="E34" s="26">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="F34" s="29">
+      <c r="F34" s="27">
         <f t="shared" si="1"/>
         <v>0.66666666666666663</v>
       </c>
-      <c r="G34" s="16">
+      <c r="G34" s="14">
         <v>29</v>
       </c>
-      <c r="H34" s="19" t="s">
+      <c r="H34" s="17" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="35" spans="1:8" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="A35" s="19" t="s">
+      <c r="A35" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="B35" s="27">
+      <c r="B35" s="25">
         <v>3</v>
       </c>
-      <c r="C35" s="27">
+      <c r="C35" s="25">
         <v>5</v>
       </c>
-      <c r="D35" s="27">
+      <c r="D35" s="25">
         <v>8</v>
       </c>
-      <c r="E35" s="28">
+      <c r="E35" s="26">
         <f t="shared" si="0"/>
         <v>5.166666666666667</v>
       </c>
-      <c r="F35" s="29">
+      <c r="F35" s="27">
         <f t="shared" si="1"/>
         <v>0.83333333333333337</v>
       </c>
-      <c r="G35" s="16">
+      <c r="G35" s="14">
         <v>33</v>
       </c>
-      <c r="H35" s="19" t="s">
+      <c r="H35" s="17" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="36" spans="1:8" ht="55.2" x14ac:dyDescent="0.3">
-      <c r="A36" s="19" t="s">
+      <c r="A36" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="B36" s="27">
-        <v>2</v>
-      </c>
-      <c r="C36" s="27">
-        <v>4</v>
-      </c>
-      <c r="D36" s="27">
+      <c r="B36" s="25">
+        <v>2</v>
+      </c>
+      <c r="C36" s="25">
+        <v>4</v>
+      </c>
+      <c r="D36" s="25">
         <v>6</v>
       </c>
-      <c r="E36" s="28">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="F36" s="29">
+      <c r="E36" s="26">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="F36" s="27">
         <f t="shared" si="1"/>
         <v>0.66666666666666663</v>
       </c>
-      <c r="G36" s="16" t="s">
+      <c r="G36" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="H36" s="19" t="s">
+      <c r="H36" s="17" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="37" spans="1:8" ht="69" x14ac:dyDescent="0.3">
-      <c r="A37" s="19" t="s">
+      <c r="A37" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="B37" s="27">
-        <v>2</v>
-      </c>
-      <c r="C37" s="27">
-        <v>4</v>
-      </c>
-      <c r="D37" s="27">
+      <c r="B37" s="25">
+        <v>2</v>
+      </c>
+      <c r="C37" s="25">
+        <v>4</v>
+      </c>
+      <c r="D37" s="25">
         <v>6</v>
       </c>
-      <c r="E37" s="28">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="F37" s="29">
+      <c r="E37" s="26">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="F37" s="27">
         <f t="shared" si="1"/>
         <v>0.66666666666666663</v>
       </c>
-      <c r="G37" s="16">
+      <c r="G37" s="14">
         <v>35</v>
       </c>
-      <c r="H37" s="19" t="s">
+      <c r="H37" s="17" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="38" spans="1:8" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="A38" s="19" t="s">
+      <c r="A38" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="B38" s="27">
-        <v>2</v>
-      </c>
-      <c r="C38" s="27">
+      <c r="B38" s="25">
+        <v>2</v>
+      </c>
+      <c r="C38" s="25">
         <v>3</v>
       </c>
-      <c r="D38" s="27">
+      <c r="D38" s="25">
         <v>5</v>
       </c>
-      <c r="E38" s="28">
+      <c r="E38" s="26">
         <f t="shared" si="0"/>
         <v>3.1666666666666665</v>
       </c>
-      <c r="F38" s="29">
+      <c r="F38" s="27">
         <f t="shared" si="1"/>
         <v>0.5</v>
       </c>
-      <c r="G38" s="16">
+      <c r="G38" s="14">
         <v>36</v>
       </c>
-      <c r="H38" s="19" t="s">
+      <c r="H38" s="17" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="39" spans="1:8" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="A39" s="19" t="s">
+      <c r="A39" s="17" t="s">
         <v>117</v>
       </c>
-      <c r="B39" s="27">
+      <c r="B39" s="25">
         <v>3</v>
       </c>
-      <c r="C39" s="27">
+      <c r="C39" s="25">
         <v>5</v>
       </c>
-      <c r="D39" s="27">
+      <c r="D39" s="25">
         <v>7</v>
       </c>
-      <c r="E39" s="28">
+      <c r="E39" s="26">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="F39" s="29">
+      <c r="F39" s="27">
         <f t="shared" si="1"/>
         <v>0.66666666666666663</v>
       </c>
-      <c r="G39" s="16" t="s">
+      <c r="G39" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="H39" s="19" t="s">
+      <c r="H39" s="17" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="40" spans="1:8" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="A40" s="19" t="s">
+      <c r="A40" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="B40" s="27">
+      <c r="B40" s="25">
         <v>1</v>
       </c>
-      <c r="C40" s="27">
-        <v>2</v>
-      </c>
-      <c r="D40" s="27">
-        <v>4</v>
-      </c>
-      <c r="E40" s="28">
+      <c r="C40" s="25">
+        <v>2</v>
+      </c>
+      <c r="D40" s="25">
+        <v>4</v>
+      </c>
+      <c r="E40" s="26">
         <f t="shared" si="0"/>
         <v>2.1666666666666665</v>
       </c>
-      <c r="F40" s="29">
+      <c r="F40" s="27">
         <f t="shared" si="1"/>
         <v>0.5</v>
       </c>
-      <c r="G40" s="16">
+      <c r="G40" s="14">
         <v>38</v>
       </c>
-      <c r="H40" s="19" t="s">
+      <c r="H40" s="17" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="41" spans="1:8" ht="69" x14ac:dyDescent="0.3">
-      <c r="A41" s="19" t="s">
+      <c r="A41" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="B41" s="27">
-        <v>2</v>
-      </c>
-      <c r="C41" s="27">
+      <c r="B41" s="25">
+        <v>2</v>
+      </c>
+      <c r="C41" s="25">
         <v>3</v>
       </c>
-      <c r="D41" s="27">
+      <c r="D41" s="25">
         <v>5</v>
       </c>
-      <c r="E41" s="28">
+      <c r="E41" s="26">
         <f t="shared" si="0"/>
         <v>3.1666666666666665</v>
       </c>
-      <c r="F41" s="29">
+      <c r="F41" s="27">
         <f t="shared" si="1"/>
         <v>0.5</v>
       </c>
-      <c r="G41" s="16" t="s">
+      <c r="G41" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="H41" s="19" t="s">
+      <c r="H41" s="17" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="42" spans="1:8" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="A42" s="19" t="s">
+      <c r="A42" s="17" t="s">
         <v>118</v>
       </c>
-      <c r="B42" s="27">
+      <c r="B42" s="25">
         <v>1</v>
       </c>
-      <c r="C42" s="27">
-        <v>2</v>
-      </c>
-      <c r="D42" s="27">
-        <v>4</v>
-      </c>
-      <c r="E42" s="28">
+      <c r="C42" s="25">
+        <v>2</v>
+      </c>
+      <c r="D42" s="25">
+        <v>4</v>
+      </c>
+      <c r="E42" s="26">
         <f t="shared" si="0"/>
         <v>2.1666666666666665</v>
       </c>
-      <c r="F42" s="29">
+      <c r="F42" s="27">
         <f t="shared" si="1"/>
         <v>0.5</v>
       </c>
-      <c r="G42" s="16">
+      <c r="G42" s="14">
         <v>40</v>
       </c>
-      <c r="H42" s="19" t="s">
+      <c r="H42" s="17" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="43" spans="1:8" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A43" s="19" t="s">
+      <c r="A43" s="17" t="s">
         <v>48</v>
       </c>
-      <c r="B43" s="27">
-        <v>2</v>
-      </c>
-      <c r="C43" s="27">
-        <v>4</v>
-      </c>
-      <c r="D43" s="27">
+      <c r="B43" s="25">
+        <v>2</v>
+      </c>
+      <c r="C43" s="25">
+        <v>4</v>
+      </c>
+      <c r="D43" s="25">
         <v>6</v>
       </c>
-      <c r="E43" s="28">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="F43" s="29">
+      <c r="E43" s="26">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="F43" s="27">
         <f t="shared" si="1"/>
         <v>0.66666666666666663</v>
       </c>
-      <c r="G43" s="16">
+      <c r="G43" s="14">
         <v>41</v>
       </c>
-      <c r="H43" s="19" t="s">
+      <c r="H43" s="17" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="44" spans="1:8" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="A44" s="19" t="s">
+      <c r="A44" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="B44" s="27">
-        <v>2</v>
-      </c>
-      <c r="C44" s="27">
+      <c r="B44" s="25">
+        <v>2</v>
+      </c>
+      <c r="C44" s="25">
         <v>3</v>
       </c>
-      <c r="D44" s="27">
+      <c r="D44" s="25">
         <v>5</v>
       </c>
-      <c r="E44" s="28">
+      <c r="E44" s="26">
         <f t="shared" si="0"/>
         <v>3.1666666666666665</v>
       </c>
-      <c r="F44" s="29">
+      <c r="F44" s="27">
         <f t="shared" si="1"/>
         <v>0.5</v>
       </c>
-      <c r="G44" s="16">
+      <c r="G44" s="14">
         <v>42</v>
       </c>
-      <c r="H44" s="19" t="s">
+      <c r="H44" s="17" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="45" spans="1:8" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="A45" s="19" t="s">
+      <c r="A45" s="17" t="s">
         <v>122</v>
       </c>
-      <c r="B45" s="27">
+      <c r="B45" s="25">
         <v>3</v>
       </c>
-      <c r="C45" s="27">
+      <c r="C45" s="25">
         <v>5</v>
       </c>
-      <c r="D45" s="27">
+      <c r="D45" s="25">
         <v>7</v>
       </c>
-      <c r="E45" s="28">
+      <c r="E45" s="26">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="F45" s="29">
+      <c r="F45" s="27">
         <f t="shared" si="1"/>
         <v>0.66666666666666663</v>
       </c>
-      <c r="G45" s="16">
+      <c r="G45" s="14">
         <v>43</v>
       </c>
-      <c r="H45" s="19" t="s">
+      <c r="H45" s="17" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="46" spans="1:8" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="A46" s="19" t="s">
+      <c r="A46" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="B46" s="27">
+      <c r="B46" s="25">
         <v>3</v>
       </c>
-      <c r="C46" s="27">
+      <c r="C46" s="25">
         <v>5</v>
       </c>
-      <c r="D46" s="27">
+      <c r="D46" s="25">
         <v>8</v>
       </c>
-      <c r="E46" s="28">
+      <c r="E46" s="26">
         <f t="shared" si="0"/>
         <v>5.166666666666667</v>
       </c>
-      <c r="F46" s="29">
+      <c r="F46" s="27">
         <f t="shared" si="1"/>
         <v>0.83333333333333337</v>
       </c>
-      <c r="G46" s="16">
+      <c r="G46" s="14">
         <v>43</v>
       </c>
-      <c r="H46" s="19" t="s">
+      <c r="H46" s="17" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="47" spans="1:8" ht="55.2" x14ac:dyDescent="0.3">
-      <c r="A47" s="19" t="s">
+      <c r="A47" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="B47" s="27">
+      <c r="B47" s="25">
         <v>1</v>
       </c>
-      <c r="C47" s="27">
-        <v>2</v>
-      </c>
-      <c r="D47" s="27">
-        <v>4</v>
-      </c>
-      <c r="E47" s="28">
+      <c r="C47" s="25">
+        <v>2</v>
+      </c>
+      <c r="D47" s="25">
+        <v>4</v>
+      </c>
+      <c r="E47" s="26">
         <f t="shared" si="0"/>
         <v>2.1666666666666665</v>
       </c>
-      <c r="F47" s="29">
+      <c r="F47" s="27">
         <f t="shared" si="1"/>
         <v>0.5</v>
       </c>
-      <c r="G47" s="16">
+      <c r="G47" s="14">
         <v>43</v>
       </c>
-      <c r="H47" s="19" t="s">
+      <c r="H47" s="17" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="48" spans="1:8" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A48" s="19" t="s">
+      <c r="A48" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="B48" s="27">
-        <v>4</v>
-      </c>
-      <c r="C48" s="27">
+      <c r="B48" s="25">
+        <v>4</v>
+      </c>
+      <c r="C48" s="25">
         <v>6</v>
       </c>
-      <c r="D48" s="27">
+      <c r="D48" s="25">
         <v>9</v>
       </c>
-      <c r="E48" s="28">
+      <c r="E48" s="26">
         <f t="shared" si="0"/>
         <v>6.166666666666667</v>
       </c>
-      <c r="F48" s="29">
+      <c r="F48" s="27">
         <f t="shared" si="1"/>
         <v>0.83333333333333337</v>
       </c>
-      <c r="G48" s="16" t="s">
+      <c r="G48" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="H48" s="19" t="s">
+      <c r="H48" s="17" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="49" spans="1:8" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A49" s="19" t="s">
+      <c r="A49" s="17" t="s">
         <v>54</v>
       </c>
-      <c r="B49" s="27">
+      <c r="B49" s="25">
         <v>5</v>
       </c>
-      <c r="C49" s="27">
+      <c r="C49" s="25">
         <v>8</v>
       </c>
-      <c r="D49" s="27">
+      <c r="D49" s="25">
         <v>12</v>
       </c>
-      <c r="E49" s="28">
+      <c r="E49" s="26">
         <f t="shared" si="0"/>
         <v>8.1666666666666661</v>
       </c>
-      <c r="F49" s="29">
+      <c r="F49" s="27">
         <f t="shared" si="1"/>
         <v>1.1666666666666667</v>
       </c>
-      <c r="G49" s="16" t="s">
+      <c r="G49" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="H49" s="16" t="s">
+      <c r="H49" s="14" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="50" spans="1:8" ht="69" x14ac:dyDescent="0.3">
-      <c r="A50" s="19" t="s">
+      <c r="A50" s="17" t="s">
         <v>56</v>
       </c>
-      <c r="B50" s="27">
+      <c r="B50" s="25">
         <v>5</v>
       </c>
-      <c r="C50" s="27">
+      <c r="C50" s="25">
         <v>9</v>
       </c>
-      <c r="D50" s="27">
+      <c r="D50" s="25">
         <v>13</v>
       </c>
-      <c r="E50" s="28">
+      <c r="E50" s="26">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="F50" s="29">
+      <c r="F50" s="27">
         <f t="shared" si="1"/>
         <v>1.3333333333333333</v>
       </c>
-      <c r="G50" s="16" t="s">
+      <c r="G50" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="H50" s="16" t="s">
+      <c r="H50" s="14" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="51" spans="1:8" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="A51" s="19" t="s">
+      <c r="A51" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="B51" s="27">
+      <c r="B51" s="25">
         <v>3</v>
       </c>
-      <c r="C51" s="27">
+      <c r="C51" s="25">
         <v>5</v>
       </c>
-      <c r="D51" s="27">
+      <c r="D51" s="25">
         <v>8</v>
       </c>
-      <c r="E51" s="28">
+      <c r="E51" s="26">
         <f t="shared" si="0"/>
         <v>5.166666666666667</v>
       </c>
-      <c r="F51" s="29">
+      <c r="F51" s="27">
         <f t="shared" si="1"/>
         <v>0.83333333333333337</v>
       </c>
-      <c r="G51" s="16" t="s">
+      <c r="G51" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="H51" s="16" t="s">
+      <c r="H51" s="14" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="52" spans="1:8" ht="55.2" x14ac:dyDescent="0.3">
-      <c r="A52" s="19" t="s">
+      <c r="A52" s="17" t="s">
         <v>59</v>
       </c>
-      <c r="B52" s="27">
+      <c r="B52" s="25">
         <v>1</v>
       </c>
-      <c r="C52" s="27">
-        <v>2</v>
-      </c>
-      <c r="D52" s="27">
-        <v>4</v>
-      </c>
-      <c r="E52" s="28">
+      <c r="C52" s="25">
+        <v>2</v>
+      </c>
+      <c r="D52" s="25">
+        <v>4</v>
+      </c>
+      <c r="E52" s="26">
         <f t="shared" si="0"/>
         <v>2.1666666666666665</v>
       </c>
-      <c r="F52" s="29">
+      <c r="F52" s="27">
         <f t="shared" si="1"/>
         <v>0.5</v>
       </c>
-      <c r="G52" s="16">
+      <c r="G52" s="14">
         <v>50</v>
       </c>
-      <c r="H52" s="16" t="s">
+      <c r="H52" s="14" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="53" spans="1:8" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="A53" s="19" t="s">
+      <c r="A53" s="17" t="s">
         <v>60</v>
       </c>
-      <c r="B53" s="27">
+      <c r="B53" s="25">
         <v>1</v>
       </c>
-      <c r="C53" s="27">
-        <v>2</v>
-      </c>
-      <c r="D53" s="27">
+      <c r="C53" s="25">
+        <v>2</v>
+      </c>
+      <c r="D53" s="25">
         <v>3</v>
       </c>
-      <c r="E53" s="28">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="F53" s="29">
+      <c r="E53" s="26">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="F53" s="27">
         <f t="shared" si="1"/>
         <v>0.33333333333333331</v>
       </c>
-      <c r="G53" s="16">
+      <c r="G53" s="14">
         <v>51</v>
       </c>
-      <c r="H53" s="16" t="s">
+      <c r="H53" s="14" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="54" spans="1:8" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="A54" s="19" t="s">
+      <c r="A54" s="17" t="s">
         <v>61</v>
       </c>
-      <c r="B54" s="27">
+      <c r="B54" s="25">
         <v>1</v>
       </c>
-      <c r="C54" s="27">
-        <v>2</v>
-      </c>
-      <c r="D54" s="27">
-        <v>4</v>
-      </c>
-      <c r="E54" s="28">
+      <c r="C54" s="25">
+        <v>2</v>
+      </c>
+      <c r="D54" s="25">
+        <v>4</v>
+      </c>
+      <c r="E54" s="26">
         <f t="shared" si="0"/>
         <v>2.1666666666666665</v>
       </c>
-      <c r="F54" s="29">
+      <c r="F54" s="27">
         <f t="shared" si="1"/>
         <v>0.5</v>
       </c>
-      <c r="G54" s="16">
+      <c r="G54" s="14">
         <v>52</v>
       </c>
-      <c r="H54" s="16" t="s">
+      <c r="H54" s="14" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="55" spans="1:8" ht="69" x14ac:dyDescent="0.3">
-      <c r="A55" s="19" t="s">
+      <c r="A55" s="17" t="s">
         <v>62</v>
       </c>
-      <c r="B55" s="27">
-        <v>2</v>
-      </c>
-      <c r="C55" s="27">
+      <c r="B55" s="25">
+        <v>2</v>
+      </c>
+      <c r="C55" s="25">
         <v>3</v>
       </c>
-      <c r="D55" s="27">
+      <c r="D55" s="25">
         <v>5</v>
       </c>
-      <c r="E55" s="28">
+      <c r="E55" s="26">
         <f t="shared" si="0"/>
         <v>3.1666666666666665</v>
       </c>
-      <c r="F55" s="29">
+      <c r="F55" s="27">
         <f t="shared" si="1"/>
         <v>0.5</v>
       </c>
-      <c r="G55" s="16">
+      <c r="G55" s="14">
         <v>53</v>
       </c>
-      <c r="H55" s="16" t="s">
+      <c r="H55" s="14" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="56" spans="1:8" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A56" s="19" t="s">
+      <c r="A56" s="17" t="s">
         <v>63</v>
       </c>
-      <c r="B56" s="27">
+      <c r="B56" s="25">
         <v>3</v>
       </c>
-      <c r="C56" s="27">
+      <c r="C56" s="25">
         <v>5</v>
       </c>
-      <c r="D56" s="27">
+      <c r="D56" s="25">
         <v>8</v>
       </c>
-      <c r="E56" s="28">
+      <c r="E56" s="26">
         <f t="shared" si="0"/>
         <v>5.166666666666667</v>
       </c>
-      <c r="F56" s="29">
+      <c r="F56" s="27">
         <f t="shared" si="1"/>
         <v>0.83333333333333337</v>
       </c>
-      <c r="G56" s="16">
+      <c r="G56" s="14">
         <v>54</v>
       </c>
-      <c r="H56" s="16" t="s">
+      <c r="H56" s="14" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="57" spans="1:8" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A57" s="19" t="s">
+      <c r="A57" s="17" t="s">
         <v>64</v>
       </c>
-      <c r="B57" s="27">
+      <c r="B57" s="25">
         <v>1</v>
       </c>
-      <c r="C57" s="27">
+      <c r="C57" s="25">
         <v>3</v>
       </c>
-      <c r="D57" s="27">
+      <c r="D57" s="25">
         <v>5</v>
       </c>
-      <c r="E57" s="28">
+      <c r="E57" s="26">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="F57" s="29">
+      <c r="F57" s="27">
         <f t="shared" si="1"/>
         <v>0.66666666666666663</v>
       </c>
-      <c r="G57" s="16">
+      <c r="G57" s="14">
         <v>55</v>
       </c>
-      <c r="H57" s="16" t="s">
+      <c r="H57" s="14" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="58" spans="1:8" ht="55.2" x14ac:dyDescent="0.3">
-      <c r="A58" s="19" t="s">
+      <c r="A58" s="17" t="s">
         <v>65</v>
       </c>
-      <c r="B58" s="27">
+      <c r="B58" s="25">
         <v>1</v>
       </c>
-      <c r="C58" s="27">
-        <v>2</v>
-      </c>
-      <c r="D58" s="27">
-        <v>4</v>
-      </c>
-      <c r="E58" s="28">
+      <c r="C58" s="25">
+        <v>2</v>
+      </c>
+      <c r="D58" s="25">
+        <v>4</v>
+      </c>
+      <c r="E58" s="26">
         <f t="shared" si="0"/>
         <v>2.1666666666666665</v>
       </c>
-      <c r="F58" s="29">
+      <c r="F58" s="27">
         <f t="shared" si="1"/>
         <v>0.5</v>
       </c>
-      <c r="G58" s="16">
+      <c r="G58" s="14">
         <v>56</v>
       </c>
-      <c r="H58" s="16" t="s">
+      <c r="H58" s="14" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="59" spans="1:8" ht="55.2" x14ac:dyDescent="0.3">
-      <c r="A59" s="19" t="s">
+      <c r="A59" s="17" t="s">
         <v>66</v>
       </c>
-      <c r="B59" s="27">
-        <v>2</v>
-      </c>
-      <c r="C59" s="27">
+      <c r="B59" s="25">
+        <v>2</v>
+      </c>
+      <c r="C59" s="25">
         <v>3</v>
       </c>
-      <c r="D59" s="27">
+      <c r="D59" s="25">
         <v>5</v>
       </c>
-      <c r="E59" s="28">
+      <c r="E59" s="26">
         <f t="shared" si="0"/>
         <v>3.1666666666666665</v>
       </c>
-      <c r="F59" s="29">
+      <c r="F59" s="27">
         <f t="shared" si="1"/>
         <v>0.5</v>
       </c>
-      <c r="G59" s="16">
+      <c r="G59" s="14">
         <v>57</v>
       </c>
-      <c r="H59" s="16" t="s">
+      <c r="H59" s="14" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="60" spans="1:8" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="A60" s="19" t="s">
+      <c r="A60" s="17" t="s">
         <v>67</v>
       </c>
-      <c r="B60" s="27">
-        <v>2</v>
-      </c>
-      <c r="C60" s="27">
-        <v>4</v>
-      </c>
-      <c r="D60" s="27">
+      <c r="B60" s="25">
+        <v>2</v>
+      </c>
+      <c r="C60" s="25">
+        <v>4</v>
+      </c>
+      <c r="D60" s="25">
         <v>6</v>
       </c>
-      <c r="E60" s="28">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="F60" s="29">
+      <c r="E60" s="26">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="F60" s="27">
         <f t="shared" si="1"/>
         <v>0.66666666666666663</v>
       </c>
-      <c r="G60" s="16">
+      <c r="G60" s="14">
         <v>58</v>
       </c>
-      <c r="H60" s="16" t="s">
+      <c r="H60" s="14" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="61" spans="1:8" ht="55.2" x14ac:dyDescent="0.3">
-      <c r="A61" s="19" t="s">
+      <c r="A61" s="17" t="s">
         <v>68</v>
       </c>
-      <c r="B61" s="27">
+      <c r="B61" s="25">
         <v>3</v>
       </c>
-      <c r="C61" s="27">
+      <c r="C61" s="25">
         <v>5</v>
       </c>
-      <c r="D61" s="27">
+      <c r="D61" s="25">
         <v>7</v>
       </c>
-      <c r="E61" s="28">
+      <c r="E61" s="26">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="F61" s="29">
+      <c r="F61" s="27">
         <f t="shared" si="1"/>
         <v>0.66666666666666663</v>
       </c>
-      <c r="G61" s="16">
+      <c r="G61" s="14">
         <v>57</v>
       </c>
-      <c r="H61" s="16" t="s">
+      <c r="H61" s="14" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="62" spans="1:8" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A62" s="19" t="s">
+      <c r="A62" s="17" t="s">
         <v>69</v>
       </c>
-      <c r="B62" s="27">
-        <v>2</v>
-      </c>
-      <c r="C62" s="27">
-        <v>4</v>
-      </c>
-      <c r="D62" s="27">
+      <c r="B62" s="25">
+        <v>2</v>
+      </c>
+      <c r="C62" s="25">
+        <v>4</v>
+      </c>
+      <c r="D62" s="25">
         <v>6</v>
       </c>
-      <c r="E62" s="28">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="F62" s="29">
+      <c r="E62" s="26">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="F62" s="27">
         <f t="shared" si="1"/>
         <v>0.66666666666666663</v>
       </c>
-      <c r="G62" s="16">
+      <c r="G62" s="14">
         <v>60</v>
       </c>
-      <c r="H62" s="16" t="s">
+      <c r="H62" s="14" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="63" spans="1:8" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="A63" s="19" t="s">
+      <c r="A63" s="17" t="s">
         <v>70</v>
       </c>
-      <c r="B63" s="27">
+      <c r="B63" s="25">
         <v>1</v>
       </c>
-      <c r="C63" s="27">
-        <v>2</v>
-      </c>
-      <c r="D63" s="27">
-        <v>4</v>
-      </c>
-      <c r="E63" s="28">
+      <c r="C63" s="25">
+        <v>2</v>
+      </c>
+      <c r="D63" s="25">
+        <v>4</v>
+      </c>
+      <c r="E63" s="26">
         <f t="shared" si="0"/>
         <v>2.1666666666666665</v>
       </c>
-      <c r="F63" s="29">
+      <c r="F63" s="27">
         <f t="shared" si="1"/>
         <v>0.5</v>
       </c>
-      <c r="G63" s="16">
+      <c r="G63" s="14">
         <v>61</v>
       </c>
-      <c r="H63" s="16" t="s">
+      <c r="H63" s="14" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="64" spans="1:8" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="A64" s="19" t="s">
+      <c r="A64" s="17" t="s">
         <v>71</v>
       </c>
-      <c r="B64" s="27">
+      <c r="B64" s="25">
         <v>0.5</v>
       </c>
-      <c r="C64" s="27">
+      <c r="C64" s="25">
         <v>1</v>
       </c>
-      <c r="D64" s="27">
-        <v>2</v>
-      </c>
-      <c r="E64" s="28">
+      <c r="D64" s="25">
+        <v>2</v>
+      </c>
+      <c r="E64" s="26">
         <f t="shared" si="0"/>
         <v>1.0833333333333333</v>
       </c>
-      <c r="F64" s="29">
+      <c r="F64" s="27">
         <f t="shared" si="1"/>
         <v>0.25</v>
       </c>
-      <c r="G64" s="16" t="s">
+      <c r="G64" s="14" t="s">
         <v>72</v>
       </c>
-      <c r="H64" s="16" t="s">
+      <c r="H64" s="14" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="65" spans="1:8" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="A65" s="19" t="s">
+      <c r="A65" s="17" t="s">
         <v>73</v>
       </c>
-      <c r="B65" s="27">
-        <v>2</v>
-      </c>
-      <c r="C65" s="27">
+      <c r="B65" s="25">
+        <v>2</v>
+      </c>
+      <c r="C65" s="25">
         <v>3</v>
       </c>
-      <c r="D65" s="27">
+      <c r="D65" s="25">
         <v>5</v>
       </c>
-      <c r="E65" s="28">
+      <c r="E65" s="26">
         <f t="shared" si="0"/>
         <v>3.1666666666666665</v>
       </c>
-      <c r="F65" s="29">
+      <c r="F65" s="27">
         <f t="shared" si="1"/>
         <v>0.5</v>
       </c>
-      <c r="G65" s="16">
+      <c r="G65" s="14">
         <v>63</v>
       </c>
-      <c r="H65" s="16" t="s">
+      <c r="H65" s="14" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="66" spans="1:8" ht="55.2" x14ac:dyDescent="0.3">
-      <c r="A66" s="19" t="s">
+      <c r="A66" s="17" t="s">
         <v>74</v>
       </c>
-      <c r="B66" s="27">
+      <c r="B66" s="25">
         <v>1</v>
       </c>
-      <c r="C66" s="27">
-        <v>2</v>
-      </c>
-      <c r="D66" s="27">
+      <c r="C66" s="25">
+        <v>2</v>
+      </c>
+      <c r="D66" s="25">
         <v>3</v>
       </c>
-      <c r="E66" s="28">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="F66" s="29">
+      <c r="E66" s="26">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="F66" s="27">
         <f t="shared" si="1"/>
         <v>0.33333333333333331</v>
       </c>
-      <c r="G66" s="16">
+      <c r="G66" s="14">
         <v>64</v>
       </c>
-      <c r="H66" s="16" t="s">
+      <c r="H66" s="14" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="67" spans="1:8" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="A67" s="19" t="s">
+      <c r="A67" s="17" t="s">
         <v>75</v>
       </c>
-      <c r="B67" s="27">
-        <v>2</v>
-      </c>
-      <c r="C67" s="27">
-        <v>4</v>
-      </c>
-      <c r="D67" s="27">
+      <c r="B67" s="25">
+        <v>2</v>
+      </c>
+      <c r="C67" s="25">
+        <v>4</v>
+      </c>
+      <c r="D67" s="25">
         <v>6</v>
       </c>
-      <c r="E67" s="28">
+      <c r="E67" s="26">
         <f t="shared" ref="E67:E70" si="2">(B67+4*C67+D67)/6</f>
         <v>4</v>
       </c>
-      <c r="F67" s="29">
+      <c r="F67" s="27">
         <f t="shared" ref="F67:F70" si="3">(D67-B67)/6</f>
         <v>0.66666666666666663</v>
       </c>
-      <c r="G67" s="16">
+      <c r="G67" s="14">
         <v>65</v>
       </c>
-      <c r="H67" s="16" t="s">
+      <c r="H67" s="14" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="68" spans="1:8" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="A68" s="19" t="s">
+      <c r="A68" s="17" t="s">
         <v>76</v>
       </c>
-      <c r="B68" s="27">
+      <c r="B68" s="25">
         <v>1</v>
       </c>
-      <c r="C68" s="27">
-        <v>2</v>
-      </c>
-      <c r="D68" s="27">
+      <c r="C68" s="25">
+        <v>2</v>
+      </c>
+      <c r="D68" s="25">
         <v>3</v>
       </c>
-      <c r="E68" s="28">
+      <c r="E68" s="26">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="F68" s="29">
+      <c r="F68" s="27">
         <f t="shared" si="3"/>
         <v>0.33333333333333331</v>
       </c>
-      <c r="G68" s="16">
+      <c r="G68" s="14">
         <v>66</v>
       </c>
-      <c r="H68" s="16" t="s">
+      <c r="H68" s="14" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="69" spans="1:8" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="A69" s="19" t="s">
+      <c r="A69" s="17" t="s">
         <v>77</v>
       </c>
-      <c r="B69" s="27">
+      <c r="B69" s="25">
         <v>1</v>
       </c>
-      <c r="C69" s="27">
-        <v>2</v>
-      </c>
-      <c r="D69" s="27">
-        <v>4</v>
-      </c>
-      <c r="E69" s="28">
+      <c r="C69" s="25">
+        <v>2</v>
+      </c>
+      <c r="D69" s="25">
+        <v>4</v>
+      </c>
+      <c r="E69" s="26">
         <f t="shared" si="2"/>
         <v>2.1666666666666665</v>
       </c>
-      <c r="F69" s="29">
+      <c r="F69" s="27">
         <f t="shared" si="3"/>
         <v>0.5</v>
       </c>
-      <c r="G69" s="16">
+      <c r="G69" s="14">
         <v>67</v>
       </c>
-      <c r="H69" s="16" t="s">
+      <c r="H69" s="14" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="70" spans="1:8" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="A70" s="19" t="s">
+      <c r="A70" s="17" t="s">
         <v>78</v>
       </c>
-      <c r="B70" s="27">
+      <c r="B70" s="25">
         <v>1</v>
       </c>
-      <c r="C70" s="27">
+      <c r="C70" s="25">
         <v>3</v>
       </c>
-      <c r="D70" s="27">
+      <c r="D70" s="25">
         <v>5</v>
       </c>
-      <c r="E70" s="28">
+      <c r="E70" s="26">
         <f t="shared" si="2"/>
         <v>3</v>
       </c>
-      <c r="F70" s="29">
+      <c r="F70" s="27">
         <f t="shared" si="3"/>
         <v>0.66666666666666663</v>
       </c>
-      <c r="G70" s="16" t="s">
+      <c r="G70" s="14" t="s">
         <v>79</v>
       </c>
-      <c r="H70" s="16" t="s">
+      <c r="H70" s="14" t="s">
         <v>108</v>
       </c>
     </row>
@@ -3521,195 +3532,195 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="15" t="s">
         <v>170</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="B1" s="15" t="s">
         <v>171</v>
       </c>
-      <c r="C1" s="17" t="s">
+      <c r="C1" s="15" t="s">
         <v>186</v>
       </c>
-      <c r="D1" s="20" t="s">
+      <c r="D1" s="18" t="s">
         <v>185</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="28.2" x14ac:dyDescent="0.3">
-      <c r="A2" s="19">
+      <c r="A2" s="17">
         <v>1</v>
       </c>
-      <c r="B2" s="19" t="s">
+      <c r="B2" s="17" t="s">
         <v>158</v>
       </c>
-      <c r="C2" s="21" t="s">
+      <c r="C2" s="19" t="s">
         <v>187</v>
       </c>
-      <c r="D2" s="22">
+      <c r="D2" s="20">
         <v>45874</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="42" x14ac:dyDescent="0.3">
-      <c r="A3" s="19">
+      <c r="A3" s="17">
         <f>A2+1</f>
         <v>2</v>
       </c>
-      <c r="B3" s="19" t="s">
+      <c r="B3" s="17" t="s">
         <v>159</v>
       </c>
-      <c r="C3" s="21" t="s">
+      <c r="C3" s="19" t="s">
         <v>188</v>
       </c>
-      <c r="D3" s="23">
+      <c r="D3" s="21">
         <v>45877</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" s="19">
+      <c r="A4" s="17">
         <f t="shared" ref="A4:A13" si="0">A3+1</f>
         <v>3</v>
       </c>
-      <c r="B4" s="19" t="s">
+      <c r="B4" s="17" t="s">
         <v>160</v>
       </c>
-      <c r="C4" s="24" t="s">
+      <c r="C4" s="22" t="s">
         <v>189</v>
       </c>
-      <c r="D4" s="23">
+      <c r="D4" s="21">
         <v>45877</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A5" s="19">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="B5" s="19" t="s">
+      <c r="A5" s="17">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="B5" s="17" t="s">
         <v>161</v>
       </c>
-      <c r="C5" s="19" t="s">
+      <c r="C5" s="17" t="s">
         <v>190</v>
       </c>
-      <c r="D5" s="23">
+      <c r="D5" s="21">
         <v>45881</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="55.2" x14ac:dyDescent="0.3">
-      <c r="A6" s="19">
+      <c r="A6" s="17">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B6" s="19" t="s">
+      <c r="B6" s="17" t="s">
         <v>162</v>
       </c>
-      <c r="C6" s="19" t="s">
+      <c r="C6" s="17" t="s">
         <v>191</v>
       </c>
-      <c r="D6" s="23">
+      <c r="D6" s="21">
         <v>45889</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="55.2" x14ac:dyDescent="0.3">
-      <c r="A7" s="19">
+      <c r="A7" s="17">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B7" s="19" t="s">
+      <c r="B7" s="17" t="s">
         <v>163</v>
       </c>
-      <c r="C7" s="19" t="s">
+      <c r="C7" s="17" t="s">
         <v>191</v>
       </c>
-      <c r="D7" s="23">
+      <c r="D7" s="21">
         <v>45889</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="A8" s="19">
+      <c r="A8" s="17">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B8" s="19" t="s">
+      <c r="B8" s="17" t="s">
         <v>164</v>
       </c>
-      <c r="C8" s="19" t="s">
+      <c r="C8" s="17" t="s">
         <v>192</v>
       </c>
-      <c r="D8" s="23">
+      <c r="D8" s="21">
         <v>45897</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="55.2" x14ac:dyDescent="0.3">
-      <c r="A9" s="19">
+      <c r="A9" s="17">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="B9" s="19" t="s">
+      <c r="B9" s="17" t="s">
         <v>165</v>
       </c>
-      <c r="C9" s="19" t="s">
+      <c r="C9" s="17" t="s">
         <v>193</v>
       </c>
-      <c r="D9" s="23">
+      <c r="D9" s="21">
         <v>45901</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="55.2" x14ac:dyDescent="0.3">
-      <c r="A10" s="19">
+      <c r="A10" s="17">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="B10" s="19" t="s">
+      <c r="B10" s="17" t="s">
         <v>166</v>
       </c>
-      <c r="C10" s="19" t="s">
+      <c r="C10" s="17" t="s">
         <v>194</v>
       </c>
-      <c r="D10" s="23">
+      <c r="D10" s="21">
         <v>45917</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="A11" s="19">
+      <c r="A11" s="17">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="B11" s="19" t="s">
+      <c r="B11" s="17" t="s">
         <v>167</v>
       </c>
-      <c r="C11" s="19" t="s">
+      <c r="C11" s="17" t="s">
         <v>195</v>
       </c>
-      <c r="D11" s="23">
+      <c r="D11" s="21">
         <v>45898</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="A12" s="19">
+      <c r="A12" s="17">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="B12" s="19" t="s">
+      <c r="B12" s="17" t="s">
         <v>168</v>
       </c>
-      <c r="C12" s="19" t="s">
+      <c r="C12" s="17" t="s">
         <v>196</v>
       </c>
-      <c r="D12" s="23">
+      <c r="D12" s="21">
         <v>45901</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="A13" s="19">
+      <c r="A13" s="17">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="B13" s="19" t="s">
+      <c r="B13" s="17" t="s">
         <v>169</v>
       </c>
-      <c r="C13" s="19" t="s">
+      <c r="C13" s="17" t="s">
         <v>197</v>
       </c>
-      <c r="D13" s="23">
+      <c r="D13" s="21">
         <v>45929</v>
       </c>
     </row>
@@ -3729,123 +3740,123 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.88671875" style="18" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="63.21875" style="18" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="8.88671875" style="18"/>
+    <col min="1" max="1" width="3.88671875" style="16" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="63.21875" style="16" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="8.88671875" style="16"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="15" t="s">
         <v>170</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="B1" s="15" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="19">
+      <c r="A2" s="17">
         <v>1</v>
       </c>
-      <c r="B2" s="19" t="s">
+      <c r="B2" s="17" t="s">
         <v>173</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="19">
+      <c r="A3" s="17">
         <f>A2+1</f>
         <v>2</v>
       </c>
-      <c r="B3" s="19" t="s">
+      <c r="B3" s="17" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="19">
+      <c r="A4" s="17">
         <f t="shared" ref="A4:A13" si="0">A3+1</f>
         <v>3</v>
       </c>
-      <c r="B4" s="19" t="s">
+      <c r="B4" s="17" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="19">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="B5" s="19" t="s">
+      <c r="A5" s="17">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="B5" s="17" t="s">
         <v>176</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="19">
+      <c r="A6" s="17">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B6" s="19" t="s">
+      <c r="B6" s="17" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="19">
+      <c r="A7" s="17">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B7" s="19" t="s">
+      <c r="B7" s="17" t="s">
         <v>178</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="19">
+      <c r="A8" s="17">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B8" s="19" t="s">
+      <c r="B8" s="17" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="19">
+      <c r="A9" s="17">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="B9" s="19" t="s">
+      <c r="B9" s="17" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="19">
+      <c r="A10" s="17">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="B10" s="19" t="s">
+      <c r="B10" s="17" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="19">
+      <c r="A11" s="17">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="B11" s="19" t="s">
+      <c r="B11" s="17" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="19">
+      <c r="A12" s="17">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="B12" s="19" t="s">
+      <c r="B12" s="17" t="s">
         <v>183</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A13" s="19">
+      <c r="A13" s="17">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="B13" s="19" t="s">
+      <c r="B13" s="17" t="s">
         <v>184</v>
       </c>
     </row>
@@ -3872,12 +3883,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="34" t="s">
         <v>199</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="9" t="s">
@@ -3990,122 +4001,122 @@
       <c r="D10" s="8"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11" s="12" t="s">
+      <c r="A11" s="33" t="s">
         <v>200</v>
       </c>
-      <c r="B11" s="12"/>
-      <c r="C11" s="12"/>
-      <c r="D11" s="12"/>
+      <c r="B11" s="33"/>
+      <c r="C11" s="33"/>
+      <c r="D11" s="33"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A12" s="13" t="s">
+      <c r="A12" s="11" t="s">
         <v>198</v>
       </c>
-      <c r="B12" s="13" t="s">
+      <c r="B12" s="11" t="s">
         <v>186</v>
       </c>
-      <c r="C12" s="14" t="s">
+      <c r="C12" s="12" t="s">
         <v>202</v>
       </c>
-      <c r="D12" s="14" t="s">
+      <c r="D12" s="12" t="s">
         <v>201</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="A13" s="15">
+      <c r="A13" s="13">
         <v>1</v>
       </c>
-      <c r="B13" s="15" t="s">
+      <c r="B13" s="13" t="s">
         <v>203</v>
       </c>
-      <c r="C13" s="16" t="s">
+      <c r="C13" s="14" t="s">
         <v>219</v>
       </c>
-      <c r="D13" s="16" t="s">
+      <c r="D13" s="14" t="s">
         <v>220</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="69" x14ac:dyDescent="0.3">
-      <c r="A14" s="15">
-        <v>2</v>
-      </c>
-      <c r="B14" s="15" t="s">
+      <c r="A14" s="13">
+        <v>2</v>
+      </c>
+      <c r="B14" s="13" t="s">
         <v>222</v>
       </c>
-      <c r="C14" s="16" t="s">
+      <c r="C14" s="14" t="s">
         <v>206</v>
       </c>
-      <c r="D14" s="16" t="s">
+      <c r="D14" s="14" t="s">
         <v>221</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A15" s="15">
+      <c r="A15" s="13">
         <v>3</v>
       </c>
-      <c r="B15" s="15" t="s">
+      <c r="B15" s="13" t="s">
         <v>205</v>
       </c>
-      <c r="C15" s="16" t="s">
+      <c r="C15" s="14" t="s">
         <v>206</v>
       </c>
-      <c r="D15" s="16" t="s">
+      <c r="D15" s="14" t="s">
         <v>216</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="55.2" x14ac:dyDescent="0.3">
-      <c r="A16" s="15">
-        <v>4</v>
-      </c>
-      <c r="B16" s="15" t="s">
+      <c r="A16" s="13">
+        <v>4</v>
+      </c>
+      <c r="B16" s="13" t="s">
         <v>207</v>
       </c>
-      <c r="C16" s="16" t="s">
+      <c r="C16" s="14" t="s">
         <v>209</v>
       </c>
-      <c r="D16" s="16" t="s">
+      <c r="D16" s="14" t="s">
         <v>208</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A17" s="15">
+      <c r="A17" s="13">
         <v>5</v>
       </c>
-      <c r="B17" s="15" t="s">
+      <c r="B17" s="13" t="s">
         <v>211</v>
       </c>
-      <c r="C17" s="16" t="s">
+      <c r="C17" s="14" t="s">
         <v>206</v>
       </c>
-      <c r="D17" s="16" t="s">
+      <c r="D17" s="14" t="s">
         <v>210</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A18" s="15">
+      <c r="A18" s="13">
         <v>6</v>
       </c>
-      <c r="B18" s="15" t="s">
+      <c r="B18" s="13" t="s">
         <v>212</v>
       </c>
-      <c r="C18" s="16" t="s">
+      <c r="C18" s="14" t="s">
         <v>217</v>
       </c>
-      <c r="D18" s="16" t="s">
+      <c r="D18" s="14" t="s">
         <v>213</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="55.2" x14ac:dyDescent="0.3">
-      <c r="A19" s="15">
+      <c r="A19" s="13">
         <v>7</v>
       </c>
-      <c r="B19" s="15" t="s">
+      <c r="B19" s="13" t="s">
         <v>214</v>
       </c>
-      <c r="C19" s="16" t="s">
+      <c r="C19" s="14" t="s">
         <v>206</v>
       </c>
-      <c r="D19" s="16" t="s">
+      <c r="D19" s="14" t="s">
         <v>215</v>
       </c>
     </row>
@@ -4139,140 +4150,140 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="75.599999999999994" x14ac:dyDescent="0.3">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="31" t="s">
         <v>223</v>
       </c>
-      <c r="B1" s="33" t="s">
+      <c r="B1" s="31" t="s">
         <v>186</v>
       </c>
-      <c r="C1" s="33" t="s">
+      <c r="C1" s="31" t="s">
         <v>224</v>
       </c>
-      <c r="D1" s="33" t="s">
+      <c r="D1" s="31" t="s">
         <v>225</v>
       </c>
-      <c r="E1" s="33" t="s">
+      <c r="E1" s="31" t="s">
         <v>226</v>
       </c>
-      <c r="F1" s="33" t="s">
+      <c r="F1" s="31" t="s">
         <v>227</v>
       </c>
-      <c r="G1" s="33" t="s">
+      <c r="G1" s="31" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="82.8" x14ac:dyDescent="0.3">
-      <c r="A2" s="32" t="s">
+      <c r="A2" s="30" t="s">
         <v>229</v>
       </c>
-      <c r="B2" s="32" t="s">
+      <c r="B2" s="30" t="s">
         <v>230</v>
       </c>
-      <c r="C2" s="32" t="s">
+      <c r="C2" s="30" t="s">
         <v>231</v>
       </c>
-      <c r="D2" s="32" t="s">
+      <c r="D2" s="30" t="s">
         <v>232</v>
       </c>
-      <c r="E2" s="32" t="s">
+      <c r="E2" s="30" t="s">
         <v>233</v>
       </c>
-      <c r="F2" s="32" t="s">
+      <c r="F2" s="30" t="s">
         <v>234</v>
       </c>
-      <c r="G2" s="32" t="s">
+      <c r="G2" s="30" t="s">
         <v>206</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="69" x14ac:dyDescent="0.3">
-      <c r="A3" s="32" t="s">
+      <c r="A3" s="30" t="s">
         <v>235</v>
       </c>
-      <c r="B3" s="32" t="s">
+      <c r="B3" s="30" t="s">
         <v>236</v>
       </c>
-      <c r="C3" s="32" t="s">
+      <c r="C3" s="30" t="s">
         <v>231</v>
       </c>
-      <c r="D3" s="32" t="s">
+      <c r="D3" s="30" t="s">
         <v>237</v>
       </c>
-      <c r="E3" s="32" t="s">
+      <c r="E3" s="30" t="s">
         <v>238</v>
       </c>
-      <c r="F3" s="32" t="s">
+      <c r="F3" s="30" t="s">
         <v>239</v>
       </c>
-      <c r="G3" s="32" t="s">
+      <c r="G3" s="30" t="s">
         <v>206</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="82.8" x14ac:dyDescent="0.3">
-      <c r="A4" s="32" t="s">
+      <c r="A4" s="30" t="s">
         <v>240</v>
       </c>
-      <c r="B4" s="32" t="s">
+      <c r="B4" s="30" t="s">
         <v>241</v>
       </c>
-      <c r="C4" s="32" t="s">
+      <c r="C4" s="30" t="s">
         <v>242</v>
       </c>
-      <c r="D4" s="32" t="s">
+      <c r="D4" s="30" t="s">
         <v>237</v>
       </c>
-      <c r="E4" s="32" t="s">
+      <c r="E4" s="30" t="s">
         <v>243</v>
       </c>
-      <c r="F4" s="32" t="s">
+      <c r="F4" s="30" t="s">
         <v>244</v>
       </c>
-      <c r="G4" s="32" t="s">
+      <c r="G4" s="30" t="s">
         <v>206</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="96.6" x14ac:dyDescent="0.3">
-      <c r="A5" s="32" t="s">
+      <c r="A5" s="30" t="s">
         <v>245</v>
       </c>
-      <c r="B5" s="32" t="s">
+      <c r="B5" s="30" t="s">
         <v>246</v>
       </c>
-      <c r="C5" s="32" t="s">
+      <c r="C5" s="30" t="s">
         <v>247</v>
       </c>
-      <c r="D5" s="32" t="s">
+      <c r="D5" s="30" t="s">
         <v>237</v>
       </c>
-      <c r="E5" s="32" t="s">
+      <c r="E5" s="30" t="s">
         <v>233</v>
       </c>
-      <c r="F5" s="32" t="s">
+      <c r="F5" s="30" t="s">
         <v>248</v>
       </c>
-      <c r="G5" s="32" t="s">
+      <c r="G5" s="30" t="s">
         <v>206</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="138" x14ac:dyDescent="0.3">
-      <c r="A6" s="32" t="s">
+      <c r="A6" s="30" t="s">
         <v>249</v>
       </c>
-      <c r="B6" s="32" t="s">
+      <c r="B6" s="30" t="s">
         <v>256</v>
       </c>
-      <c r="C6" s="32" t="s">
+      <c r="C6" s="30" t="s">
         <v>247</v>
       </c>
-      <c r="D6" s="32" t="s">
+      <c r="D6" s="30" t="s">
         <v>237</v>
       </c>
-      <c r="E6" s="32" t="s">
+      <c r="E6" s="30" t="s">
         <v>238</v>
       </c>
-      <c r="F6" s="32" t="s">
+      <c r="F6" s="30" t="s">
         <v>257</v>
       </c>
-      <c r="G6" s="32" t="s">
+      <c r="G6" s="30" t="s">
         <v>206</v>
       </c>
     </row>
@@ -4287,7 +4298,7 @@
   <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4299,177 +4310,180 @@
     <col min="5" max="5" width="11.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A1" s="30" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" s="28" t="s">
         <v>250</v>
       </c>
-      <c r="B1" s="30" t="s">
+      <c r="B1" s="28" t="s">
         <v>251</v>
       </c>
-      <c r="C1" s="34" t="s">
+      <c r="C1" s="32" t="s">
         <v>252</v>
       </c>
-      <c r="D1" s="30" t="s">
+      <c r="D1" s="28" t="s">
         <v>253</v>
       </c>
-      <c r="E1" s="30" t="s">
+      <c r="E1" s="28" t="s">
         <v>254</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="39.6" x14ac:dyDescent="0.3">
-      <c r="A2" s="31" t="s">
+      <c r="A2" s="29" t="s">
         <v>259</v>
       </c>
-      <c r="B2" s="31" t="s">
+      <c r="B2" s="29" t="s">
         <v>260</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>275</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>287</v>
+        <v>292</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>293</v>
+        <v>283</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="39.6" x14ac:dyDescent="0.3">
-      <c r="A3" s="31" t="s">
+      <c r="A3" s="29" t="s">
         <v>261</v>
       </c>
-      <c r="B3" s="31" t="s">
+      <c r="B3" s="29" t="s">
         <v>262</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>276</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>288</v>
+        <v>293</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>294</v>
+        <v>284</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="39.6" x14ac:dyDescent="0.3">
-      <c r="A4" s="31" t="s">
+      <c r="A4" s="29" t="s">
         <v>263</v>
       </c>
-      <c r="B4" s="31" t="s">
+      <c r="B4" s="29" t="s">
         <v>264</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>277</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>289</v>
+        <v>294</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>295</v>
+        <v>285</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="26.4" x14ac:dyDescent="0.3">
-      <c r="A5" s="31" t="s">
+      <c r="A5" s="29" t="s">
         <v>265</v>
       </c>
-      <c r="B5" s="31" t="s">
+      <c r="B5" s="29" t="s">
         <v>266</v>
       </c>
       <c r="C5" s="5" t="s">
         <v>278</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>290</v>
+        <v>295</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>296</v>
+        <v>286</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="26.4" x14ac:dyDescent="0.3">
-      <c r="A6" s="31" t="s">
+      <c r="A6" s="29" t="s">
         <v>267</v>
       </c>
-      <c r="B6" s="31" t="s">
+      <c r="B6" s="29" t="s">
         <v>268</v>
       </c>
       <c r="C6" s="5" t="s">
         <v>279</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>291</v>
+        <v>296</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>297</v>
+        <v>287</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="26.4" x14ac:dyDescent="0.3">
-      <c r="A7" s="31" t="s">
+      <c r="A7" s="29" t="s">
         <v>269</v>
       </c>
-      <c r="B7" s="31" t="s">
+      <c r="B7" s="29" t="s">
         <v>270</v>
       </c>
       <c r="C7" s="5" t="s">
         <v>280</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>292</v>
+        <v>297</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>298</v>
+        <v>288</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="26.4" x14ac:dyDescent="0.3">
-      <c r="A8" s="31" t="s">
+      <c r="A8" s="29" t="s">
         <v>258</v>
       </c>
-      <c r="B8" s="31" t="s">
+      <c r="B8" s="29" t="s">
         <v>255</v>
       </c>
       <c r="C8" s="5" t="s">
         <v>281</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>284</v>
+        <v>298</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>299</v>
+        <v>289</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="26.4" x14ac:dyDescent="0.3">
-      <c r="A9" s="31" t="s">
+      <c r="A9" s="29" t="s">
         <v>271</v>
       </c>
-      <c r="B9" s="31" t="s">
+      <c r="B9" s="29" t="s">
         <v>272</v>
       </c>
       <c r="C9" s="5" t="s">
         <v>282</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>285</v>
+        <v>299</v>
       </c>
       <c r="E9" s="5" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="39.6" x14ac:dyDescent="0.3">
+      <c r="A10" s="29" t="s">
+        <v>273</v>
+      </c>
+      <c r="B10" s="29" t="s">
+        <v>274</v>
+      </c>
+      <c r="C10" s="35" t="s">
+        <v>301</v>
+      </c>
+      <c r="D10" s="5" t="s">
         <v>300</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" ht="39.6" x14ac:dyDescent="0.3">
-      <c r="A10" s="31" t="s">
-        <v>273</v>
-      </c>
-      <c r="B10" s="31" t="s">
-        <v>274</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>283</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>286</v>
-      </c>
       <c r="E10" s="5" t="s">
-        <v>301</v>
+        <v>291</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C10" r:id="rId1" xr:uid="{F30D57C0-E139-4B1B-A528-76458900C5B4}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/TERM3/T3B1-ICTPMG613-Manage_ICT_project_plan/2-ICTPMG613-Assessment_Task 2/ICTPMG613_AssessmentTask_Manuel_S_Perez_E-Pert_Chart.xlsx
+++ b/TERM3/T3B1-ICTPMG613-Manage_ICT_project_plan/2-ICTPMG613-Assessment_Task 2/ICTPMG613_AssessmentTask_Manuel_S_Perez_E-Pert_Chart.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\manue\Documents\Assessments\TERM3\T3B1-ICTPMG613-Manage_ICT_project_plan\2-ICTPMG613-Assessment_Task 2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C216FAD-3842-4111-98C0-1E7698B85477}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE80812E-588D-4469-B5BB-314D80DD20CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="5" xr2:uid="{2E7573F3-6188-4FA9-9041-50436B486355}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{2E7573F3-6188-4FA9-9041-50436B486355}"/>
   </bookViews>
   <sheets>
     <sheet name="Chart" sheetId="1" r:id="rId1"/>
@@ -1535,7 +1535,7 @@
   </sheetPr>
   <dimension ref="A1:H70"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A60" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
@@ -3519,14 +3519,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{081C22EC-4620-4117-A76D-1E4837839DB1}">
   <dimension ref="A1:D13"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B12" sqref="A1:D13"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="3.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="30.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.33203125" customWidth="1"/>
     <col min="3" max="3" width="44.5546875" style="4" customWidth="1"/>
     <col min="4" max="4" width="13.77734375" customWidth="1"/>
   </cols>
@@ -4297,7 +4297,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{076153BA-5795-42F2-906B-9931FC8D5804}">
   <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>

--- a/TERM3/T3B1-ICTPMG613-Manage_ICT_project_plan/2-ICTPMG613-Assessment_Task 2/ICTPMG613_AssessmentTask_Manuel_S_Perez_E-Pert_Chart.xlsx
+++ b/TERM3/T3B1-ICTPMG613-Manage_ICT_project_plan/2-ICTPMG613-Assessment_Task 2/ICTPMG613_AssessmentTask_Manuel_S_Perez_E-Pert_Chart.xlsx
@@ -8,17 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\manue\Documents\Assessments\TERM3\T3B1-ICTPMG613-Manage_ICT_project_plan\2-ICTPMG613-Assessment_Task 2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE80812E-588D-4469-B5BB-314D80DD20CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F26C845B-7D6B-4B85-97FB-306127DB811A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{2E7573F3-6188-4FA9-9041-50436B486355}"/>
   </bookViews>
   <sheets>
     <sheet name="Chart" sheetId="1" r:id="rId1"/>
     <sheet name="k-Milestones" sheetId="2" r:id="rId2"/>
-    <sheet name="k-Dependences" sheetId="3" r:id="rId3"/>
-    <sheet name="Change-control" sheetId="4" r:id="rId4"/>
-    <sheet name="Comms-control" sheetId="5" r:id="rId5"/>
-    <sheet name="Comms-directory" sheetId="6" r:id="rId6"/>
+    <sheet name="QA-baseline" sheetId="7" r:id="rId3"/>
+    <sheet name="k-Dependences" sheetId="3" r:id="rId4"/>
+    <sheet name="Change-control" sheetId="4" r:id="rId5"/>
+    <sheet name="Comms-control" sheetId="5" r:id="rId6"/>
+    <sheet name="Comms-directory" sheetId="6" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="302">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="357" uniqueCount="316">
   <si>
     <t>Activity</t>
   </si>
@@ -947,6 +948,48 @@
   </si>
   <si>
     <t>susan.mor@boutiquebuild.com.au</t>
+  </si>
+  <si>
+    <t>New Cloud-Based IT Infrastructure with Scalable, Fault-Tolerant Core Applications</t>
+  </si>
+  <si>
+    <t>Infrastructure fully configured, operational, and fault-tolerant; core applications meet performance, security, and functionality standards</t>
+  </si>
+  <si>
+    <t>Zero critical failures; maximum of 2 minor configuration or performance issues</t>
+  </si>
+  <si>
+    <t>Modern, High-Quality, Engaging, and Stylish Website</t>
+  </si>
+  <si>
+    <t>Website meets usability, design, and performance standards; fully functional with no critical bugs; load times optimized</t>
+  </si>
+  <si>
+    <t>Zero critical defects; maximum of 5 minor defects; page load time ≤ 3 seconds</t>
+  </si>
+  <si>
+    <t>Remote Access Tools and Fully Distributed Work Devices</t>
+  </si>
+  <si>
+    <t>All devices correctly configured and connected; remote access tools fully functional and secure</t>
+  </si>
+  <si>
+    <t>Zero critical connectivity failures; maximum 5% minor configuration issues</t>
+  </si>
+  <si>
+    <t>Comprehensive Documentation and Training</t>
+  </si>
+  <si>
+    <t>All documentation complete, accurate, and understandable; staff training delivered and effective</t>
+  </si>
+  <si>
+    <t>Minimum 90% staff satisfaction; maximum 5% minor documentation errors</t>
+  </si>
+  <si>
+    <t>QA Indicator</t>
+  </si>
+  <si>
+    <t>Acceptable Level</t>
   </si>
 </sst>
 </file>
@@ -1092,7 +1135,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -1186,13 +1229,19 @@
     <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="3" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="3" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Hyperlink" xfId="3" builtinId="8"/>
@@ -1535,8 +1584,8 @@
   </sheetPr>
   <dimension ref="A1:H70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A60" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3519,8 +3568,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{081C22EC-4620-4117-A76D-1E4837839DB1}">
   <dimension ref="A1:D13"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3731,11 +3780,86 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52962F3B-7E13-4F4A-95DB-0576158409CF}">
+  <dimension ref="A1:C5"/>
+  <sheetViews>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection sqref="A1:C5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="22.77734375" customWidth="1"/>
+    <col min="2" max="2" width="19.44140625" customWidth="1"/>
+    <col min="3" max="3" width="20.5546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" s="36" t="s">
+        <v>227</v>
+      </c>
+      <c r="B1" s="36" t="s">
+        <v>314</v>
+      </c>
+      <c r="C1" s="36" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A2" s="37" t="s">
+        <v>302</v>
+      </c>
+      <c r="B2" s="37" t="s">
+        <v>303</v>
+      </c>
+      <c r="C2" s="37" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A3" s="37" t="s">
+        <v>305</v>
+      </c>
+      <c r="B3" s="37" t="s">
+        <v>306</v>
+      </c>
+      <c r="C3" s="37" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="72" x14ac:dyDescent="0.3">
+      <c r="A4" s="37" t="s">
+        <v>308</v>
+      </c>
+      <c r="B4" s="37" t="s">
+        <v>309</v>
+      </c>
+      <c r="C4" s="37" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="72" x14ac:dyDescent="0.3">
+      <c r="A5" s="37" t="s">
+        <v>311</v>
+      </c>
+      <c r="B5" s="37" t="s">
+        <v>312</v>
+      </c>
+      <c r="C5" s="37" t="s">
+        <v>313</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77A6C9D0-B316-4A49-8090-E1E0626B3E1F}">
   <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B22" sqref="A1:XFD1048576"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -3865,12 +3989,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB4A8877-E8DA-4C66-94BC-D151587F6D20}">
   <dimension ref="A1:D19"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D16" sqref="A11:D19"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3883,12 +4007,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="35" t="s">
         <v>199</v>
       </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="9" t="s">
@@ -4001,12 +4125,12 @@
       <c r="D10" s="8"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11" s="33" t="s">
+      <c r="A11" s="34" t="s">
         <v>200</v>
       </c>
-      <c r="B11" s="33"/>
-      <c r="C11" s="33"/>
-      <c r="D11" s="33"/>
+      <c r="B11" s="34"/>
+      <c r="C11" s="34"/>
+      <c r="D11" s="34"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="11" t="s">
@@ -4130,7 +4254,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0362EF11-4C07-4F65-A6EC-3FC0EC3607B0}">
   <dimension ref="A1:G6"/>
   <sheetViews>
@@ -4293,11 +4417,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{076153BA-5795-42F2-906B-9931FC8D5804}">
   <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
@@ -4470,7 +4594,7 @@
       <c r="B10" s="29" t="s">
         <v>274</v>
       </c>
-      <c r="C10" s="35" t="s">
+      <c r="C10" s="33" t="s">
         <v>301</v>
       </c>
       <c r="D10" s="5" t="s">

--- a/TERM3/T3B1-ICTPMG613-Manage_ICT_project_plan/2-ICTPMG613-Assessment_Task 2/ICTPMG613_AssessmentTask_Manuel_S_Perez_E-Pert_Chart.xlsx
+++ b/TERM3/T3B1-ICTPMG613-Manage_ICT_project_plan/2-ICTPMG613-Assessment_Task 2/ICTPMG613_AssessmentTask_Manuel_S_Perez_E-Pert_Chart.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\manue\Documents\Assessments\TERM3\T3B1-ICTPMG613-Manage_ICT_project_plan\2-ICTPMG613-Assessment_Task 2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F26C845B-7D6B-4B85-97FB-306127DB811A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7965BE5B-9946-4D50-8C66-97F6E97534D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{2E7573F3-6188-4FA9-9041-50436B486355}"/>
   </bookViews>
@@ -20,6 +20,7 @@
     <sheet name="Change-control" sheetId="4" r:id="rId5"/>
     <sheet name="Comms-control" sheetId="5" r:id="rId6"/>
     <sheet name="Comms-directory" sheetId="6" r:id="rId7"/>
+    <sheet name="WBS-DIC" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -42,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="357" uniqueCount="316">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="457" uniqueCount="413">
   <si>
     <t>Activity</t>
   </si>
@@ -990,6 +991,297 @@
   </si>
   <si>
     <t>Acceptable Level</t>
+  </si>
+  <si>
+    <t>Level</t>
+  </si>
+  <si>
+    <t>WBS Code</t>
+  </si>
+  <si>
+    <t>Element Name</t>
+  </si>
+  <si>
+    <t>Definition</t>
+  </si>
+  <si>
+    <t>Modernisation of systems and Building a modern Website</t>
+  </si>
+  <si>
+    <t>Overall project that integrates IT systems modernisation and the design, implementation of a modern corporate website. Includes initiation, planning, execution, control, and closeout activities.</t>
+  </si>
+  <si>
+    <t>Initiation</t>
+  </si>
+  <si>
+    <t>Defines the project’s foundation, objectives, and approval to proceed. Includes evaluation, recommendations, and development of project charters.</t>
+  </si>
+  <si>
+    <t>1.1.1</t>
+  </si>
+  <si>
+    <t>Evaluation &amp; Recommendations</t>
+  </si>
+  <si>
+    <t>Conducts feasibility analysis, identifies current gaps in IT systems and web presence, and proposes modernization approaches. Includes work hours for all project team members.</t>
+  </si>
+  <si>
+    <t>1.1.2</t>
+  </si>
+  <si>
+    <t>Develop Project Charter for each project</t>
+  </si>
+  <si>
+    <t>Creation of formal project charters authorizing resources and defining scope, goals, risks, and assumptions for both the systems and website projects.</t>
+  </si>
+  <si>
+    <t>Planning</t>
+  </si>
+  <si>
+    <t>Establishes the roadmap for execution. Includes defining scope, identifying resources, kickoff meetings, and developing a consolidated project plan.</t>
+  </si>
+  <si>
+    <t>1.2.1</t>
+  </si>
+  <si>
+    <t>Create Preliminary Scope Statement</t>
+  </si>
+  <si>
+    <t>Develops initial scope boundaries for both projects, identifying deliverables, exclusions, and assumptions.</t>
+  </si>
+  <si>
+    <t>1.2.2</t>
+  </si>
+  <si>
+    <t>Determine Project Team for each project</t>
+  </si>
+  <si>
+    <t>Assigns roles and responsibilities across both initiatives. Includes allocation of staff, project manager, technical leads, and developers.</t>
+  </si>
+  <si>
+    <t>1.2.3</t>
+  </si>
+  <si>
+    <t>Team Modernisation of systems Kickoff Meeting</t>
+  </si>
+  <si>
+    <t>Initial meeting to align stakeholders and team members for the system modernization project.</t>
+  </si>
+  <si>
+    <t>1.2.4</t>
+  </si>
+  <si>
+    <t>Team Building a Modern website Kickoff Meeting</t>
+  </si>
+  <si>
+    <t>Initial meeting to align stakeholders and team members for the website project.</t>
+  </si>
+  <si>
+    <t>1.2.5</t>
+  </si>
+  <si>
+    <t>Develop Project Plan for both projects</t>
+  </si>
+  <si>
+    <t>Consolidated planning including scope, schedule, cost baseline, risk management, communication plan, and quality baseline.</t>
+  </si>
+  <si>
+    <t>Execution</t>
+  </si>
+  <si>
+    <t>Execution of both projects, delivering IT modernization and a modern website. Involves infrastructure deployment, device rollout, sprint-based website development, and training.</t>
+  </si>
+  <si>
+    <t>1.3.1</t>
+  </si>
+  <si>
+    <t>Official start of execution phase for IT modernization. Aligns tasks, resources, and schedules.</t>
+  </si>
+  <si>
+    <t>1.3.1.1</t>
+  </si>
+  <si>
+    <t>Implementation of new IT infrastructure to the cloud</t>
+  </si>
+  <si>
+    <t>Deploys a scalable and secure cloud infrastructure including core applications, databases, and fault-tolerant services.</t>
+  </si>
+  <si>
+    <t>1.3.1.2</t>
+  </si>
+  <si>
+    <t>New work devices and implement remote access tools</t>
+  </si>
+  <si>
+    <t>Distribution of configured devices (laptops, workstations) and secure remote access tools for staff connectivity.</t>
+  </si>
+  <si>
+    <t>1.3.2</t>
+  </si>
+  <si>
+    <t>Official start of execution for the website development project, introducing the Scrum-based workflow.</t>
+  </si>
+  <si>
+    <t>1.3.2.2</t>
+  </si>
+  <si>
+    <t>Sprint Execution (Iteration)</t>
+  </si>
+  <si>
+    <t>Iterative development cycles for website features (design, functionality, UX/UI). Regular review and refinement included.</t>
+  </si>
+  <si>
+    <t>1.3.2.4</t>
+  </si>
+  <si>
+    <t>Documentation and training</t>
+  </si>
+  <si>
+    <t>Prepares user manuals, technical documentation, and conducts staff training to ensure adoption and operational continuity.</t>
+  </si>
+  <si>
+    <t>1.3.2.5</t>
+  </si>
+  <si>
+    <t>Develop Building website closure</t>
+  </si>
+  <si>
+    <t>Final deliverables for website completion including performance validation, brand alignment, and approval for release.</t>
+  </si>
+  <si>
+    <t>Control</t>
+  </si>
+  <si>
+    <t>Monitoring and controlling both projects through reporting, status meetings, risk management, and project plan updates.</t>
+  </si>
+  <si>
+    <t>1.4.1</t>
+  </si>
+  <si>
+    <t>Project Management Modernisation of systems</t>
+  </si>
+  <si>
+    <t>Oversight of the modernization project ensuring alignment with scope, schedule, and cost baselines.</t>
+  </si>
+  <si>
+    <t>1.4.2</t>
+  </si>
+  <si>
+    <t>Project Management Building a Modern website</t>
+  </si>
+  <si>
+    <t>Oversight of the website project ensuring progress and quality standards are met.</t>
+  </si>
+  <si>
+    <t>1.4.3</t>
+  </si>
+  <si>
+    <t>Project Status Meetings Modernisation of systems</t>
+  </si>
+  <si>
+    <t>Regular meetings to review progress, risks, and dependencies for the systems project.</t>
+  </si>
+  <si>
+    <t>1.4.4</t>
+  </si>
+  <si>
+    <t>Project Status Meetings Building a Modern website</t>
+  </si>
+  <si>
+    <t>Regular meetings to review progress, risks, and dependencies for the website project.</t>
+  </si>
+  <si>
+    <t>1.4.5</t>
+  </si>
+  <si>
+    <t>Risk Management Modernisation of systems</t>
+  </si>
+  <si>
+    <t>Identification, monitoring, and mitigation of risks for the systems modernization.</t>
+  </si>
+  <si>
+    <t>1.4.6</t>
+  </si>
+  <si>
+    <t>Risk Management Building a Modern website</t>
+  </si>
+  <si>
+    <t>Identification, monitoring, and mitigation of risks for the website development.</t>
+  </si>
+  <si>
+    <t>1.4.7</t>
+  </si>
+  <si>
+    <t>Update Project Management Plan Modernisation of systems</t>
+  </si>
+  <si>
+    <t>Ongoing adjustments to the project plan reflecting changes in scope, risks, or timelines.</t>
+  </si>
+  <si>
+    <t>1.4.8</t>
+  </si>
+  <si>
+    <t>Update Project Management Plan Building a Modern website</t>
+  </si>
+  <si>
+    <t>Closeout project</t>
+  </si>
+  <si>
+    <t>Formal closure of the projects. Includes audits, lessons learned, acceptance, and archiving.</t>
+  </si>
+  <si>
+    <t>1.5.1</t>
+  </si>
+  <si>
+    <t>Audit Procurement</t>
+  </si>
+  <si>
+    <t>Review and confirm that all procurement processes were followed and deliverables received.</t>
+  </si>
+  <si>
+    <t>1.5.2</t>
+  </si>
+  <si>
+    <t>Audit Security Policies</t>
+  </si>
+  <si>
+    <t>Validate that implemented solutions comply with corporate security policies and standards.</t>
+  </si>
+  <si>
+    <t>1.5.3</t>
+  </si>
+  <si>
+    <t>Document Lessons Learned</t>
+  </si>
+  <si>
+    <t>Capture successes, challenges, and recommendations for future projects.</t>
+  </si>
+  <si>
+    <t>1.5.4</t>
+  </si>
+  <si>
+    <t>Update Files/Records</t>
+  </si>
+  <si>
+    <t>Ensure all project documentation is complete and updated for historical reference.</t>
+  </si>
+  <si>
+    <t>1.5.5</t>
+  </si>
+  <si>
+    <t>Gain Formal Acceptance</t>
+  </si>
+  <si>
+    <t>Secure official approval from stakeholders for completed deliverables.</t>
+  </si>
+  <si>
+    <t>1.5.6</t>
+  </si>
+  <si>
+    <t>Archive Files/Documents</t>
+  </si>
+  <si>
+    <t>Archive all project records and documentation for compliance and reference.</t>
   </si>
 </sst>
 </file>
@@ -1230,17 +1522,17 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="3" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -1584,7 +1876,7 @@
   </sheetPr>
   <dimension ref="A1:H70"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A63" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
@@ -3795,57 +4087,57 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" s="36" t="s">
+      <c r="A1" s="34" t="s">
         <v>227</v>
       </c>
-      <c r="B1" s="36" t="s">
+      <c r="B1" s="34" t="s">
         <v>314</v>
       </c>
-      <c r="C1" s="36" t="s">
+      <c r="C1" s="34" t="s">
         <v>315</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A2" s="37" t="s">
+      <c r="A2" s="35" t="s">
         <v>302</v>
       </c>
-      <c r="B2" s="37" t="s">
+      <c r="B2" s="35" t="s">
         <v>303</v>
       </c>
-      <c r="C2" s="37" t="s">
+      <c r="C2" s="35" t="s">
         <v>304</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A3" s="37" t="s">
+      <c r="A3" s="35" t="s">
         <v>305</v>
       </c>
-      <c r="B3" s="37" t="s">
+      <c r="B3" s="35" t="s">
         <v>306</v>
       </c>
-      <c r="C3" s="37" t="s">
+      <c r="C3" s="35" t="s">
         <v>307</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="72" x14ac:dyDescent="0.3">
-      <c r="A4" s="37" t="s">
+      <c r="A4" s="35" t="s">
         <v>308</v>
       </c>
-      <c r="B4" s="37" t="s">
+      <c r="B4" s="35" t="s">
         <v>309</v>
       </c>
-      <c r="C4" s="37" t="s">
+      <c r="C4" s="35" t="s">
         <v>310</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="72" x14ac:dyDescent="0.3">
-      <c r="A5" s="37" t="s">
+      <c r="A5" s="35" t="s">
         <v>311</v>
       </c>
-      <c r="B5" s="37" t="s">
+      <c r="B5" s="35" t="s">
         <v>312</v>
       </c>
-      <c r="C5" s="37" t="s">
+      <c r="C5" s="35" t="s">
         <v>313</v>
       </c>
     </row>
@@ -4007,12 +4299,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="37" t="s">
         <v>199</v>
       </c>
-      <c r="B1" s="35"/>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
+      <c r="B1" s="37"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="9" t="s">
@@ -4125,12 +4417,12 @@
       <c r="D10" s="8"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11" s="34" t="s">
+      <c r="A11" s="36" t="s">
         <v>200</v>
       </c>
-      <c r="B11" s="34"/>
-      <c r="C11" s="34"/>
-      <c r="D11" s="34"/>
+      <c r="B11" s="36"/>
+      <c r="C11" s="36"/>
+      <c r="D11" s="36"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="11" t="s">
@@ -4421,7 +4713,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{076153BA-5795-42F2-906B-9931FC8D5804}">
   <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
+    <sheetView topLeftCell="A2" workbookViewId="0">
       <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
@@ -4610,4 +4902,514 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF75A94C-7CF8-41B9-B77E-8D74F099125C}">
+  <dimension ref="A1:D35"/>
+  <sheetViews>
+    <sheetView topLeftCell="A30" workbookViewId="0">
+      <selection activeCell="D41" sqref="D41"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="2" width="8.88671875" style="1"/>
+    <col min="3" max="3" width="15.5546875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="35.21875" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A1" s="6" t="s">
+        <v>316</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>317</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>318</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="72" x14ac:dyDescent="0.3">
+      <c r="A2" s="7">
+        <v>1</v>
+      </c>
+      <c r="B2" s="7">
+        <v>1</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>320</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A3" s="7">
+        <v>2</v>
+      </c>
+      <c r="B3" s="7">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>322</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="72" x14ac:dyDescent="0.3">
+      <c r="A4" s="7">
+        <v>3</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>324</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>325</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A5" s="7">
+        <v>3</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>327</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>328</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A6" s="7">
+        <v>2</v>
+      </c>
+      <c r="B6" s="7">
+        <v>1.2</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>330</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A7" s="7">
+        <v>3</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>332</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A8" s="7">
+        <v>3</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>335</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>336</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A9" s="7">
+        <v>3</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>338</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>339</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A10" s="7">
+        <v>3</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>341</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>342</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A11" s="7">
+        <v>3</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>344</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>345</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="72" x14ac:dyDescent="0.3">
+      <c r="A12" s="7">
+        <v>2</v>
+      </c>
+      <c r="B12" s="7">
+        <v>1.3</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>347</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A13" s="7">
+        <v>3</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>349</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>339</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A14" s="7">
+        <v>4</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>351</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>352</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A15" s="7">
+        <v>4</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>354</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>355</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A16" s="7">
+        <v>3</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>357</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>342</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A17" s="7">
+        <v>4</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>359</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>360</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A18" s="7">
+        <v>4</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>363</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A19" s="7">
+        <v>4</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>366</v>
+      </c>
+      <c r="D19" s="7" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A20" s="7">
+        <v>2</v>
+      </c>
+      <c r="B20" s="7">
+        <v>1.4</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>368</v>
+      </c>
+      <c r="D20" s="7" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A21" s="7">
+        <v>3</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>370</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>371</v>
+      </c>
+      <c r="D21" s="7" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A22" s="7">
+        <v>3</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>373</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>374</v>
+      </c>
+      <c r="D22" s="7" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A23" s="7">
+        <v>3</v>
+      </c>
+      <c r="B23" s="7" t="s">
+        <v>376</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="D23" s="7" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A24" s="7">
+        <v>3</v>
+      </c>
+      <c r="B24" s="7" t="s">
+        <v>379</v>
+      </c>
+      <c r="C24" s="7" t="s">
+        <v>380</v>
+      </c>
+      <c r="D24" s="7" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A25" s="7">
+        <v>3</v>
+      </c>
+      <c r="B25" s="7" t="s">
+        <v>382</v>
+      </c>
+      <c r="C25" s="7" t="s">
+        <v>383</v>
+      </c>
+      <c r="D25" s="7" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A26" s="7">
+        <v>3</v>
+      </c>
+      <c r="B26" s="7" t="s">
+        <v>385</v>
+      </c>
+      <c r="C26" s="7" t="s">
+        <v>386</v>
+      </c>
+      <c r="D26" s="7" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A27" s="7">
+        <v>3</v>
+      </c>
+      <c r="B27" s="7" t="s">
+        <v>388</v>
+      </c>
+      <c r="C27" s="7" t="s">
+        <v>389</v>
+      </c>
+      <c r="D27" s="7" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A28" s="7">
+        <v>3</v>
+      </c>
+      <c r="B28" s="7" t="s">
+        <v>391</v>
+      </c>
+      <c r="C28" s="7" t="s">
+        <v>392</v>
+      </c>
+      <c r="D28" s="7" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A29" s="7">
+        <v>2</v>
+      </c>
+      <c r="B29" s="7">
+        <v>1.5</v>
+      </c>
+      <c r="C29" s="7" t="s">
+        <v>393</v>
+      </c>
+      <c r="D29" s="7" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A30" s="7">
+        <v>3</v>
+      </c>
+      <c r="B30" s="7" t="s">
+        <v>395</v>
+      </c>
+      <c r="C30" s="7" t="s">
+        <v>396</v>
+      </c>
+      <c r="D30" s="7" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A31" s="7">
+        <v>3</v>
+      </c>
+      <c r="B31" s="7" t="s">
+        <v>398</v>
+      </c>
+      <c r="C31" s="7" t="s">
+        <v>399</v>
+      </c>
+      <c r="D31" s="7" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A32" s="7">
+        <v>3</v>
+      </c>
+      <c r="B32" s="7" t="s">
+        <v>401</v>
+      </c>
+      <c r="C32" s="7" t="s">
+        <v>402</v>
+      </c>
+      <c r="D32" s="7" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A33" s="7">
+        <v>3</v>
+      </c>
+      <c r="B33" s="7" t="s">
+        <v>404</v>
+      </c>
+      <c r="C33" s="7" t="s">
+        <v>405</v>
+      </c>
+      <c r="D33" s="7" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A34" s="7">
+        <v>3</v>
+      </c>
+      <c r="B34" s="7" t="s">
+        <v>407</v>
+      </c>
+      <c r="C34" s="7" t="s">
+        <v>408</v>
+      </c>
+      <c r="D34" s="7" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A35" s="7">
+        <v>3</v>
+      </c>
+      <c r="B35" s="7" t="s">
+        <v>410</v>
+      </c>
+      <c r="C35" s="7" t="s">
+        <v>411</v>
+      </c>
+      <c r="D35" s="7" t="s">
+        <v>412</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>